--- a/Entregable 18.10/Semestre_i_DFMEA_Template (1).xlsx
+++ b/Entregable 18.10/Semestre_i_DFMEA_Template (1).xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mausa\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mausa\Documents\Proyecto Sparc\trunk\Entregable 18.10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9E1514E0-CB7C-4202-BFD8-32405AA9C746}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C0E04FA-7A81-42E6-BDFC-DFADE905CEE9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="132">
   <si>
     <t>Process or Product Name:</t>
   </si>
@@ -414,12 +414,96 @@
   <si>
     <t xml:space="preserve">Comunicación serial con el microprocesador (UART). Escribir comandos de coordenadas en terminal serial por parte del usuario. </t>
   </si>
+  <si>
+    <t>Core XY</t>
+  </si>
+  <si>
+    <t>El movimiento en los ejes X y Y será de forma automatizada.
+Velocidad entre 25 y 50 mm/s</t>
+  </si>
+  <si>
+    <t>No se trasnmite movimiento en la configuración</t>
+  </si>
+  <si>
+    <t>Mal tren de pulsos por parte del microcontrolador</t>
+  </si>
+  <si>
+    <t>Falta de potencia en el motor</t>
+  </si>
+  <si>
+    <t>Banda rota</t>
+  </si>
+  <si>
+    <t>Insuficiente tensión</t>
+  </si>
+  <si>
+    <t>Mala electronica en circuito de potencia</t>
+  </si>
+  <si>
+    <t>Stepper no tiene movimiento</t>
+  </si>
+  <si>
+    <t>Stepper desconectado</t>
+  </si>
+  <si>
+    <t>Fallo en electrónica del microcontrolador al stepper</t>
+  </si>
+  <si>
+    <t>Desconcocimiento de sintaxis</t>
+  </si>
+  <si>
+    <t>Malas condiciones de la banda</t>
+  </si>
+  <si>
+    <t>Fallo en diseño del circuito</t>
+  </si>
+  <si>
+    <t>Falta de voltaje o corriente en el circuito</t>
+  </si>
+  <si>
+    <t>Revision de la electronica</t>
+  </si>
+  <si>
+    <t>Busca de fallas con multimetro y/o osciloscopio</t>
+  </si>
+  <si>
+    <t>Cambio de la banda</t>
+  </si>
+  <si>
+    <t>Cambio o revision de la fuente</t>
+  </si>
+  <si>
+    <t>Remplazo del componente en prueba</t>
+  </si>
+  <si>
+    <t>Core XY System moves smothly and quickly where it wants to go</t>
+  </si>
+  <si>
+    <t>Estructura física</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Área de trabajo del actuador que simula el dedo (palpador) es de 30cm en los ejes X,Y y Z. Movimiento en eje Z, será de manera manual, moviendo la placa donde descansará el dispositivo a probar. Contar con un peso que permita portabilidad (Menor a 15 kg) Botón de Reset.
+Switch de ON/OFF.
+Botón de paro de Emergencia.
+Alimentación a 120V 60Hz.
+Precisión de ±1 mm por parte de palpador en movimientos X y Y.
+Velocidad entre 25 y 50 mm/s. </t>
+  </si>
+  <si>
+    <t>Peso sobre pasa los 15kg</t>
+  </si>
+  <si>
+    <t>Centro de masa desbalanceado</t>
+  </si>
+  <si>
+    <t>Vibraciones no deseadas</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -481,6 +565,11 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="20"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -526,7 +615,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -835,6 +924,73 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -844,7 +1000,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -940,18 +1096,6 @@
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1013,10 +1157,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1053,6 +1193,80 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1101,87 +1315,86 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="1" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="7" fillId="6" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="6" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3435,8 +3648,8 @@
   </sheetPr>
   <dimension ref="A1:W441"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:A17"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A27" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33:C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3467,19 +3680,19 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="63"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="79"/>
       <c r="G1" s="2"/>
-      <c r="H1" s="55" t="s">
+      <c r="H1" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="64"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="66"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="82"/>
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
       <c r="O1" s="2"/>
@@ -3491,19 +3704,19 @@
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="67"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="69"/>
+      <c r="B2" s="83"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="85"/>
       <c r="G2" s="2"/>
-      <c r="H2" s="70" t="s">
+      <c r="H2" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="71"/>
-      <c r="L2" s="72"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="87"/>
+      <c r="L2" s="88"/>
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
       <c r="O2" s="2"/>
@@ -3636,31 +3849,31 @@
       <c r="R5" s="20"/>
     </row>
     <row r="6" spans="1:18" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="73" t="s">
+      <c r="A6" s="71" t="s">
         <v>79</v>
       </c>
-      <c r="B6" s="75" t="s">
+      <c r="B6" s="60" t="s">
         <v>105</v>
       </c>
-      <c r="C6" s="77" t="s">
+      <c r="C6" s="68" t="s">
         <v>81</v>
       </c>
-      <c r="D6" s="77" t="s">
+      <c r="D6" s="68" t="s">
         <v>85</v>
       </c>
-      <c r="E6" s="80">
+      <c r="E6" s="57">
         <v>8</v>
       </c>
       <c r="F6" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="G6" s="80">
+      <c r="G6" s="57">
         <v>10</v>
       </c>
       <c r="H6" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="I6" s="57">
+      <c r="I6" s="53">
         <v>6</v>
       </c>
       <c r="J6" s="23">
@@ -3674,13 +3887,13 @@
         <v>102</v>
       </c>
       <c r="M6" s="25"/>
-      <c r="N6" s="92" t="s">
+      <c r="N6" s="74" t="s">
         <v>103</v>
       </c>
-      <c r="O6" s="80">
+      <c r="O6" s="57">
         <v>8</v>
       </c>
-      <c r="P6" s="80">
+      <c r="P6" s="57">
         <v>6</v>
       </c>
       <c r="Q6" s="22">
@@ -3692,13 +3905,13 @@
       </c>
     </row>
     <row r="7" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="74"/>
-      <c r="B7" s="76"/>
-      <c r="C7" s="78"/>
-      <c r="D7" s="78"/>
-      <c r="E7" s="81"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="81"/>
+      <c r="A7" s="72"/>
+      <c r="B7" s="61"/>
+      <c r="C7" s="69"/>
+      <c r="D7" s="69"/>
+      <c r="E7" s="66"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="66"/>
       <c r="H7" s="22"/>
       <c r="I7" s="27"/>
       <c r="J7" s="23">
@@ -3708,9 +3921,9 @@
       <c r="K7" s="24"/>
       <c r="L7" s="22"/>
       <c r="M7" s="25"/>
-      <c r="N7" s="93"/>
-      <c r="O7" s="81"/>
-      <c r="P7" s="81"/>
+      <c r="N7" s="75"/>
+      <c r="O7" s="66"/>
+      <c r="P7" s="66"/>
       <c r="Q7" s="22">
         <v>5</v>
       </c>
@@ -3720,15 +3933,15 @@
       </c>
     </row>
     <row r="8" spans="1:18" ht="60.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="74"/>
-      <c r="B8" s="76"/>
-      <c r="C8" s="78"/>
-      <c r="D8" s="78"/>
-      <c r="E8" s="81"/>
-      <c r="F8" s="60" t="s">
+      <c r="A8" s="72"/>
+      <c r="B8" s="61"/>
+      <c r="C8" s="69"/>
+      <c r="D8" s="69"/>
+      <c r="E8" s="66"/>
+      <c r="F8" s="56" t="s">
         <v>89</v>
       </c>
-      <c r="G8" s="81"/>
+      <c r="G8" s="66"/>
       <c r="H8" s="22" t="s">
         <v>97</v>
       </c>
@@ -3746,9 +3959,9 @@
         <v>102</v>
       </c>
       <c r="M8" s="25"/>
-      <c r="N8" s="93"/>
-      <c r="O8" s="81"/>
-      <c r="P8" s="81"/>
+      <c r="N8" s="75"/>
+      <c r="O8" s="66"/>
+      <c r="P8" s="66"/>
       <c r="Q8" s="22">
         <v>3</v>
       </c>
@@ -3758,15 +3971,15 @@
       </c>
     </row>
     <row r="9" spans="1:18" ht="60.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="74"/>
-      <c r="B9" s="76"/>
-      <c r="C9" s="79"/>
-      <c r="D9" s="79"/>
-      <c r="E9" s="82"/>
-      <c r="F9" s="60" t="s">
+      <c r="A9" s="72"/>
+      <c r="B9" s="61"/>
+      <c r="C9" s="70"/>
+      <c r="D9" s="70"/>
+      <c r="E9" s="67"/>
+      <c r="F9" s="56" t="s">
         <v>104</v>
       </c>
-      <c r="G9" s="82"/>
+      <c r="G9" s="67"/>
       <c r="H9" s="22" t="s">
         <v>97</v>
       </c>
@@ -3784,9 +3997,9 @@
         <v>102</v>
       </c>
       <c r="M9" s="25"/>
-      <c r="N9" s="93"/>
-      <c r="O9" s="82"/>
-      <c r="P9" s="82"/>
+      <c r="N9" s="75"/>
+      <c r="O9" s="67"/>
+      <c r="P9" s="67"/>
       <c r="Q9" s="22">
         <v>4</v>
       </c>
@@ -3796,21 +4009,21 @@
       </c>
     </row>
     <row r="10" spans="1:18" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="74"/>
-      <c r="B10" s="76"/>
-      <c r="C10" s="77" t="s">
+      <c r="A10" s="72"/>
+      <c r="B10" s="61"/>
+      <c r="C10" s="68" t="s">
         <v>80</v>
       </c>
-      <c r="D10" s="77" t="s">
+      <c r="D10" s="68" t="s">
         <v>84</v>
       </c>
-      <c r="E10" s="80">
+      <c r="E10" s="57">
         <v>8</v>
       </c>
-      <c r="F10" s="60" t="s">
+      <c r="F10" s="56" t="s">
         <v>88</v>
       </c>
-      <c r="G10" s="80">
+      <c r="G10" s="57">
         <v>10</v>
       </c>
       <c r="H10" s="22" t="s">
@@ -3830,11 +4043,11 @@
         <v>102</v>
       </c>
       <c r="M10" s="28"/>
-      <c r="N10" s="93"/>
-      <c r="O10" s="80">
+      <c r="N10" s="75"/>
+      <c r="O10" s="57">
         <v>8</v>
       </c>
-      <c r="P10" s="80">
+      <c r="P10" s="57">
         <v>6</v>
       </c>
       <c r="Q10" s="22">
@@ -3846,19 +4059,19 @@
       </c>
     </row>
     <row r="11" spans="1:18" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="74"/>
-      <c r="B11" s="76"/>
-      <c r="C11" s="78"/>
-      <c r="D11" s="78"/>
-      <c r="E11" s="81"/>
-      <c r="F11" s="60" t="s">
+      <c r="A11" s="72"/>
+      <c r="B11" s="61"/>
+      <c r="C11" s="69"/>
+      <c r="D11" s="69"/>
+      <c r="E11" s="66"/>
+      <c r="F11" s="56" t="s">
         <v>90</v>
       </c>
-      <c r="G11" s="81"/>
+      <c r="G11" s="66"/>
       <c r="H11" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="I11" s="58">
+      <c r="I11" s="54">
         <v>6</v>
       </c>
       <c r="J11" s="23">
@@ -3872,9 +4085,9 @@
         <v>102</v>
       </c>
       <c r="M11" s="28"/>
-      <c r="N11" s="93"/>
-      <c r="O11" s="81"/>
-      <c r="P11" s="81"/>
+      <c r="N11" s="75"/>
+      <c r="O11" s="66"/>
+      <c r="P11" s="66"/>
       <c r="Q11" s="22">
         <v>4</v>
       </c>
@@ -3884,15 +4097,15 @@
       </c>
     </row>
     <row r="12" spans="1:18" ht="60.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="74"/>
-      <c r="B12" s="76"/>
-      <c r="C12" s="79"/>
-      <c r="D12" s="79"/>
-      <c r="E12" s="82"/>
-      <c r="F12" s="60" t="s">
+      <c r="A12" s="72"/>
+      <c r="B12" s="61"/>
+      <c r="C12" s="70"/>
+      <c r="D12" s="70"/>
+      <c r="E12" s="67"/>
+      <c r="F12" s="56" t="s">
         <v>91</v>
       </c>
-      <c r="G12" s="82"/>
+      <c r="G12" s="67"/>
       <c r="H12" s="22" t="s">
         <v>97</v>
       </c>
@@ -3910,9 +4123,9 @@
         <v>102</v>
       </c>
       <c r="M12" s="28"/>
-      <c r="N12" s="93"/>
-      <c r="O12" s="82"/>
-      <c r="P12" s="82"/>
+      <c r="N12" s="75"/>
+      <c r="O12" s="67"/>
+      <c r="P12" s="67"/>
       <c r="Q12" s="22">
         <v>3</v>
       </c>
@@ -3922,21 +4135,21 @@
       </c>
     </row>
     <row r="13" spans="1:18" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="74"/>
-      <c r="B13" s="76"/>
-      <c r="C13" s="77" t="s">
+      <c r="A13" s="72"/>
+      <c r="B13" s="61"/>
+      <c r="C13" s="68" t="s">
         <v>82</v>
       </c>
-      <c r="D13" s="77" t="s">
+      <c r="D13" s="68" t="s">
         <v>86</v>
       </c>
-      <c r="E13" s="80">
+      <c r="E13" s="57">
         <v>5</v>
       </c>
-      <c r="F13" s="60" t="s">
+      <c r="F13" s="56" t="s">
         <v>88</v>
       </c>
-      <c r="G13" s="80">
+      <c r="G13" s="57">
         <v>8</v>
       </c>
       <c r="H13" s="22" t="s">
@@ -3956,11 +4169,11 @@
         <v>102</v>
       </c>
       <c r="M13" s="28"/>
-      <c r="N13" s="93"/>
-      <c r="O13" s="80">
+      <c r="N13" s="75"/>
+      <c r="O13" s="57">
         <v>5</v>
       </c>
-      <c r="P13" s="80">
+      <c r="P13" s="57">
         <v>5</v>
       </c>
       <c r="Q13" s="27">
@@ -3972,15 +4185,15 @@
       </c>
     </row>
     <row r="14" spans="1:18" ht="60.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="74"/>
-      <c r="B14" s="76"/>
-      <c r="C14" s="79"/>
-      <c r="D14" s="79"/>
-      <c r="E14" s="82"/>
+      <c r="A14" s="72"/>
+      <c r="B14" s="61"/>
+      <c r="C14" s="70"/>
+      <c r="D14" s="70"/>
+      <c r="E14" s="67"/>
       <c r="F14" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="G14" s="82"/>
+      <c r="G14" s="67"/>
       <c r="H14" s="22" t="s">
         <v>98</v>
       </c>
@@ -3998,9 +4211,9 @@
         <v>102</v>
       </c>
       <c r="M14" s="28"/>
-      <c r="N14" s="93"/>
-      <c r="O14" s="82"/>
-      <c r="P14" s="82"/>
+      <c r="N14" s="75"/>
+      <c r="O14" s="67"/>
+      <c r="P14" s="67"/>
       <c r="Q14" s="27">
         <v>4</v>
       </c>
@@ -4010,21 +4223,21 @@
       </c>
     </row>
     <row r="15" spans="1:18" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="74"/>
-      <c r="B15" s="76"/>
-      <c r="C15" s="77" t="s">
+      <c r="A15" s="72"/>
+      <c r="B15" s="61"/>
+      <c r="C15" s="68" t="s">
         <v>83</v>
       </c>
-      <c r="D15" s="77" t="s">
+      <c r="D15" s="68" t="s">
         <v>87</v>
       </c>
-      <c r="E15" s="80">
+      <c r="E15" s="57">
         <v>8</v>
       </c>
-      <c r="F15" s="60" t="s">
+      <c r="F15" s="56" t="s">
         <v>93</v>
       </c>
-      <c r="G15" s="80">
+      <c r="G15" s="57">
         <v>8</v>
       </c>
       <c r="H15" s="22" t="s">
@@ -4044,11 +4257,11 @@
         <v>102</v>
       </c>
       <c r="M15" s="28"/>
-      <c r="N15" s="93"/>
-      <c r="O15" s="80">
+      <c r="N15" s="75"/>
+      <c r="O15" s="57">
         <v>8</v>
       </c>
-      <c r="P15" s="80">
+      <c r="P15" s="57">
         <v>7</v>
       </c>
       <c r="Q15" s="27">
@@ -4060,15 +4273,15 @@
       </c>
     </row>
     <row r="16" spans="1:18" ht="60.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="74"/>
-      <c r="B16" s="76"/>
-      <c r="C16" s="78"/>
-      <c r="D16" s="78"/>
-      <c r="E16" s="81"/>
-      <c r="F16" s="60" t="s">
+      <c r="A16" s="72"/>
+      <c r="B16" s="61"/>
+      <c r="C16" s="69"/>
+      <c r="D16" s="69"/>
+      <c r="E16" s="66"/>
+      <c r="F16" s="56" t="s">
         <v>94</v>
       </c>
-      <c r="G16" s="81"/>
+      <c r="G16" s="66"/>
       <c r="H16" s="22" t="s">
         <v>98</v>
       </c>
@@ -4086,9 +4299,9 @@
         <v>102</v>
       </c>
       <c r="M16" s="28"/>
-      <c r="N16" s="93"/>
-      <c r="O16" s="81"/>
-      <c r="P16" s="81"/>
+      <c r="N16" s="75"/>
+      <c r="O16" s="66"/>
+      <c r="P16" s="66"/>
       <c r="Q16" s="27">
         <v>5</v>
       </c>
@@ -4098,15 +4311,15 @@
       </c>
     </row>
     <row r="17" spans="1:18" ht="60.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="74"/>
-      <c r="B17" s="76"/>
-      <c r="C17" s="79"/>
-      <c r="D17" s="79"/>
-      <c r="E17" s="82"/>
-      <c r="F17" s="60" t="s">
+      <c r="A17" s="72"/>
+      <c r="B17" s="61"/>
+      <c r="C17" s="69"/>
+      <c r="D17" s="69"/>
+      <c r="E17" s="66"/>
+      <c r="F17" s="56" t="s">
         <v>95</v>
       </c>
-      <c r="G17" s="82"/>
+      <c r="G17" s="67"/>
       <c r="H17" s="22" t="s">
         <v>98</v>
       </c>
@@ -4124,9 +4337,9 @@
         <v>102</v>
       </c>
       <c r="M17" s="28"/>
-      <c r="N17" s="94"/>
-      <c r="O17" s="82"/>
-      <c r="P17" s="82"/>
+      <c r="N17" s="76"/>
+      <c r="O17" s="67"/>
+      <c r="P17" s="67"/>
       <c r="Q17" s="27">
         <v>5</v>
       </c>
@@ -4135,29 +4348,51 @@
         <v>280</v>
       </c>
     </row>
-    <row r="18" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="73"/>
-      <c r="B18" s="75"/>
-      <c r="C18" s="77"/>
-      <c r="D18" s="77"/>
-      <c r="E18" s="80"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="80"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="27"/>
+    <row r="18" spans="1:18" ht="60.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="106" t="s">
+        <v>106</v>
+      </c>
+      <c r="B18" s="107" t="s">
+        <v>107</v>
+      </c>
+      <c r="C18" s="90" t="s">
+        <v>114</v>
+      </c>
+      <c r="D18" s="91" t="s">
+        <v>85</v>
+      </c>
+      <c r="E18" s="108">
+        <v>3</v>
+      </c>
+      <c r="F18" s="93" t="s">
+        <v>117</v>
+      </c>
+      <c r="G18" s="98"/>
+      <c r="H18" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="I18" s="27">
+        <v>8</v>
+      </c>
       <c r="J18" s="23">
         <f>$E$18*$G$18*I18</f>
         <v>0</v>
       </c>
-      <c r="K18" s="29"/>
-      <c r="L18" s="29"/>
+      <c r="K18" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="L18" s="22" t="s">
+        <v>102</v>
+      </c>
       <c r="M18" s="28"/>
-      <c r="N18" s="88"/>
-      <c r="O18" s="80">
+      <c r="N18" s="103" t="s">
+        <v>126</v>
+      </c>
+      <c r="O18" s="57">
         <f>E18</f>
-        <v>0</v>
-      </c>
-      <c r="P18" s="80">
+        <v>3</v>
+      </c>
+      <c r="P18" s="57">
         <f t="shared" ref="P18:P37" si="3">G18</f>
         <v>0</v>
       </c>
@@ -4167,52 +4402,84 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="74"/>
-      <c r="B19" s="76"/>
-      <c r="C19" s="78"/>
-      <c r="D19" s="78"/>
-      <c r="E19" s="81"/>
-      <c r="F19" s="60"/>
-      <c r="G19" s="81"/>
-      <c r="H19" s="22"/>
-      <c r="I19" s="27"/>
+    <row r="19" spans="1:18" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="106"/>
+      <c r="B19" s="107"/>
+      <c r="C19" s="90"/>
+      <c r="D19" s="91" t="s">
+        <v>115</v>
+      </c>
+      <c r="E19" s="108">
+        <v>6</v>
+      </c>
+      <c r="F19" s="94" t="s">
+        <v>89</v>
+      </c>
+      <c r="G19" s="92">
+        <v>8</v>
+      </c>
+      <c r="H19" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="I19" s="27">
+        <v>6</v>
+      </c>
       <c r="J19" s="23">
         <f t="shared" ref="J19:J21" si="4">$E$18*$G$18*I19</f>
         <v>0</v>
       </c>
-      <c r="K19" s="29"/>
-      <c r="L19" s="29"/>
+      <c r="K19" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="L19" s="22" t="s">
+        <v>102</v>
+      </c>
       <c r="M19" s="28"/>
-      <c r="N19" s="90"/>
-      <c r="O19" s="81"/>
-      <c r="P19" s="81"/>
+      <c r="N19" s="104"/>
+      <c r="O19" s="66"/>
+      <c r="P19" s="66"/>
       <c r="Q19" s="22"/>
       <c r="R19" s="26">
         <f t="shared" ref="R19:R23" si="5">O$18*P19*Q19</f>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="74"/>
-      <c r="B20" s="76"/>
-      <c r="C20" s="78"/>
-      <c r="D20" s="78"/>
-      <c r="E20" s="81"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="81"/>
-      <c r="H20" s="22"/>
-      <c r="I20" s="27"/>
+    <row r="20" spans="1:18" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="106"/>
+      <c r="B20" s="107"/>
+      <c r="C20" s="90" t="s">
+        <v>108</v>
+      </c>
+      <c r="D20" s="91" t="s">
+        <v>111</v>
+      </c>
+      <c r="E20" s="108">
+        <v>9</v>
+      </c>
+      <c r="F20" s="96" t="s">
+        <v>118</v>
+      </c>
+      <c r="G20" s="66"/>
+      <c r="H20" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="I20" s="27">
+        <v>5</v>
+      </c>
       <c r="J20" s="23">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K20" s="29"/>
-      <c r="L20" s="29"/>
+      <c r="K20" s="102" t="s">
+        <v>125</v>
+      </c>
+      <c r="L20" s="22" t="s">
+        <v>102</v>
+      </c>
       <c r="M20" s="28"/>
-      <c r="N20" s="90"/>
-      <c r="O20" s="81"/>
-      <c r="P20" s="81"/>
+      <c r="N20" s="104"/>
+      <c r="O20" s="66"/>
+      <c r="P20" s="66"/>
       <c r="Q20" s="22"/>
       <c r="R20" s="26">
         <f t="shared" si="5"/>
@@ -4220,13 +4487,17 @@
       </c>
     </row>
     <row r="21" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="74"/>
-      <c r="B21" s="76"/>
-      <c r="C21" s="79"/>
-      <c r="D21" s="79"/>
-      <c r="E21" s="82"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="82"/>
+      <c r="A21" s="106"/>
+      <c r="B21" s="107"/>
+      <c r="C21" s="90"/>
+      <c r="D21" s="89" t="s">
+        <v>112</v>
+      </c>
+      <c r="E21" s="108">
+        <v>6</v>
+      </c>
+      <c r="F21" s="97"/>
+      <c r="G21" s="67"/>
       <c r="H21" s="22"/>
       <c r="I21" s="27"/>
       <c r="J21" s="23">
@@ -4236,9 +4507,9 @@
       <c r="K21" s="29"/>
       <c r="L21" s="29"/>
       <c r="M21" s="28"/>
-      <c r="N21" s="89"/>
-      <c r="O21" s="81"/>
-      <c r="P21" s="82"/>
+      <c r="N21" s="105"/>
+      <c r="O21" s="66"/>
+      <c r="P21" s="67"/>
       <c r="Q21" s="22"/>
       <c r="R21" s="26">
         <f t="shared" si="5"/>
@@ -4246,30 +4517,50 @@
       </c>
     </row>
     <row r="22" spans="1:18" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="74"/>
-      <c r="B22" s="76"/>
-      <c r="C22" s="77"/>
-      <c r="D22" s="77"/>
-      <c r="E22" s="81"/>
-      <c r="F22" s="30"/>
-      <c r="G22" s="86"/>
-      <c r="H22" s="22"/>
-      <c r="I22" s="27"/>
+      <c r="A22" s="106"/>
+      <c r="B22" s="107"/>
+      <c r="C22" s="89" t="s">
+        <v>109</v>
+      </c>
+      <c r="D22" s="89" t="s">
+        <v>116</v>
+      </c>
+      <c r="E22" s="108">
+        <v>8</v>
+      </c>
+      <c r="F22" s="95" t="s">
+        <v>119</v>
+      </c>
+      <c r="G22" s="99">
+        <v>8</v>
+      </c>
+      <c r="H22" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="I22" s="27">
+        <v>4</v>
+      </c>
       <c r="J22" s="23">
         <f>$E$22*$G$22*I22</f>
-        <v>0</v>
-      </c>
-      <c r="K22" s="31"/>
-      <c r="L22" s="31"/>
+        <v>256</v>
+      </c>
+      <c r="K22" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="L22" s="22" t="s">
+        <v>102</v>
+      </c>
       <c r="M22" s="28"/>
-      <c r="N22" s="88"/>
-      <c r="O22" s="80">
+      <c r="N22" s="103" t="s">
+        <v>126</v>
+      </c>
+      <c r="O22" s="57">
         <f>E22</f>
-        <v>0</v>
-      </c>
-      <c r="P22" s="80">
+        <v>8</v>
+      </c>
+      <c r="P22" s="57">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Q22" s="22"/>
       <c r="R22" s="26">
@@ -4278,25 +4569,43 @@
       </c>
     </row>
     <row r="23" spans="1:18" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="85"/>
-      <c r="B23" s="91"/>
-      <c r="C23" s="79"/>
-      <c r="D23" s="79"/>
-      <c r="E23" s="82"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="87"/>
-      <c r="H23" s="22"/>
-      <c r="I23" s="27"/>
+      <c r="A23" s="106"/>
+      <c r="B23" s="107"/>
+      <c r="C23" s="89" t="s">
+        <v>110</v>
+      </c>
+      <c r="D23" s="89" t="s">
+        <v>113</v>
+      </c>
+      <c r="E23" s="108">
+        <v>4</v>
+      </c>
+      <c r="F23" s="93" t="s">
+        <v>120</v>
+      </c>
+      <c r="G23" s="100">
+        <v>8</v>
+      </c>
+      <c r="H23" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="I23" s="27">
+        <v>6</v>
+      </c>
       <c r="J23" s="23">
         <f>$E$22*$G$22*I23</f>
-        <v>0</v>
-      </c>
-      <c r="K23" s="32"/>
-      <c r="L23" s="32"/>
+        <v>384</v>
+      </c>
+      <c r="K23" s="101" t="s">
+        <v>125</v>
+      </c>
+      <c r="L23" s="22" t="s">
+        <v>102</v>
+      </c>
       <c r="M23" s="28"/>
-      <c r="N23" s="89"/>
-      <c r="O23" s="83"/>
-      <c r="P23" s="82"/>
+      <c r="N23" s="105"/>
+      <c r="O23" s="59"/>
+      <c r="P23" s="67"/>
       <c r="Q23" s="22"/>
       <c r="R23" s="26">
         <f t="shared" si="5"/>
@@ -4304,15 +4613,21 @@
       </c>
     </row>
     <row r="24" spans="1:18" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="73"/>
-      <c r="B24" s="75"/>
-      <c r="C24" s="77"/>
-      <c r="D24" s="77"/>
-      <c r="E24" s="80"/>
+      <c r="A24" s="72" t="s">
+        <v>127</v>
+      </c>
+      <c r="B24" s="109" t="s">
+        <v>128</v>
+      </c>
+      <c r="C24" s="69" t="s">
+        <v>129</v>
+      </c>
+      <c r="D24" s="69"/>
+      <c r="E24" s="66"/>
       <c r="F24" s="22"/>
-      <c r="G24" s="80"/>
+      <c r="G24" s="57"/>
       <c r="H24" s="22"/>
-      <c r="I24" s="59"/>
+      <c r="I24" s="55"/>
       <c r="J24" s="23">
         <f>$E$24*$G$24*I24</f>
         <v>0</v>
@@ -4320,8 +4635,8 @@
       <c r="K24" s="24"/>
       <c r="L24" s="22"/>
       <c r="M24" s="28"/>
-      <c r="N24" s="88"/>
-      <c r="O24" s="80">
+      <c r="N24" s="63"/>
+      <c r="O24" s="57">
         <f>E29</f>
         <v>0</v>
       </c>
@@ -4336,15 +4651,15 @@
       </c>
     </row>
     <row r="25" spans="1:18" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="74"/>
-      <c r="B25" s="76"/>
-      <c r="C25" s="78"/>
-      <c r="D25" s="78"/>
-      <c r="E25" s="81"/>
-      <c r="F25" s="60"/>
-      <c r="G25" s="81"/>
+      <c r="A25" s="72"/>
+      <c r="B25" s="61"/>
+      <c r="C25" s="69"/>
+      <c r="D25" s="69"/>
+      <c r="E25" s="66"/>
+      <c r="F25" s="56"/>
+      <c r="G25" s="66"/>
       <c r="H25" s="22"/>
-      <c r="I25" s="59"/>
+      <c r="I25" s="55"/>
       <c r="J25" s="23">
         <f t="shared" ref="J25:J26" si="6">$E$24*$G$24*I25</f>
         <v>0</v>
@@ -4352,8 +4667,8 @@
       <c r="K25" s="24"/>
       <c r="L25" s="22"/>
       <c r="M25" s="28"/>
-      <c r="N25" s="90"/>
-      <c r="O25" s="81"/>
+      <c r="N25" s="64"/>
+      <c r="O25" s="66"/>
       <c r="P25" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -4365,15 +4680,15 @@
       </c>
     </row>
     <row r="26" spans="1:18" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="74"/>
-      <c r="B26" s="76"/>
-      <c r="C26" s="78"/>
-      <c r="D26" s="78"/>
-      <c r="E26" s="81"/>
-      <c r="F26" s="60"/>
-      <c r="G26" s="81"/>
+      <c r="A26" s="72"/>
+      <c r="B26" s="61"/>
+      <c r="C26" s="69"/>
+      <c r="D26" s="69"/>
+      <c r="E26" s="66"/>
+      <c r="F26" s="56"/>
+      <c r="G26" s="66"/>
       <c r="H26" s="22"/>
-      <c r="I26" s="59"/>
+      <c r="I26" s="55"/>
       <c r="J26" s="23">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -4381,8 +4696,8 @@
       <c r="K26" s="24"/>
       <c r="L26" s="22"/>
       <c r="M26" s="28"/>
-      <c r="N26" s="90"/>
-      <c r="O26" s="81"/>
+      <c r="N26" s="64"/>
+      <c r="O26" s="66"/>
       <c r="P26" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -4394,15 +4709,15 @@
       </c>
     </row>
     <row r="27" spans="1:18" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="74"/>
-      <c r="B27" s="91"/>
-      <c r="C27" s="79"/>
-      <c r="D27" s="79"/>
-      <c r="E27" s="82"/>
+      <c r="A27" s="72"/>
+      <c r="B27" s="61"/>
+      <c r="C27" s="70"/>
+      <c r="D27" s="70"/>
+      <c r="E27" s="67"/>
       <c r="F27" s="22"/>
-      <c r="G27" s="82"/>
+      <c r="G27" s="67"/>
       <c r="H27" s="22"/>
-      <c r="I27" s="59"/>
+      <c r="I27" s="55"/>
       <c r="J27" s="23">
         <f>$E$24*$G$24*I27</f>
         <v>0</v>
@@ -4410,8 +4725,8 @@
       <c r="K27" s="24"/>
       <c r="L27" s="22"/>
       <c r="M27" s="28"/>
-      <c r="N27" s="89"/>
-      <c r="O27" s="82"/>
+      <c r="N27" s="65"/>
+      <c r="O27" s="67"/>
       <c r="P27" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -4422,16 +4737,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="74"/>
-      <c r="B28" s="50"/>
-      <c r="C28" s="56"/>
-      <c r="D28" s="56"/>
-      <c r="E28" s="57"/>
+    <row r="28" spans="1:18" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="72"/>
+      <c r="B28" s="61"/>
+      <c r="C28" s="52" t="s">
+        <v>130</v>
+      </c>
+      <c r="D28" s="52"/>
+      <c r="E28" s="53"/>
       <c r="F28" s="22"/>
       <c r="G28" s="27"/>
       <c r="H28" s="22"/>
-      <c r="I28" s="59"/>
+      <c r="I28" s="55"/>
       <c r="J28" s="23">
         <f>$E$28*$G$28*I28</f>
         <v>0</v>
@@ -4439,7 +4756,7 @@
       <c r="K28" s="24"/>
       <c r="L28" s="24"/>
       <c r="M28" s="28"/>
-      <c r="N28" s="33"/>
+      <c r="N28" s="30"/>
       <c r="O28" s="27">
         <f>E28</f>
         <v>0</v>
@@ -4455,15 +4772,17 @@
       </c>
     </row>
     <row r="29" spans="1:18" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="74"/>
-      <c r="B29" s="75"/>
-      <c r="C29" s="77"/>
-      <c r="D29" s="77"/>
-      <c r="E29" s="80"/>
+      <c r="A29" s="72"/>
+      <c r="B29" s="61"/>
+      <c r="C29" s="68" t="s">
+        <v>131</v>
+      </c>
+      <c r="D29" s="68"/>
+      <c r="E29" s="57"/>
       <c r="F29" s="22"/>
-      <c r="G29" s="80"/>
+      <c r="G29" s="57"/>
       <c r="H29" s="22"/>
-      <c r="I29" s="59"/>
+      <c r="I29" s="55"/>
       <c r="J29" s="23">
         <f>$E$29*$G$29*I29</f>
         <v>0</v>
@@ -4471,8 +4790,8 @@
       <c r="K29" s="24"/>
       <c r="L29" s="22"/>
       <c r="M29" s="28"/>
-      <c r="N29" s="88"/>
-      <c r="O29" s="80">
+      <c r="N29" s="63"/>
+      <c r="O29" s="57">
         <f>E29</f>
         <v>0</v>
       </c>
@@ -4487,15 +4806,15 @@
       </c>
     </row>
     <row r="30" spans="1:18" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="74"/>
-      <c r="B30" s="76"/>
-      <c r="C30" s="78"/>
-      <c r="D30" s="78"/>
-      <c r="E30" s="81"/>
-      <c r="F30" s="60"/>
-      <c r="G30" s="81"/>
+      <c r="A30" s="72"/>
+      <c r="B30" s="61"/>
+      <c r="C30" s="69"/>
+      <c r="D30" s="69"/>
+      <c r="E30" s="66"/>
+      <c r="F30" s="56"/>
+      <c r="G30" s="66"/>
       <c r="H30" s="22"/>
-      <c r="I30" s="59"/>
+      <c r="I30" s="55"/>
       <c r="J30" s="23">
         <f t="shared" ref="J30:J31" si="8">$E$29*$G$29*I30</f>
         <v>0</v>
@@ -4503,8 +4822,8 @@
       <c r="K30" s="24"/>
       <c r="L30" s="22"/>
       <c r="M30" s="28"/>
-      <c r="N30" s="90"/>
-      <c r="O30" s="84"/>
+      <c r="N30" s="64"/>
+      <c r="O30" s="58"/>
       <c r="P30" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -4516,15 +4835,15 @@
       </c>
     </row>
     <row r="31" spans="1:18" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="74"/>
-      <c r="B31" s="76"/>
-      <c r="C31" s="78"/>
-      <c r="D31" s="78"/>
-      <c r="E31" s="81"/>
-      <c r="F31" s="60"/>
-      <c r="G31" s="81"/>
+      <c r="A31" s="72"/>
+      <c r="B31" s="61"/>
+      <c r="C31" s="69"/>
+      <c r="D31" s="69"/>
+      <c r="E31" s="66"/>
+      <c r="F31" s="56"/>
+      <c r="G31" s="66"/>
       <c r="H31" s="22"/>
-      <c r="I31" s="59"/>
+      <c r="I31" s="55"/>
       <c r="J31" s="23">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -4532,8 +4851,8 @@
       <c r="K31" s="24"/>
       <c r="L31" s="22"/>
       <c r="M31" s="28"/>
-      <c r="N31" s="90"/>
-      <c r="O31" s="84"/>
+      <c r="N31" s="64"/>
+      <c r="O31" s="58"/>
       <c r="P31" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -4544,16 +4863,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:18" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="85"/>
-      <c r="B32" s="91"/>
-      <c r="C32" s="79"/>
-      <c r="D32" s="79"/>
-      <c r="E32" s="82"/>
+    <row r="32" spans="1:18" ht="135" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="73"/>
+      <c r="B32" s="62"/>
+      <c r="C32" s="70"/>
+      <c r="D32" s="70"/>
+      <c r="E32" s="67"/>
       <c r="F32" s="22"/>
-      <c r="G32" s="82"/>
+      <c r="G32" s="67"/>
       <c r="H32" s="22"/>
-      <c r="I32" s="59"/>
+      <c r="I32" s="55"/>
       <c r="J32" s="23">
         <f>$E$29*$G$29*I32</f>
         <v>0</v>
@@ -4561,8 +4880,8 @@
       <c r="K32" s="24"/>
       <c r="L32" s="22"/>
       <c r="M32" s="28"/>
-      <c r="N32" s="89"/>
-      <c r="O32" s="83"/>
+      <c r="N32" s="65"/>
+      <c r="O32" s="59"/>
       <c r="P32" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -4574,15 +4893,15 @@
       </c>
     </row>
     <row r="33" spans="1:23" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="73"/>
-      <c r="B33" s="75"/>
-      <c r="C33" s="77"/>
-      <c r="D33" s="77"/>
-      <c r="E33" s="80"/>
+      <c r="A33" s="71"/>
+      <c r="B33" s="60"/>
+      <c r="C33" s="68"/>
+      <c r="D33" s="68"/>
+      <c r="E33" s="57"/>
       <c r="F33" s="22"/>
-      <c r="G33" s="80"/>
+      <c r="G33" s="57"/>
       <c r="H33" s="22"/>
-      <c r="I33" s="59"/>
+      <c r="I33" s="55"/>
       <c r="J33" s="23">
         <f>$E$33*$G$33:$G$37*I33</f>
         <v>0</v>
@@ -4590,8 +4909,8 @@
       <c r="K33" s="24"/>
       <c r="L33" s="22"/>
       <c r="M33" s="28"/>
-      <c r="N33" s="88"/>
-      <c r="O33" s="80">
+      <c r="N33" s="63"/>
+      <c r="O33" s="57">
         <f>E33</f>
         <v>0</v>
       </c>
@@ -4606,15 +4925,15 @@
       </c>
     </row>
     <row r="34" spans="1:23" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="74"/>
-      <c r="B34" s="76"/>
-      <c r="C34" s="78"/>
-      <c r="D34" s="78"/>
-      <c r="E34" s="81"/>
-      <c r="F34" s="60"/>
-      <c r="G34" s="81"/>
+      <c r="A34" s="72"/>
+      <c r="B34" s="61"/>
+      <c r="C34" s="69"/>
+      <c r="D34" s="69"/>
+      <c r="E34" s="66"/>
+      <c r="F34" s="56"/>
+      <c r="G34" s="66"/>
       <c r="H34" s="22"/>
-      <c r="I34" s="59"/>
+      <c r="I34" s="55"/>
       <c r="J34" s="23">
         <f t="shared" ref="J34:J37" si="9">$E$33*$G$33:$G$37*I34</f>
         <v>0</v>
@@ -4622,8 +4941,8 @@
       <c r="K34" s="24"/>
       <c r="L34" s="22"/>
       <c r="M34" s="28"/>
-      <c r="N34" s="90"/>
-      <c r="O34" s="84"/>
+      <c r="N34" s="64"/>
+      <c r="O34" s="58"/>
       <c r="P34" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -4635,15 +4954,15 @@
       </c>
     </row>
     <row r="35" spans="1:23" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="74"/>
-      <c r="B35" s="76"/>
-      <c r="C35" s="78"/>
-      <c r="D35" s="78"/>
-      <c r="E35" s="81"/>
-      <c r="F35" s="60"/>
-      <c r="G35" s="81"/>
+      <c r="A35" s="72"/>
+      <c r="B35" s="61"/>
+      <c r="C35" s="69"/>
+      <c r="D35" s="69"/>
+      <c r="E35" s="66"/>
+      <c r="F35" s="56"/>
+      <c r="G35" s="66"/>
       <c r="H35" s="22"/>
-      <c r="I35" s="59"/>
+      <c r="I35" s="55"/>
       <c r="J35" s="23">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -4651,8 +4970,8 @@
       <c r="K35" s="24"/>
       <c r="L35" s="22"/>
       <c r="M35" s="28"/>
-      <c r="N35" s="90"/>
-      <c r="O35" s="84"/>
+      <c r="N35" s="64"/>
+      <c r="O35" s="58"/>
       <c r="P35" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -4664,15 +4983,15 @@
       </c>
     </row>
     <row r="36" spans="1:23" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="74"/>
-      <c r="B36" s="76"/>
-      <c r="C36" s="78"/>
-      <c r="D36" s="78"/>
-      <c r="E36" s="81"/>
-      <c r="F36" s="60"/>
-      <c r="G36" s="81"/>
+      <c r="A36" s="72"/>
+      <c r="B36" s="61"/>
+      <c r="C36" s="69"/>
+      <c r="D36" s="69"/>
+      <c r="E36" s="66"/>
+      <c r="F36" s="56"/>
+      <c r="G36" s="66"/>
       <c r="H36" s="22"/>
-      <c r="I36" s="59"/>
+      <c r="I36" s="55"/>
       <c r="J36" s="23">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -4680,8 +4999,8 @@
       <c r="K36" s="24"/>
       <c r="L36" s="22"/>
       <c r="M36" s="28"/>
-      <c r="N36" s="90"/>
-      <c r="O36" s="84"/>
+      <c r="N36" s="64"/>
+      <c r="O36" s="58"/>
       <c r="P36" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -4693,15 +5012,15 @@
       </c>
     </row>
     <row r="37" spans="1:23" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="85"/>
-      <c r="B37" s="91"/>
-      <c r="C37" s="79"/>
-      <c r="D37" s="79"/>
-      <c r="E37" s="82"/>
+      <c r="A37" s="73"/>
+      <c r="B37" s="62"/>
+      <c r="C37" s="70"/>
+      <c r="D37" s="70"/>
+      <c r="E37" s="67"/>
       <c r="F37" s="22"/>
-      <c r="G37" s="82"/>
+      <c r="G37" s="67"/>
       <c r="H37" s="22"/>
-      <c r="I37" s="59"/>
+      <c r="I37" s="55"/>
       <c r="J37" s="23">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -4709,8 +5028,8 @@
       <c r="K37" s="24"/>
       <c r="L37" s="22"/>
       <c r="M37" s="28"/>
-      <c r="N37" s="89"/>
-      <c r="O37" s="83"/>
+      <c r="N37" s="65"/>
+      <c r="O37" s="59"/>
       <c r="P37" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -4722,58 +5041,58 @@
       </c>
     </row>
     <row r="38" spans="1:23" ht="110.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="34" t="s">
+      <c r="A38" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="B38" s="35" t="s">
+      <c r="B38" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="C38" s="36" t="s">
+      <c r="C38" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="D38" s="37" t="s">
+      <c r="D38" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="E38" s="38"/>
-      <c r="F38" s="39" t="s">
+      <c r="E38" s="35"/>
+      <c r="F38" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="G38" s="40"/>
-      <c r="H38" s="41" t="s">
+      <c r="G38" s="37"/>
+      <c r="H38" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="I38" s="40"/>
-      <c r="J38" s="42"/>
-      <c r="K38" s="41" t="s">
+      <c r="I38" s="37"/>
+      <c r="J38" s="39"/>
+      <c r="K38" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="L38" s="41" t="s">
+      <c r="L38" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="M38" s="41" t="s">
+      <c r="M38" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="N38" s="43" t="s">
+      <c r="N38" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="O38" s="44"/>
-      <c r="P38" s="44"/>
-      <c r="Q38" s="44"/>
-      <c r="R38" s="45"/>
-      <c r="T38" s="46"/>
-      <c r="U38" s="47"/>
-      <c r="V38" s="48"/>
-      <c r="W38" s="48"/>
+      <c r="O38" s="41"/>
+      <c r="P38" s="41"/>
+      <c r="Q38" s="41"/>
+      <c r="R38" s="42"/>
+      <c r="T38" s="43"/>
+      <c r="U38" s="44"/>
+      <c r="V38" s="45"/>
+      <c r="W38" s="45"/>
     </row>
     <row r="39" spans="1:23" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C39" s="49"/>
-      <c r="E39" s="49"/>
-      <c r="G39" s="49"/>
-      <c r="I39" s="49"/>
-      <c r="T39" s="46"/>
-      <c r="U39" s="48"/>
-      <c r="V39" s="48"/>
-      <c r="W39" s="48"/>
+      <c r="C39" s="46"/>
+      <c r="E39" s="46"/>
+      <c r="G39" s="46"/>
+      <c r="I39" s="46"/>
+      <c r="T39" s="43"/>
+      <c r="U39" s="45"/>
+      <c r="V39" s="45"/>
+      <c r="W39" s="45"/>
     </row>
     <row r="40" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="41" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5178,46 +5497,22 @@
     <row r="440" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="441" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="70">
-    <mergeCell ref="O33:O37"/>
-    <mergeCell ref="B18:B23"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="B29:B32"/>
-    <mergeCell ref="B33:B37"/>
-    <mergeCell ref="N33:N37"/>
-    <mergeCell ref="O24:O27"/>
-    <mergeCell ref="C29:C32"/>
-    <mergeCell ref="D29:D32"/>
-    <mergeCell ref="E29:E32"/>
-    <mergeCell ref="G29:G32"/>
-    <mergeCell ref="N29:N32"/>
-    <mergeCell ref="O29:O32"/>
-    <mergeCell ref="N24:N27"/>
-    <mergeCell ref="O18:O21"/>
-    <mergeCell ref="A33:A37"/>
-    <mergeCell ref="C33:C37"/>
-    <mergeCell ref="D33:D37"/>
-    <mergeCell ref="E33:E37"/>
-    <mergeCell ref="G33:G37"/>
-    <mergeCell ref="A24:A32"/>
-    <mergeCell ref="C24:C27"/>
-    <mergeCell ref="D24:D27"/>
-    <mergeCell ref="E24:E27"/>
-    <mergeCell ref="G24:G27"/>
-    <mergeCell ref="P18:P21"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="N22:N23"/>
-    <mergeCell ref="O22:O23"/>
-    <mergeCell ref="P22:P23"/>
-    <mergeCell ref="N18:N21"/>
-    <mergeCell ref="A18:A23"/>
-    <mergeCell ref="C18:C21"/>
-    <mergeCell ref="D18:D21"/>
-    <mergeCell ref="E18:E21"/>
-    <mergeCell ref="G18:G21"/>
+  <mergeCells count="65">
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="H2:L2"/>
+    <mergeCell ref="A6:A17"/>
+    <mergeCell ref="B6:B17"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="D6:D9"/>
+    <mergeCell ref="E6:E9"/>
+    <mergeCell ref="G6:G9"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="E10:E12"/>
+    <mergeCell ref="G10:G12"/>
+    <mergeCell ref="O10:O12"/>
+    <mergeCell ref="P10:P12"/>
     <mergeCell ref="P13:P14"/>
     <mergeCell ref="C15:C17"/>
     <mergeCell ref="D15:D17"/>
@@ -5234,21 +5529,40 @@
     <mergeCell ref="O6:O9"/>
     <mergeCell ref="P6:P9"/>
     <mergeCell ref="C10:C12"/>
-    <mergeCell ref="D10:D12"/>
-    <mergeCell ref="E10:E12"/>
-    <mergeCell ref="G10:G12"/>
-    <mergeCell ref="O10:O12"/>
-    <mergeCell ref="P10:P12"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="I1:L1"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="H2:L2"/>
-    <mergeCell ref="A6:A17"/>
-    <mergeCell ref="B6:B17"/>
-    <mergeCell ref="C6:C9"/>
-    <mergeCell ref="D6:D9"/>
-    <mergeCell ref="E6:E9"/>
-    <mergeCell ref="G6:G9"/>
+    <mergeCell ref="A18:A23"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="P18:P21"/>
+    <mergeCell ref="N22:N23"/>
+    <mergeCell ref="O22:O23"/>
+    <mergeCell ref="P22:P23"/>
+    <mergeCell ref="N18:N21"/>
+    <mergeCell ref="A24:A32"/>
+    <mergeCell ref="C24:C27"/>
+    <mergeCell ref="D24:D27"/>
+    <mergeCell ref="E24:E27"/>
+    <mergeCell ref="G24:G27"/>
+    <mergeCell ref="B24:B32"/>
+    <mergeCell ref="A33:A37"/>
+    <mergeCell ref="C33:C37"/>
+    <mergeCell ref="D33:D37"/>
+    <mergeCell ref="E33:E37"/>
+    <mergeCell ref="G33:G37"/>
+    <mergeCell ref="O33:O37"/>
+    <mergeCell ref="B18:B23"/>
+    <mergeCell ref="B33:B37"/>
+    <mergeCell ref="N33:N37"/>
+    <mergeCell ref="O24:O27"/>
+    <mergeCell ref="C29:C32"/>
+    <mergeCell ref="D29:D32"/>
+    <mergeCell ref="E29:E32"/>
+    <mergeCell ref="G29:G32"/>
+    <mergeCell ref="N29:N32"/>
+    <mergeCell ref="O29:O32"/>
+    <mergeCell ref="N24:N27"/>
+    <mergeCell ref="O18:O21"/>
   </mergeCells>
   <conditionalFormatting sqref="J6:J37">
     <cfRule type="colorScale" priority="1">
@@ -5296,7 +5610,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -5309,154 +5623,154 @@
   <sheetData>
     <row r="1" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:4" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="51"/>
-      <c r="B2" s="52" t="s">
+      <c r="A2" s="47"/>
+      <c r="B2" s="48" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="52" t="s">
+      <c r="C2" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="D2" s="52" t="s">
+      <c r="D2" s="48" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="53">
+      <c r="A3" s="49">
         <v>1</v>
       </c>
-      <c r="B3" s="54" t="s">
+      <c r="B3" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="C3" s="54" t="s">
+      <c r="C3" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="D3" s="54" t="s">
+      <c r="D3" s="50" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="53">
+      <c r="A4" s="49">
         <v>2</v>
       </c>
-      <c r="B4" s="54" t="s">
+      <c r="B4" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="C4" s="54" t="s">
+      <c r="C4" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="D4" s="54" t="s">
+      <c r="D4" s="50" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="53">
+      <c r="A5" s="49">
         <v>3</v>
       </c>
-      <c r="B5" s="54" t="s">
+      <c r="B5" s="50" t="s">
         <v>55</v>
       </c>
-      <c r="C5" s="54" t="s">
+      <c r="C5" s="50" t="s">
         <v>56</v>
       </c>
-      <c r="D5" s="54" t="s">
+      <c r="D5" s="50" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="53">
+      <c r="A6" s="49">
         <v>4</v>
       </c>
-      <c r="B6" s="54" t="s">
+      <c r="B6" s="50" t="s">
         <v>58</v>
       </c>
-      <c r="C6" s="54" t="s">
+      <c r="C6" s="50" t="s">
         <v>59</v>
       </c>
-      <c r="D6" s="54" t="s">
+      <c r="D6" s="50" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="53">
+      <c r="A7" s="49">
         <v>5</v>
       </c>
-      <c r="B7" s="54" t="s">
+      <c r="B7" s="50" t="s">
         <v>61</v>
       </c>
-      <c r="C7" s="54" t="s">
+      <c r="C7" s="50" t="s">
         <v>62</v>
       </c>
-      <c r="D7" s="54" t="s">
+      <c r="D7" s="50" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="53">
+      <c r="A8" s="49">
         <v>6</v>
       </c>
-      <c r="B8" s="54" t="s">
+      <c r="B8" s="50" t="s">
         <v>64</v>
       </c>
-      <c r="C8" s="54" t="s">
+      <c r="C8" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="D8" s="54" t="s">
+      <c r="D8" s="50" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="53">
+      <c r="A9" s="49">
         <v>7</v>
       </c>
-      <c r="B9" s="54" t="s">
+      <c r="B9" s="50" t="s">
         <v>67</v>
       </c>
-      <c r="C9" s="54" t="s">
+      <c r="C9" s="50" t="s">
         <v>68</v>
       </c>
-      <c r="D9" s="54" t="s">
+      <c r="D9" s="50" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="60.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="53">
+      <c r="A10" s="49">
         <v>8</v>
       </c>
-      <c r="B10" s="54" t="s">
+      <c r="B10" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="C10" s="54" t="s">
+      <c r="C10" s="50" t="s">
         <v>71</v>
       </c>
-      <c r="D10" s="54" t="s">
+      <c r="D10" s="50" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="53">
+      <c r="A11" s="49">
         <v>9</v>
       </c>
-      <c r="B11" s="54" t="s">
+      <c r="B11" s="50" t="s">
         <v>73</v>
       </c>
-      <c r="C11" s="54" t="s">
+      <c r="C11" s="50" t="s">
         <v>74</v>
       </c>
-      <c r="D11" s="54" t="s">
+      <c r="D11" s="50" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="53">
+      <c r="A12" s="49">
         <v>10</v>
       </c>
-      <c r="B12" s="54" t="s">
+      <c r="B12" s="50" t="s">
         <v>76</v>
       </c>
-      <c r="C12" s="54" t="s">
+      <c r="C12" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="D12" s="54" t="s">
+      <c r="D12" s="50" t="s">
         <v>78</v>
       </c>
     </row>
@@ -5467,6 +5781,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008627D652ECF16F40ADBE374E3D3D87F6" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a82faf83e130f03aec18d17d2520a96e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="fb007535-a6a4-4ea0-86da-29f43c46b391" xmlns:ns3="b4c971ed-d55e-45d5-823f-e5f0a4d5378a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="87a257aab2ea2865cd171ccfb5db57b0" ns2:_="" ns3:_="">
     <xsd:import namespace="fb007535-a6a4-4ea0-86da-29f43c46b391"/>
@@ -5631,22 +5960,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{321A4371-70D3-4670-B9DE-51C73593625E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="b4c971ed-d55e-45d5-823f-e5f0a4d5378a"/>
+    <ds:schemaRef ds:uri="fb007535-a6a4-4ea0-86da-29f43c46b391"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{83D99D69-C41B-42E2-B319-512FDE30DA9C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FE32DFB4-4620-4CB8-8357-3506FC850A95}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5663,29 +6002,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{83D99D69-C41B-42E2-B319-512FDE30DA9C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{321A4371-70D3-4670-B9DE-51C73593625E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="b4c971ed-d55e-45d5-823f-e5f0a4d5378a"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="fb007535-a6a4-4ea0-86da-29f43c46b391"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Entregable 18.10/Semestre_i_DFMEA_Template (1).xlsx
+++ b/Entregable 18.10/Semestre_i_DFMEA_Template (1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mausa\Documents\Proyecto Sparc\trunk\Entregable 18.10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C0E04FA-7A81-42E6-BDFC-DFADE905CEE9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BE95453-AAF3-43E1-A120-60A89B843A25}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="133">
   <si>
     <t>Process or Product Name:</t>
   </si>
@@ -497,6 +497,9 @@
   </si>
   <si>
     <t>Vibraciones no deseadas</t>
+  </si>
+  <si>
+    <t>(borrar)</t>
   </si>
 </sst>
 </file>
@@ -1193,27 +1196,197 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="1" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="6" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="7" fillId="6" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1225,176 +1398,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="6" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="6" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3680,19 +3683,19 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="79"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="71"/>
       <c r="G1" s="2"/>
       <c r="H1" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="80"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="81"/>
-      <c r="L1" s="82"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="74"/>
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
       <c r="O1" s="2"/>
@@ -3704,19 +3707,19 @@
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="83"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="85"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="77"/>
       <c r="G2" s="2"/>
-      <c r="H2" s="86" t="s">
+      <c r="H2" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="87"/>
-      <c r="J2" s="87"/>
-      <c r="K2" s="87"/>
-      <c r="L2" s="88"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="79"/>
+      <c r="K2" s="79"/>
+      <c r="L2" s="80"/>
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
       <c r="O2" s="2"/>
@@ -3849,25 +3852,25 @@
       <c r="R5" s="20"/>
     </row>
     <row r="6" spans="1:18" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="71" t="s">
+      <c r="A6" s="81" t="s">
         <v>79</v>
       </c>
-      <c r="B6" s="60" t="s">
+      <c r="B6" s="83" t="s">
         <v>105</v>
       </c>
-      <c r="C6" s="68" t="s">
+      <c r="C6" s="85" t="s">
         <v>81</v>
       </c>
-      <c r="D6" s="68" t="s">
+      <c r="D6" s="85" t="s">
         <v>85</v>
       </c>
-      <c r="E6" s="57">
+      <c r="E6" s="88">
         <v>8</v>
       </c>
       <c r="F6" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="G6" s="57">
+      <c r="G6" s="88">
         <v>10</v>
       </c>
       <c r="H6" s="22" t="s">
@@ -3887,13 +3890,13 @@
         <v>102</v>
       </c>
       <c r="M6" s="25"/>
-      <c r="N6" s="74" t="s">
+      <c r="N6" s="91" t="s">
         <v>103</v>
       </c>
-      <c r="O6" s="57">
+      <c r="O6" s="88">
         <v>8</v>
       </c>
-      <c r="P6" s="57">
+      <c r="P6" s="88">
         <v>6</v>
       </c>
       <c r="Q6" s="22">
@@ -3905,13 +3908,13 @@
       </c>
     </row>
     <row r="7" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="72"/>
-      <c r="B7" s="61"/>
-      <c r="C7" s="69"/>
-      <c r="D7" s="69"/>
-      <c r="E7" s="66"/>
+      <c r="A7" s="82"/>
+      <c r="B7" s="84"/>
+      <c r="C7" s="86"/>
+      <c r="D7" s="86"/>
+      <c r="E7" s="89"/>
       <c r="F7" s="56"/>
-      <c r="G7" s="66"/>
+      <c r="G7" s="89"/>
       <c r="H7" s="22"/>
       <c r="I7" s="27"/>
       <c r="J7" s="23">
@@ -3921,9 +3924,9 @@
       <c r="K7" s="24"/>
       <c r="L7" s="22"/>
       <c r="M7" s="25"/>
-      <c r="N7" s="75"/>
-      <c r="O7" s="66"/>
-      <c r="P7" s="66"/>
+      <c r="N7" s="92"/>
+      <c r="O7" s="89"/>
+      <c r="P7" s="89"/>
       <c r="Q7" s="22">
         <v>5</v>
       </c>
@@ -3933,15 +3936,15 @@
       </c>
     </row>
     <row r="8" spans="1:18" ht="60.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="72"/>
-      <c r="B8" s="61"/>
-      <c r="C8" s="69"/>
-      <c r="D8" s="69"/>
-      <c r="E8" s="66"/>
+      <c r="A8" s="82"/>
+      <c r="B8" s="84"/>
+      <c r="C8" s="86"/>
+      <c r="D8" s="86"/>
+      <c r="E8" s="89"/>
       <c r="F8" s="56" t="s">
         <v>89</v>
       </c>
-      <c r="G8" s="66"/>
+      <c r="G8" s="89"/>
       <c r="H8" s="22" t="s">
         <v>97</v>
       </c>
@@ -3959,9 +3962,9 @@
         <v>102</v>
       </c>
       <c r="M8" s="25"/>
-      <c r="N8" s="75"/>
-      <c r="O8" s="66"/>
-      <c r="P8" s="66"/>
+      <c r="N8" s="92"/>
+      <c r="O8" s="89"/>
+      <c r="P8" s="89"/>
       <c r="Q8" s="22">
         <v>3</v>
       </c>
@@ -3971,15 +3974,15 @@
       </c>
     </row>
     <row r="9" spans="1:18" ht="60.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="72"/>
-      <c r="B9" s="61"/>
-      <c r="C9" s="70"/>
-      <c r="D9" s="70"/>
-      <c r="E9" s="67"/>
+      <c r="A9" s="82"/>
+      <c r="B9" s="84"/>
+      <c r="C9" s="87"/>
+      <c r="D9" s="87"/>
+      <c r="E9" s="90"/>
       <c r="F9" s="56" t="s">
         <v>104</v>
       </c>
-      <c r="G9" s="67"/>
+      <c r="G9" s="90"/>
       <c r="H9" s="22" t="s">
         <v>97</v>
       </c>
@@ -3997,9 +4000,9 @@
         <v>102</v>
       </c>
       <c r="M9" s="25"/>
-      <c r="N9" s="75"/>
-      <c r="O9" s="67"/>
-      <c r="P9" s="67"/>
+      <c r="N9" s="92"/>
+      <c r="O9" s="90"/>
+      <c r="P9" s="90"/>
       <c r="Q9" s="22">
         <v>4</v>
       </c>
@@ -4009,21 +4012,21 @@
       </c>
     </row>
     <row r="10" spans="1:18" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="72"/>
-      <c r="B10" s="61"/>
-      <c r="C10" s="68" t="s">
+      <c r="A10" s="82"/>
+      <c r="B10" s="84"/>
+      <c r="C10" s="85" t="s">
         <v>80</v>
       </c>
-      <c r="D10" s="68" t="s">
+      <c r="D10" s="85" t="s">
         <v>84</v>
       </c>
-      <c r="E10" s="57">
+      <c r="E10" s="88">
         <v>8</v>
       </c>
       <c r="F10" s="56" t="s">
         <v>88</v>
       </c>
-      <c r="G10" s="57">
+      <c r="G10" s="88">
         <v>10</v>
       </c>
       <c r="H10" s="22" t="s">
@@ -4043,11 +4046,11 @@
         <v>102</v>
       </c>
       <c r="M10" s="28"/>
-      <c r="N10" s="75"/>
-      <c r="O10" s="57">
+      <c r="N10" s="92"/>
+      <c r="O10" s="88">
         <v>8</v>
       </c>
-      <c r="P10" s="57">
+      <c r="P10" s="88">
         <v>6</v>
       </c>
       <c r="Q10" s="22">
@@ -4059,15 +4062,15 @@
       </c>
     </row>
     <row r="11" spans="1:18" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="72"/>
-      <c r="B11" s="61"/>
-      <c r="C11" s="69"/>
-      <c r="D11" s="69"/>
-      <c r="E11" s="66"/>
+      <c r="A11" s="82"/>
+      <c r="B11" s="84"/>
+      <c r="C11" s="86"/>
+      <c r="D11" s="86"/>
+      <c r="E11" s="89"/>
       <c r="F11" s="56" t="s">
         <v>90</v>
       </c>
-      <c r="G11" s="66"/>
+      <c r="G11" s="89"/>
       <c r="H11" s="22" t="s">
         <v>96</v>
       </c>
@@ -4085,9 +4088,9 @@
         <v>102</v>
       </c>
       <c r="M11" s="28"/>
-      <c r="N11" s="75"/>
-      <c r="O11" s="66"/>
-      <c r="P11" s="66"/>
+      <c r="N11" s="92"/>
+      <c r="O11" s="89"/>
+      <c r="P11" s="89"/>
       <c r="Q11" s="22">
         <v>4</v>
       </c>
@@ -4097,15 +4100,15 @@
       </c>
     </row>
     <row r="12" spans="1:18" ht="60.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="72"/>
-      <c r="B12" s="61"/>
-      <c r="C12" s="70"/>
-      <c r="D12" s="70"/>
-      <c r="E12" s="67"/>
+      <c r="A12" s="82"/>
+      <c r="B12" s="84"/>
+      <c r="C12" s="87"/>
+      <c r="D12" s="87"/>
+      <c r="E12" s="90"/>
       <c r="F12" s="56" t="s">
         <v>91</v>
       </c>
-      <c r="G12" s="67"/>
+      <c r="G12" s="90"/>
       <c r="H12" s="22" t="s">
         <v>97</v>
       </c>
@@ -4123,9 +4126,9 @@
         <v>102</v>
       </c>
       <c r="M12" s="28"/>
-      <c r="N12" s="75"/>
-      <c r="O12" s="67"/>
-      <c r="P12" s="67"/>
+      <c r="N12" s="92"/>
+      <c r="O12" s="90"/>
+      <c r="P12" s="90"/>
       <c r="Q12" s="22">
         <v>3</v>
       </c>
@@ -4135,21 +4138,21 @@
       </c>
     </row>
     <row r="13" spans="1:18" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="72"/>
-      <c r="B13" s="61"/>
-      <c r="C13" s="68" t="s">
+      <c r="A13" s="82"/>
+      <c r="B13" s="84"/>
+      <c r="C13" s="85" t="s">
         <v>82</v>
       </c>
-      <c r="D13" s="68" t="s">
+      <c r="D13" s="85" t="s">
         <v>86</v>
       </c>
-      <c r="E13" s="57">
+      <c r="E13" s="88">
         <v>5</v>
       </c>
       <c r="F13" s="56" t="s">
         <v>88</v>
       </c>
-      <c r="G13" s="57">
+      <c r="G13" s="88">
         <v>8</v>
       </c>
       <c r="H13" s="22" t="s">
@@ -4169,11 +4172,11 @@
         <v>102</v>
       </c>
       <c r="M13" s="28"/>
-      <c r="N13" s="75"/>
-      <c r="O13" s="57">
+      <c r="N13" s="92"/>
+      <c r="O13" s="88">
         <v>5</v>
       </c>
-      <c r="P13" s="57">
+      <c r="P13" s="88">
         <v>5</v>
       </c>
       <c r="Q13" s="27">
@@ -4185,15 +4188,15 @@
       </c>
     </row>
     <row r="14" spans="1:18" ht="60.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="72"/>
-      <c r="B14" s="61"/>
-      <c r="C14" s="70"/>
-      <c r="D14" s="70"/>
-      <c r="E14" s="67"/>
+      <c r="A14" s="82"/>
+      <c r="B14" s="84"/>
+      <c r="C14" s="87"/>
+      <c r="D14" s="87"/>
+      <c r="E14" s="90"/>
       <c r="F14" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="G14" s="67"/>
+      <c r="G14" s="90"/>
       <c r="H14" s="22" t="s">
         <v>98</v>
       </c>
@@ -4211,9 +4214,9 @@
         <v>102</v>
       </c>
       <c r="M14" s="28"/>
-      <c r="N14" s="75"/>
-      <c r="O14" s="67"/>
-      <c r="P14" s="67"/>
+      <c r="N14" s="92"/>
+      <c r="O14" s="90"/>
+      <c r="P14" s="90"/>
       <c r="Q14" s="27">
         <v>4</v>
       </c>
@@ -4223,21 +4226,21 @@
       </c>
     </row>
     <row r="15" spans="1:18" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="72"/>
-      <c r="B15" s="61"/>
-      <c r="C15" s="68" t="s">
+      <c r="A15" s="82"/>
+      <c r="B15" s="84"/>
+      <c r="C15" s="85" t="s">
         <v>83</v>
       </c>
-      <c r="D15" s="68" t="s">
+      <c r="D15" s="85" t="s">
         <v>87</v>
       </c>
-      <c r="E15" s="57">
+      <c r="E15" s="88">
         <v>8</v>
       </c>
       <c r="F15" s="56" t="s">
         <v>93</v>
       </c>
-      <c r="G15" s="57">
+      <c r="G15" s="88">
         <v>8</v>
       </c>
       <c r="H15" s="22" t="s">
@@ -4257,11 +4260,11 @@
         <v>102</v>
       </c>
       <c r="M15" s="28"/>
-      <c r="N15" s="75"/>
-      <c r="O15" s="57">
+      <c r="N15" s="92"/>
+      <c r="O15" s="88">
         <v>8</v>
       </c>
-      <c r="P15" s="57">
+      <c r="P15" s="88">
         <v>7</v>
       </c>
       <c r="Q15" s="27">
@@ -4273,15 +4276,15 @@
       </c>
     </row>
     <row r="16" spans="1:18" ht="60.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="72"/>
-      <c r="B16" s="61"/>
-      <c r="C16" s="69"/>
-      <c r="D16" s="69"/>
-      <c r="E16" s="66"/>
+      <c r="A16" s="82"/>
+      <c r="B16" s="84"/>
+      <c r="C16" s="86"/>
+      <c r="D16" s="86"/>
+      <c r="E16" s="89"/>
       <c r="F16" s="56" t="s">
         <v>94</v>
       </c>
-      <c r="G16" s="66"/>
+      <c r="G16" s="89"/>
       <c r="H16" s="22" t="s">
         <v>98</v>
       </c>
@@ -4299,9 +4302,9 @@
         <v>102</v>
       </c>
       <c r="M16" s="28"/>
-      <c r="N16" s="75"/>
-      <c r="O16" s="66"/>
-      <c r="P16" s="66"/>
+      <c r="N16" s="92"/>
+      <c r="O16" s="89"/>
+      <c r="P16" s="89"/>
       <c r="Q16" s="27">
         <v>5</v>
       </c>
@@ -4311,15 +4314,15 @@
       </c>
     </row>
     <row r="17" spans="1:18" ht="60.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="72"/>
-      <c r="B17" s="61"/>
-      <c r="C17" s="69"/>
-      <c r="D17" s="69"/>
-      <c r="E17" s="66"/>
+      <c r="A17" s="82"/>
+      <c r="B17" s="84"/>
+      <c r="C17" s="86"/>
+      <c r="D17" s="86"/>
+      <c r="E17" s="89"/>
       <c r="F17" s="56" t="s">
         <v>95</v>
       </c>
-      <c r="G17" s="67"/>
+      <c r="G17" s="90"/>
       <c r="H17" s="22" t="s">
         <v>98</v>
       </c>
@@ -4337,9 +4340,9 @@
         <v>102</v>
       </c>
       <c r="M17" s="28"/>
-      <c r="N17" s="76"/>
-      <c r="O17" s="67"/>
-      <c r="P17" s="67"/>
+      <c r="N17" s="93"/>
+      <c r="O17" s="90"/>
+      <c r="P17" s="90"/>
       <c r="Q17" s="27">
         <v>5</v>
       </c>
@@ -4349,25 +4352,25 @@
       </c>
     </row>
     <row r="18" spans="1:18" ht="60.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="106" t="s">
+      <c r="A18" s="94" t="s">
         <v>106</v>
       </c>
-      <c r="B18" s="107" t="s">
+      <c r="B18" s="106" t="s">
         <v>107</v>
       </c>
-      <c r="C18" s="90" t="s">
+      <c r="C18" s="95" t="s">
         <v>114</v>
       </c>
-      <c r="D18" s="91" t="s">
+      <c r="D18" s="58" t="s">
         <v>85</v>
       </c>
-      <c r="E18" s="108">
+      <c r="E18" s="68">
         <v>3</v>
       </c>
-      <c r="F18" s="93" t="s">
+      <c r="F18" s="60" t="s">
         <v>117</v>
       </c>
-      <c r="G18" s="98"/>
+      <c r="G18" s="63"/>
       <c r="H18" s="22" t="s">
         <v>98</v>
       </c>
@@ -4385,14 +4388,14 @@
         <v>102</v>
       </c>
       <c r="M18" s="28"/>
-      <c r="N18" s="103" t="s">
+      <c r="N18" s="98" t="s">
         <v>126</v>
       </c>
-      <c r="O18" s="57">
+      <c r="O18" s="88">
         <f>E18</f>
         <v>3</v>
       </c>
-      <c r="P18" s="57">
+      <c r="P18" s="88">
         <f t="shared" ref="P18:P37" si="3">G18</f>
         <v>0</v>
       </c>
@@ -4403,19 +4406,19 @@
       </c>
     </row>
     <row r="19" spans="1:18" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="106"/>
-      <c r="B19" s="107"/>
-      <c r="C19" s="90"/>
-      <c r="D19" s="91" t="s">
+      <c r="A19" s="94"/>
+      <c r="B19" s="106"/>
+      <c r="C19" s="95"/>
+      <c r="D19" s="58" t="s">
         <v>115</v>
       </c>
-      <c r="E19" s="108">
+      <c r="E19" s="68">
         <v>6</v>
       </c>
-      <c r="F19" s="94" t="s">
+      <c r="F19" s="61" t="s">
         <v>89</v>
       </c>
-      <c r="G19" s="92">
+      <c r="G19" s="59">
         <v>8</v>
       </c>
       <c r="H19" s="22" t="s">
@@ -4435,9 +4438,9 @@
         <v>102</v>
       </c>
       <c r="M19" s="28"/>
-      <c r="N19" s="104"/>
-      <c r="O19" s="66"/>
-      <c r="P19" s="66"/>
+      <c r="N19" s="101"/>
+      <c r="O19" s="89"/>
+      <c r="P19" s="89"/>
       <c r="Q19" s="22"/>
       <c r="R19" s="26">
         <f t="shared" ref="R19:R23" si="5">O$18*P19*Q19</f>
@@ -4445,21 +4448,21 @@
       </c>
     </row>
     <row r="20" spans="1:18" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="106"/>
-      <c r="B20" s="107"/>
-      <c r="C20" s="90" t="s">
+      <c r="A20" s="94"/>
+      <c r="B20" s="106"/>
+      <c r="C20" s="95" t="s">
         <v>108</v>
       </c>
-      <c r="D20" s="91" t="s">
+      <c r="D20" s="58" t="s">
         <v>111</v>
       </c>
-      <c r="E20" s="108">
+      <c r="E20" s="68">
         <v>9</v>
       </c>
       <c r="F20" s="96" t="s">
         <v>118</v>
       </c>
-      <c r="G20" s="66"/>
+      <c r="G20" s="89"/>
       <c r="H20" s="22" t="s">
         <v>123</v>
       </c>
@@ -4470,16 +4473,16 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K20" s="102" t="s">
+      <c r="K20" s="67" t="s">
         <v>125</v>
       </c>
       <c r="L20" s="22" t="s">
         <v>102</v>
       </c>
       <c r="M20" s="28"/>
-      <c r="N20" s="104"/>
-      <c r="O20" s="66"/>
-      <c r="P20" s="66"/>
+      <c r="N20" s="101"/>
+      <c r="O20" s="89"/>
+      <c r="P20" s="89"/>
       <c r="Q20" s="22"/>
       <c r="R20" s="26">
         <f t="shared" si="5"/>
@@ -4487,17 +4490,17 @@
       </c>
     </row>
     <row r="21" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="106"/>
-      <c r="B21" s="107"/>
-      <c r="C21" s="90"/>
-      <c r="D21" s="89" t="s">
+      <c r="A21" s="94"/>
+      <c r="B21" s="106"/>
+      <c r="C21" s="95"/>
+      <c r="D21" s="57" t="s">
         <v>112</v>
       </c>
-      <c r="E21" s="108">
+      <c r="E21" s="68">
         <v>6</v>
       </c>
       <c r="F21" s="97"/>
-      <c r="G21" s="67"/>
+      <c r="G21" s="90"/>
       <c r="H21" s="22"/>
       <c r="I21" s="27"/>
       <c r="J21" s="23">
@@ -4507,9 +4510,9 @@
       <c r="K21" s="29"/>
       <c r="L21" s="29"/>
       <c r="M21" s="28"/>
-      <c r="N21" s="105"/>
-      <c r="O21" s="66"/>
-      <c r="P21" s="67"/>
+      <c r="N21" s="99"/>
+      <c r="O21" s="89"/>
+      <c r="P21" s="90"/>
       <c r="Q21" s="22"/>
       <c r="R21" s="26">
         <f t="shared" si="5"/>
@@ -4517,21 +4520,21 @@
       </c>
     </row>
     <row r="22" spans="1:18" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="106"/>
-      <c r="B22" s="107"/>
-      <c r="C22" s="89" t="s">
+      <c r="A22" s="94"/>
+      <c r="B22" s="106"/>
+      <c r="C22" s="57" t="s">
         <v>109</v>
       </c>
-      <c r="D22" s="89" t="s">
+      <c r="D22" s="57" t="s">
         <v>116</v>
       </c>
-      <c r="E22" s="108">
+      <c r="E22" s="68">
         <v>8</v>
       </c>
-      <c r="F22" s="95" t="s">
+      <c r="F22" s="62" t="s">
         <v>119</v>
       </c>
-      <c r="G22" s="99">
+      <c r="G22" s="64">
         <v>8</v>
       </c>
       <c r="H22" s="22" t="s">
@@ -4551,14 +4554,14 @@
         <v>102</v>
       </c>
       <c r="M22" s="28"/>
-      <c r="N22" s="103" t="s">
+      <c r="N22" s="98" t="s">
         <v>126</v>
       </c>
-      <c r="O22" s="57">
+      <c r="O22" s="88">
         <f>E22</f>
         <v>8</v>
       </c>
-      <c r="P22" s="57">
+      <c r="P22" s="88">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
@@ -4569,21 +4572,21 @@
       </c>
     </row>
     <row r="23" spans="1:18" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="106"/>
-      <c r="B23" s="107"/>
-      <c r="C23" s="89" t="s">
+      <c r="A23" s="94"/>
+      <c r="B23" s="106"/>
+      <c r="C23" s="57" t="s">
         <v>110</v>
       </c>
-      <c r="D23" s="89" t="s">
+      <c r="D23" s="57" t="s">
         <v>113</v>
       </c>
-      <c r="E23" s="108">
+      <c r="E23" s="68">
         <v>4</v>
       </c>
-      <c r="F23" s="93" t="s">
+      <c r="F23" s="60" t="s">
         <v>120</v>
       </c>
-      <c r="G23" s="100">
+      <c r="G23" s="65">
         <v>8</v>
       </c>
       <c r="H23" s="22" t="s">
@@ -4596,16 +4599,16 @@
         <f>$E$22*$G$22*I23</f>
         <v>384</v>
       </c>
-      <c r="K23" s="101" t="s">
+      <c r="K23" s="66" t="s">
         <v>125</v>
       </c>
       <c r="L23" s="22" t="s">
         <v>102</v>
       </c>
       <c r="M23" s="28"/>
-      <c r="N23" s="105"/>
-      <c r="O23" s="59"/>
-      <c r="P23" s="67"/>
+      <c r="N23" s="99"/>
+      <c r="O23" s="100"/>
+      <c r="P23" s="90"/>
       <c r="Q23" s="22"/>
       <c r="R23" s="26">
         <f t="shared" si="5"/>
@@ -4613,19 +4616,19 @@
       </c>
     </row>
     <row r="24" spans="1:18" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="72" t="s">
+      <c r="A24" s="82" t="s">
         <v>127</v>
       </c>
-      <c r="B24" s="109" t="s">
+      <c r="B24" s="103" t="s">
         <v>128</v>
       </c>
-      <c r="C24" s="69" t="s">
+      <c r="C24" s="86" t="s">
         <v>129</v>
       </c>
-      <c r="D24" s="69"/>
-      <c r="E24" s="66"/>
+      <c r="D24" s="86"/>
+      <c r="E24" s="89"/>
       <c r="F24" s="22"/>
-      <c r="G24" s="57"/>
+      <c r="G24" s="88"/>
       <c r="H24" s="22"/>
       <c r="I24" s="55"/>
       <c r="J24" s="23">
@@ -4635,8 +4638,8 @@
       <c r="K24" s="24"/>
       <c r="L24" s="22"/>
       <c r="M24" s="28"/>
-      <c r="N24" s="63"/>
-      <c r="O24" s="57">
+      <c r="N24" s="107"/>
+      <c r="O24" s="88">
         <f>E29</f>
         <v>0</v>
       </c>
@@ -4651,13 +4654,13 @@
       </c>
     </row>
     <row r="25" spans="1:18" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="72"/>
-      <c r="B25" s="61"/>
-      <c r="C25" s="69"/>
-      <c r="D25" s="69"/>
-      <c r="E25" s="66"/>
+      <c r="A25" s="82"/>
+      <c r="B25" s="84"/>
+      <c r="C25" s="86"/>
+      <c r="D25" s="86"/>
+      <c r="E25" s="89"/>
       <c r="F25" s="56"/>
-      <c r="G25" s="66"/>
+      <c r="G25" s="89"/>
       <c r="H25" s="22"/>
       <c r="I25" s="55"/>
       <c r="J25" s="23">
@@ -4667,8 +4670,8 @@
       <c r="K25" s="24"/>
       <c r="L25" s="22"/>
       <c r="M25" s="28"/>
-      <c r="N25" s="64"/>
-      <c r="O25" s="66"/>
+      <c r="N25" s="108"/>
+      <c r="O25" s="89"/>
       <c r="P25" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -4680,13 +4683,13 @@
       </c>
     </row>
     <row r="26" spans="1:18" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="72"/>
-      <c r="B26" s="61"/>
-      <c r="C26" s="69"/>
-      <c r="D26" s="69"/>
-      <c r="E26" s="66"/>
+      <c r="A26" s="82"/>
+      <c r="B26" s="84"/>
+      <c r="C26" s="86"/>
+      <c r="D26" s="86"/>
+      <c r="E26" s="89"/>
       <c r="F26" s="56"/>
-      <c r="G26" s="66"/>
+      <c r="G26" s="89"/>
       <c r="H26" s="22"/>
       <c r="I26" s="55"/>
       <c r="J26" s="23">
@@ -4696,8 +4699,8 @@
       <c r="K26" s="24"/>
       <c r="L26" s="22"/>
       <c r="M26" s="28"/>
-      <c r="N26" s="64"/>
-      <c r="O26" s="66"/>
+      <c r="N26" s="108"/>
+      <c r="O26" s="89"/>
       <c r="P26" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -4709,13 +4712,13 @@
       </c>
     </row>
     <row r="27" spans="1:18" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="72"/>
-      <c r="B27" s="61"/>
-      <c r="C27" s="70"/>
-      <c r="D27" s="70"/>
-      <c r="E27" s="67"/>
+      <c r="A27" s="82"/>
+      <c r="B27" s="84"/>
+      <c r="C27" s="87"/>
+      <c r="D27" s="87"/>
+      <c r="E27" s="90"/>
       <c r="F27" s="22"/>
-      <c r="G27" s="67"/>
+      <c r="G27" s="90"/>
       <c r="H27" s="22"/>
       <c r="I27" s="55"/>
       <c r="J27" s="23">
@@ -4725,8 +4728,8 @@
       <c r="K27" s="24"/>
       <c r="L27" s="22"/>
       <c r="M27" s="28"/>
-      <c r="N27" s="65"/>
-      <c r="O27" s="67"/>
+      <c r="N27" s="109"/>
+      <c r="O27" s="90"/>
       <c r="P27" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -4738,8 +4741,8 @@
       </c>
     </row>
     <row r="28" spans="1:18" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="72"/>
-      <c r="B28" s="61"/>
+      <c r="A28" s="82"/>
+      <c r="B28" s="84"/>
       <c r="C28" s="52" t="s">
         <v>130</v>
       </c>
@@ -4772,15 +4775,15 @@
       </c>
     </row>
     <row r="29" spans="1:18" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="72"/>
-      <c r="B29" s="61"/>
-      <c r="C29" s="68" t="s">
+      <c r="A29" s="82"/>
+      <c r="B29" s="84"/>
+      <c r="C29" s="85" t="s">
         <v>131</v>
       </c>
-      <c r="D29" s="68"/>
-      <c r="E29" s="57"/>
+      <c r="D29" s="85"/>
+      <c r="E29" s="88"/>
       <c r="F29" s="22"/>
-      <c r="G29" s="57"/>
+      <c r="G29" s="88"/>
       <c r="H29" s="22"/>
       <c r="I29" s="55"/>
       <c r="J29" s="23">
@@ -4790,8 +4793,8 @@
       <c r="K29" s="24"/>
       <c r="L29" s="22"/>
       <c r="M29" s="28"/>
-      <c r="N29" s="63"/>
-      <c r="O29" s="57">
+      <c r="N29" s="107"/>
+      <c r="O29" s="88">
         <f>E29</f>
         <v>0</v>
       </c>
@@ -4806,13 +4809,13 @@
       </c>
     </row>
     <row r="30" spans="1:18" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="72"/>
-      <c r="B30" s="61"/>
-      <c r="C30" s="69"/>
-      <c r="D30" s="69"/>
-      <c r="E30" s="66"/>
+      <c r="A30" s="82"/>
+      <c r="B30" s="84"/>
+      <c r="C30" s="86"/>
+      <c r="D30" s="86"/>
+      <c r="E30" s="89"/>
       <c r="F30" s="56"/>
-      <c r="G30" s="66"/>
+      <c r="G30" s="89"/>
       <c r="H30" s="22"/>
       <c r="I30" s="55"/>
       <c r="J30" s="23">
@@ -4822,8 +4825,8 @@
       <c r="K30" s="24"/>
       <c r="L30" s="22"/>
       <c r="M30" s="28"/>
-      <c r="N30" s="64"/>
-      <c r="O30" s="58"/>
+      <c r="N30" s="108"/>
+      <c r="O30" s="105"/>
       <c r="P30" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -4835,13 +4838,13 @@
       </c>
     </row>
     <row r="31" spans="1:18" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="72"/>
-      <c r="B31" s="61"/>
-      <c r="C31" s="69"/>
-      <c r="D31" s="69"/>
-      <c r="E31" s="66"/>
+      <c r="A31" s="82"/>
+      <c r="B31" s="84"/>
+      <c r="C31" s="86"/>
+      <c r="D31" s="86"/>
+      <c r="E31" s="89"/>
       <c r="F31" s="56"/>
-      <c r="G31" s="66"/>
+      <c r="G31" s="89"/>
       <c r="H31" s="22"/>
       <c r="I31" s="55"/>
       <c r="J31" s="23">
@@ -4851,8 +4854,8 @@
       <c r="K31" s="24"/>
       <c r="L31" s="22"/>
       <c r="M31" s="28"/>
-      <c r="N31" s="64"/>
-      <c r="O31" s="58"/>
+      <c r="N31" s="108"/>
+      <c r="O31" s="105"/>
       <c r="P31" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -4864,13 +4867,13 @@
       </c>
     </row>
     <row r="32" spans="1:18" ht="135" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="73"/>
-      <c r="B32" s="62"/>
-      <c r="C32" s="70"/>
-      <c r="D32" s="70"/>
-      <c r="E32" s="67"/>
+      <c r="A32" s="102"/>
+      <c r="B32" s="104"/>
+      <c r="C32" s="87"/>
+      <c r="D32" s="87"/>
+      <c r="E32" s="90"/>
       <c r="F32" s="22"/>
-      <c r="G32" s="67"/>
+      <c r="G32" s="90"/>
       <c r="H32" s="22"/>
       <c r="I32" s="55"/>
       <c r="J32" s="23">
@@ -4880,8 +4883,8 @@
       <c r="K32" s="24"/>
       <c r="L32" s="22"/>
       <c r="M32" s="28"/>
-      <c r="N32" s="65"/>
-      <c r="O32" s="59"/>
+      <c r="N32" s="109"/>
+      <c r="O32" s="100"/>
       <c r="P32" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -4893,13 +4896,15 @@
       </c>
     </row>
     <row r="33" spans="1:23" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="71"/>
-      <c r="B33" s="60"/>
-      <c r="C33" s="68"/>
-      <c r="D33" s="68"/>
-      <c r="E33" s="57"/>
+      <c r="A33" s="81"/>
+      <c r="B33" s="83"/>
+      <c r="C33" s="85" t="s">
+        <v>132</v>
+      </c>
+      <c r="D33" s="85"/>
+      <c r="E33" s="88"/>
       <c r="F33" s="22"/>
-      <c r="G33" s="57"/>
+      <c r="G33" s="88"/>
       <c r="H33" s="22"/>
       <c r="I33" s="55"/>
       <c r="J33" s="23">
@@ -4909,8 +4914,8 @@
       <c r="K33" s="24"/>
       <c r="L33" s="22"/>
       <c r="M33" s="28"/>
-      <c r="N33" s="63"/>
-      <c r="O33" s="57">
+      <c r="N33" s="107"/>
+      <c r="O33" s="88">
         <f>E33</f>
         <v>0</v>
       </c>
@@ -4925,13 +4930,13 @@
       </c>
     </row>
     <row r="34" spans="1:23" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="72"/>
-      <c r="B34" s="61"/>
-      <c r="C34" s="69"/>
-      <c r="D34" s="69"/>
-      <c r="E34" s="66"/>
+      <c r="A34" s="82"/>
+      <c r="B34" s="84"/>
+      <c r="C34" s="86"/>
+      <c r="D34" s="86"/>
+      <c r="E34" s="89"/>
       <c r="F34" s="56"/>
-      <c r="G34" s="66"/>
+      <c r="G34" s="89"/>
       <c r="H34" s="22"/>
       <c r="I34" s="55"/>
       <c r="J34" s="23">
@@ -4941,8 +4946,8 @@
       <c r="K34" s="24"/>
       <c r="L34" s="22"/>
       <c r="M34" s="28"/>
-      <c r="N34" s="64"/>
-      <c r="O34" s="58"/>
+      <c r="N34" s="108"/>
+      <c r="O34" s="105"/>
       <c r="P34" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -4954,13 +4959,13 @@
       </c>
     </row>
     <row r="35" spans="1:23" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="72"/>
-      <c r="B35" s="61"/>
-      <c r="C35" s="69"/>
-      <c r="D35" s="69"/>
-      <c r="E35" s="66"/>
+      <c r="A35" s="82"/>
+      <c r="B35" s="84"/>
+      <c r="C35" s="86"/>
+      <c r="D35" s="86"/>
+      <c r="E35" s="89"/>
       <c r="F35" s="56"/>
-      <c r="G35" s="66"/>
+      <c r="G35" s="89"/>
       <c r="H35" s="22"/>
       <c r="I35" s="55"/>
       <c r="J35" s="23">
@@ -4970,8 +4975,8 @@
       <c r="K35" s="24"/>
       <c r="L35" s="22"/>
       <c r="M35" s="28"/>
-      <c r="N35" s="64"/>
-      <c r="O35" s="58"/>
+      <c r="N35" s="108"/>
+      <c r="O35" s="105"/>
       <c r="P35" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -4983,13 +4988,13 @@
       </c>
     </row>
     <row r="36" spans="1:23" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="72"/>
-      <c r="B36" s="61"/>
-      <c r="C36" s="69"/>
-      <c r="D36" s="69"/>
-      <c r="E36" s="66"/>
+      <c r="A36" s="82"/>
+      <c r="B36" s="84"/>
+      <c r="C36" s="86"/>
+      <c r="D36" s="86"/>
+      <c r="E36" s="89"/>
       <c r="F36" s="56"/>
-      <c r="G36" s="66"/>
+      <c r="G36" s="89"/>
       <c r="H36" s="22"/>
       <c r="I36" s="55"/>
       <c r="J36" s="23">
@@ -4999,8 +5004,8 @@
       <c r="K36" s="24"/>
       <c r="L36" s="22"/>
       <c r="M36" s="28"/>
-      <c r="N36" s="64"/>
-      <c r="O36" s="58"/>
+      <c r="N36" s="108"/>
+      <c r="O36" s="105"/>
       <c r="P36" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -5012,13 +5017,13 @@
       </c>
     </row>
     <row r="37" spans="1:23" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="73"/>
-      <c r="B37" s="62"/>
-      <c r="C37" s="70"/>
-      <c r="D37" s="70"/>
-      <c r="E37" s="67"/>
+      <c r="A37" s="102"/>
+      <c r="B37" s="104"/>
+      <c r="C37" s="87"/>
+      <c r="D37" s="87"/>
+      <c r="E37" s="90"/>
       <c r="F37" s="22"/>
-      <c r="G37" s="67"/>
+      <c r="G37" s="90"/>
       <c r="H37" s="22"/>
       <c r="I37" s="55"/>
       <c r="J37" s="23">
@@ -5028,8 +5033,8 @@
       <c r="K37" s="24"/>
       <c r="L37" s="22"/>
       <c r="M37" s="28"/>
-      <c r="N37" s="65"/>
-      <c r="O37" s="59"/>
+      <c r="N37" s="109"/>
+      <c r="O37" s="100"/>
       <c r="P37" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -5498,19 +5503,42 @@
     <row r="441" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="65">
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="I1:L1"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="H2:L2"/>
-    <mergeCell ref="A6:A17"/>
-    <mergeCell ref="B6:B17"/>
-    <mergeCell ref="C6:C9"/>
-    <mergeCell ref="D6:D9"/>
-    <mergeCell ref="E6:E9"/>
-    <mergeCell ref="G6:G9"/>
-    <mergeCell ref="D10:D12"/>
-    <mergeCell ref="E10:E12"/>
-    <mergeCell ref="G10:G12"/>
+    <mergeCell ref="O33:O37"/>
+    <mergeCell ref="B18:B23"/>
+    <mergeCell ref="B33:B37"/>
+    <mergeCell ref="N33:N37"/>
+    <mergeCell ref="O24:O27"/>
+    <mergeCell ref="C29:C32"/>
+    <mergeCell ref="D29:D32"/>
+    <mergeCell ref="E29:E32"/>
+    <mergeCell ref="G29:G32"/>
+    <mergeCell ref="N29:N32"/>
+    <mergeCell ref="O29:O32"/>
+    <mergeCell ref="N24:N27"/>
+    <mergeCell ref="O18:O21"/>
+    <mergeCell ref="A33:A37"/>
+    <mergeCell ref="C33:C37"/>
+    <mergeCell ref="D33:D37"/>
+    <mergeCell ref="E33:E37"/>
+    <mergeCell ref="G33:G37"/>
+    <mergeCell ref="A24:A32"/>
+    <mergeCell ref="C24:C27"/>
+    <mergeCell ref="D24:D27"/>
+    <mergeCell ref="E24:E27"/>
+    <mergeCell ref="G24:G27"/>
+    <mergeCell ref="B24:B32"/>
+    <mergeCell ref="P6:P9"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="A18:A23"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="P18:P21"/>
+    <mergeCell ref="N22:N23"/>
+    <mergeCell ref="O22:O23"/>
+    <mergeCell ref="P22:P23"/>
+    <mergeCell ref="N18:N21"/>
     <mergeCell ref="O10:O12"/>
     <mergeCell ref="P10:P12"/>
     <mergeCell ref="P13:P14"/>
@@ -5527,42 +5555,19 @@
     <mergeCell ref="O13:O14"/>
     <mergeCell ref="N6:N17"/>
     <mergeCell ref="O6:O9"/>
-    <mergeCell ref="P6:P9"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="A18:A23"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="P18:P21"/>
-    <mergeCell ref="N22:N23"/>
-    <mergeCell ref="O22:O23"/>
-    <mergeCell ref="P22:P23"/>
-    <mergeCell ref="N18:N21"/>
-    <mergeCell ref="A24:A32"/>
-    <mergeCell ref="C24:C27"/>
-    <mergeCell ref="D24:D27"/>
-    <mergeCell ref="E24:E27"/>
-    <mergeCell ref="G24:G27"/>
-    <mergeCell ref="B24:B32"/>
-    <mergeCell ref="A33:A37"/>
-    <mergeCell ref="C33:C37"/>
-    <mergeCell ref="D33:D37"/>
-    <mergeCell ref="E33:E37"/>
-    <mergeCell ref="G33:G37"/>
-    <mergeCell ref="O33:O37"/>
-    <mergeCell ref="B18:B23"/>
-    <mergeCell ref="B33:B37"/>
-    <mergeCell ref="N33:N37"/>
-    <mergeCell ref="O24:O27"/>
-    <mergeCell ref="C29:C32"/>
-    <mergeCell ref="D29:D32"/>
-    <mergeCell ref="E29:E32"/>
-    <mergeCell ref="G29:G32"/>
-    <mergeCell ref="N29:N32"/>
-    <mergeCell ref="O29:O32"/>
-    <mergeCell ref="N24:N27"/>
-    <mergeCell ref="O18:O21"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="H2:L2"/>
+    <mergeCell ref="A6:A17"/>
+    <mergeCell ref="B6:B17"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="D6:D9"/>
+    <mergeCell ref="E6:E9"/>
+    <mergeCell ref="G6:G9"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="E10:E12"/>
+    <mergeCell ref="G10:G12"/>
   </mergeCells>
   <conditionalFormatting sqref="J6:J37">
     <cfRule type="colorScale" priority="1">
@@ -5781,21 +5786,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008627D652ECF16F40ADBE374E3D3D87F6" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a82faf83e130f03aec18d17d2520a96e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="fb007535-a6a4-4ea0-86da-29f43c46b391" xmlns:ns3="b4c971ed-d55e-45d5-823f-e5f0a4d5378a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="87a257aab2ea2865cd171ccfb5db57b0" ns2:_="" ns3:_="">
     <xsd:import namespace="fb007535-a6a4-4ea0-86da-29f43c46b391"/>
@@ -5960,32 +5950,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{321A4371-70D3-4670-B9DE-51C73593625E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="b4c971ed-d55e-45d5-823f-e5f0a4d5378a"/>
-    <ds:schemaRef ds:uri="fb007535-a6a4-4ea0-86da-29f43c46b391"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{83D99D69-C41B-42E2-B319-512FDE30DA9C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FE32DFB4-4620-4CB8-8357-3506FC850A95}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6002,4 +5982,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{83D99D69-C41B-42E2-B319-512FDE30DA9C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{321A4371-70D3-4670-B9DE-51C73593625E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="b4c971ed-d55e-45d5-823f-e5f0a4d5378a"/>
+    <ds:schemaRef ds:uri="fb007535-a6a4-4ea0-86da-29f43c46b391"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Entregable 18.10/Semestre_i_DFMEA_Template (1).xlsx
+++ b/Entregable 18.10/Semestre_i_DFMEA_Template (1).xlsx
@@ -1,26 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mausa\Documents\Proyecto Sparc\trunk\Entregable 18.10\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rulo\Desktop\School Crap\Industrial Programing\Semestre i\Madre Github\trunk\Entregable 18.10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BE95453-AAF3-43E1-A120-60A89B843A25}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="FMEA" sheetId="1" r:id="rId1"/>
     <sheet name="SOD Table" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">FMEA!$A$1:$R$38</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">FMEA!$A$1:$R$36</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">FMEA!$1:$5</definedName>
   </definedNames>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="157">
   <si>
     <t>Process or Product Name:</t>
   </si>
@@ -499,13 +498,85 @@
     <t>Vibraciones no deseadas</t>
   </si>
   <si>
-    <t>(borrar)</t>
+    <t>Los motores operan a una velocidad demasiado rapida generando un torque no deseado</t>
+  </si>
+  <si>
+    <t>Proyecto no entra en las especificaciones</t>
+  </si>
+  <si>
+    <t>Material  de chasis muy pesado</t>
+  </si>
+  <si>
+    <t>Charola demasiado pesada</t>
+  </si>
+  <si>
+    <t>Ejes del sistema Core XY muy pesados</t>
+  </si>
+  <si>
+    <t>Suma de todo es muy pesado</t>
+  </si>
+  <si>
+    <t>Eliminar peso donde sea posible</t>
+  </si>
+  <si>
+    <t>Pesar Chasis</t>
+  </si>
+  <si>
+    <t>Pesar Charola</t>
+  </si>
+  <si>
+    <t>Pesar sistema XY</t>
+  </si>
+  <si>
+    <t>Cambiar material del chasis</t>
+  </si>
+  <si>
+    <t>Cambiar material de la charola</t>
+  </si>
+  <si>
+    <t>Cambiar ejes del Sistema XY</t>
+  </si>
+  <si>
+    <t>Eliminar peso de todos lados en general</t>
+  </si>
+  <si>
+    <t>El sistema puede tumbarse con cualquier movimiento</t>
+  </si>
+  <si>
+    <t>El sistema carece de un soporte esencial</t>
+  </si>
+  <si>
+    <t>La velocidad del motor</t>
+  </si>
+  <si>
+    <t>El peso del Sistema</t>
+  </si>
+  <si>
+    <t>Encontrar centro de gravedad del Sistema</t>
+  </si>
+  <si>
+    <t>Probar motor a diferentes velocidades</t>
+  </si>
+  <si>
+    <t>Agregarle peso al sistema</t>
+  </si>
+  <si>
+    <t>Mover el centro de gravedad a una posicion mas estable</t>
+  </si>
+  <si>
+    <t>Agregar peso al sistema para dar un proyecto mas robusto y dificil de mover</t>
+  </si>
+  <si>
+    <t>Una velocidad mas lenta lleva a un sistema mas predecible y estable</t>
+  </si>
+  <si>
+    <t>Sistem is light and lean enough to pass specifications but heavy and robust enough to handle speeds</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -1003,7 +1074,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1099,9 +1170,6 @@
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="8" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1244,6 +1312,113 @@
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="6" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="6" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1292,118 +1467,23 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="6" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="6" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 3" xfId="2"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -1445,13 +1525,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>44824</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>100854</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>896471</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>134471</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1459,7 +1539,7 @@
         <xdr:cNvPr id="2" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B23317E6-8623-41F0-8B0D-8D4182394236}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B23317E6-8623-41F0-8B0D-8D4182394236}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1552,13 +1632,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>605117</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>610721</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>100854</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1566,7 +1646,7 @@
         <xdr:cNvPr id="3" name="Straight Arrow Connector 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E63FA1D0-9A8D-4AE7-AA03-2C872B4E63FE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E63FA1D0-9A8D-4AE7-AA03-2C872B4E63FE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1601,13 +1681,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1519516</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>219636</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>219634</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>6724</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1615,7 +1695,7 @@
         <xdr:cNvPr id="4" name="TextBox 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A218B3AF-48DA-48E5-9731-2C4A17B13FE4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A218B3AF-48DA-48E5-9731-2C4A17B13FE4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1708,13 +1788,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1121707</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1131792</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>219636</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1722,7 +1802,7 @@
         <xdr:cNvPr id="5" name="Straight Arrow Connector 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D06A2989-DB73-4D40-81D8-2706C13BEA5B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D06A2989-DB73-4D40-81D8-2706C13BEA5B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1759,13 +1839,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1683121</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>103095</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>2030504</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>168088</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1773,7 +1853,7 @@
         <xdr:cNvPr id="6" name="TextBox 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B1952D4-D5C3-44C8-B55C-7329C3042AA6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6B1952D4-D5C3-44C8-B55C-7329C3042AA6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1856,13 +1936,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>781048</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>784411</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>103095</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1870,7 +1950,7 @@
         <xdr:cNvPr id="7" name="Straight Arrow Connector 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA69449B-4546-4D4C-B035-C63AC3E43DFF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CA69449B-4546-4D4C-B035-C63AC3E43DFF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1907,13 +1987,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>76198</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>121025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>2575110</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>179294</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1921,7 +2001,7 @@
         <xdr:cNvPr id="8" name="TextBox 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9807E8F4-898B-4ACB-BEC9-A3A3CE12A11A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9807E8F4-898B-4ACB-BEC9-A3A3CE12A11A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2004,13 +2084,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>1325654</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>11206</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>1325654</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>121025</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2018,7 +2098,7 @@
         <xdr:cNvPr id="9" name="Straight Arrow Connector 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A81C25D7-CE9C-4064-A6FA-1A0F35148A44}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A81C25D7-CE9C-4064-A6FA-1A0F35148A44}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2055,13 +2135,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>71716</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>161364</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>116539</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>89646</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2069,7 +2149,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD792D50-326C-4B7B-BC13-74A3B2411AC0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DD792D50-326C-4B7B-BC13-74A3B2411AC0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2152,13 +2232,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>1321172</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>22412</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>1322295</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>161364</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2166,7 +2246,7 @@
         <xdr:cNvPr id="11" name="Straight Arrow Connector 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DE6999E-2B84-4E83-8AF6-CF17F4F1AE95}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8DE6999E-2B84-4E83-8AF6-CF17F4F1AE95}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2203,13 +2283,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>246527</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>168087</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>22412</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>96369</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2217,7 +2297,7 @@
         <xdr:cNvPr id="12" name="TextBox 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC65B1C1-FF46-41B2-B49B-47BA29375766}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BC65B1C1-FF46-41B2-B49B-47BA29375766}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2300,13 +2380,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>1154205</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>11206</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>1154206</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>168087</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2314,7 +2394,7 @@
         <xdr:cNvPr id="13" name="Straight Arrow Connector 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{895F1EB6-18C0-4E56-8307-A2ABB2EEE9F2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{895F1EB6-18C0-4E56-8307-A2ABB2EEE9F2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2351,13 +2431,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>2046192</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>40340</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>118783</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>215151</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2365,7 +2445,7 @@
         <xdr:cNvPr id="14" name="TextBox 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{130776FA-1B6D-48C1-92E2-7300C66F5515}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{130776FA-1B6D-48C1-92E2-7300C66F5515}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2448,13 +2528,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>907676</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>11206</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>914399</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>40340</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2462,7 +2542,7 @@
         <xdr:cNvPr id="15" name="Straight Arrow Connector 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29E24126-67C1-4809-9342-BF4654D11587}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{29E24126-67C1-4809-9342-BF4654D11587}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2499,13 +2579,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>1425388</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>181534</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>33619</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>109816</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2513,7 +2593,7 @@
         <xdr:cNvPr id="16" name="TextBox 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{814BF6D2-2D92-4757-A2E1-53B67E3D2A2A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{814BF6D2-2D92-4757-A2E1-53B67E3D2A2A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2602,13 +2682,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>847165</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>33618</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>847165</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>181534</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2616,7 +2696,7 @@
         <xdr:cNvPr id="17" name="Straight Arrow Connector 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A97B86A-BBC3-4E71-AE61-6B58F40E52CD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5A97B86A-BBC3-4E71-AE61-6B58F40E52CD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2653,13 +2733,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1013009</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>172573</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>1035421</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>230841</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2667,7 +2747,7 @@
         <xdr:cNvPr id="18" name="TextBox 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7571F63-536C-4E5A-B3AE-107982A09057}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A7571F63-536C-4E5A-B3AE-107982A09057}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2756,13 +2836,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>156882</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>22412</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>166965</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>172573</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2770,7 +2850,7 @@
         <xdr:cNvPr id="19" name="Straight Arrow Connector 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E121374-3D38-4DD3-B80B-8541354BAC32}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2E121374-3D38-4DD3-B80B-8541354BAC32}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2807,13 +2887,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>2106703</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>33619</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>1019733</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>134470</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2821,7 +2901,7 @@
         <xdr:cNvPr id="20" name="TextBox 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACEE8AC5-BD67-43DD-A54B-0E22E06FF988}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{ACEE8AC5-BD67-43DD-A54B-0E22E06FF988}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2910,13 +2990,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>145677</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>22412</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>151277</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>33619</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2924,7 +3004,7 @@
         <xdr:cNvPr id="21" name="Straight Arrow Connector 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF3FE31C-2044-41A1-9CBF-F9799A6B59B6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EF3FE31C-2044-41A1-9CBF-F9799A6B59B6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2961,13 +3041,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>1396251</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>29136</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>802339</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>129987</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2975,7 +3055,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE725C70-7C8B-48CF-AD74-39829B1635E5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CE725C70-7C8B-48CF-AD74-39829B1635E5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3055,13 +3135,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>191618</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>22412</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>201706</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>29136</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3069,7 +3149,7 @@
         <xdr:cNvPr id="23" name="Straight Arrow Connector 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2BD56E8A-D17A-4A1D-BC90-EC22B99F70A5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2BD56E8A-D17A-4A1D-BC90-EC22B99F70A5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3106,13 +3186,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>28014</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>84045</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>140073</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>229721</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3120,7 +3200,7 @@
         <xdr:cNvPr id="24" name="Left Brace 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1D5DA83-2044-475D-8918-F2D8D7DFFA66}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A1D5DA83-2044-475D-8918-F2D8D7DFFA66}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3163,13 +3243,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>986118</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>125504</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>573741</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>53786</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3177,7 +3257,7 @@
         <xdr:cNvPr id="25" name="TextBox 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{613FE002-EC1B-48D1-AF14-5A5EAED7513B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{613FE002-EC1B-48D1-AF14-5A5EAED7513B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3298,13 +3378,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>264459</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>229721</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>264459</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>125504</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3312,7 +3392,7 @@
         <xdr:cNvPr id="26" name="Straight Arrow Connector 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{629B6D83-BDE4-42F7-93D7-559AD3CC9BF2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{629B6D83-BDE4-42F7-93D7-559AD3CC9BF2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3645,57 +3725,57 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:W441"/>
+  <dimension ref="A1:W439"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A27" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33:C37"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="I32" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P40" sqref="P40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="24.7109375" customWidth="1"/>
-    <col min="3" max="3" width="32.28515625" customWidth="1"/>
-    <col min="4" max="4" width="31.42578125" customWidth="1"/>
-    <col min="5" max="5" width="5.7109375" customWidth="1"/>
-    <col min="6" max="6" width="48.140625" customWidth="1"/>
-    <col min="7" max="7" width="5.7109375" customWidth="1"/>
-    <col min="8" max="8" width="36.85546875" customWidth="1"/>
-    <col min="9" max="9" width="5.7109375" customWidth="1"/>
-    <col min="10" max="10" width="5.140625" customWidth="1"/>
-    <col min="11" max="11" width="34.42578125" customWidth="1"/>
-    <col min="12" max="12" width="29.42578125" customWidth="1"/>
-    <col min="13" max="13" width="24.7109375" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="85.42578125" customWidth="1"/>
-    <col min="15" max="15" width="3.5703125" customWidth="1"/>
-    <col min="16" max="16" width="5.7109375" customWidth="1"/>
-    <col min="17" max="18" width="3.5703125" customWidth="1"/>
-    <col min="20" max="20" width="3.85546875" customWidth="1"/>
-    <col min="21" max="21" width="51.28515625" customWidth="1"/>
-    <col min="22" max="22" width="32.5703125" customWidth="1"/>
-    <col min="23" max="23" width="70.42578125" customWidth="1"/>
+    <col min="1" max="2" width="24.7265625" customWidth="1"/>
+    <col min="3" max="3" width="32.26953125" customWidth="1"/>
+    <col min="4" max="4" width="31.453125" customWidth="1"/>
+    <col min="5" max="5" width="5.7265625" customWidth="1"/>
+    <col min="6" max="6" width="48.1796875" customWidth="1"/>
+    <col min="7" max="7" width="5.7265625" customWidth="1"/>
+    <col min="8" max="8" width="36.81640625" customWidth="1"/>
+    <col min="9" max="9" width="5.7265625" customWidth="1"/>
+    <col min="10" max="10" width="5.1796875" customWidth="1"/>
+    <col min="11" max="11" width="34.453125" customWidth="1"/>
+    <col min="12" max="12" width="29.453125" customWidth="1"/>
+    <col min="13" max="13" width="24.7265625" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="85.453125" customWidth="1"/>
+    <col min="15" max="15" width="3.54296875" customWidth="1"/>
+    <col min="16" max="16" width="5.7265625" customWidth="1"/>
+    <col min="17" max="18" width="3.54296875" customWidth="1"/>
+    <col min="20" max="20" width="3.81640625" customWidth="1"/>
+    <col min="21" max="21" width="51.26953125" customWidth="1"/>
+    <col min="22" max="22" width="32.54296875" customWidth="1"/>
+    <col min="23" max="23" width="70.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="71"/>
+      <c r="B1" s="97"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="99"/>
       <c r="G1" s="2"/>
-      <c r="H1" s="51" t="s">
+      <c r="H1" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="72"/>
-      <c r="J1" s="73"/>
-      <c r="K1" s="73"/>
-      <c r="L1" s="74"/>
+      <c r="I1" s="100"/>
+      <c r="J1" s="101"/>
+      <c r="K1" s="101"/>
+      <c r="L1" s="102"/>
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
       <c r="O1" s="2"/>
@@ -3703,23 +3783,23 @@
       <c r="Q1" s="2"/>
       <c r="R1" s="2"/>
     </row>
-    <row r="2" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="75"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="77"/>
+      <c r="B2" s="103"/>
+      <c r="C2" s="104"/>
+      <c r="D2" s="104"/>
+      <c r="E2" s="104"/>
+      <c r="F2" s="105"/>
       <c r="G2" s="2"/>
-      <c r="H2" s="78" t="s">
+      <c r="H2" s="106" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="79"/>
-      <c r="J2" s="79"/>
-      <c r="K2" s="79"/>
-      <c r="L2" s="80"/>
+      <c r="I2" s="107"/>
+      <c r="J2" s="107"/>
+      <c r="K2" s="107"/>
+      <c r="L2" s="108"/>
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
       <c r="O2" s="2"/>
@@ -3727,7 +3807,7 @@
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
     </row>
-    <row r="3" spans="1:18" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -3747,7 +3827,7 @@
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
     </row>
-    <row r="4" spans="1:18" ht="63" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" ht="63" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>4</v>
       </c>
@@ -3803,7 +3883,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:18" s="21" customFormat="1" ht="107.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" s="21" customFormat="1" ht="107.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>22</v>
       </c>
@@ -3851,32 +3931,32 @@
       <c r="Q5" s="19"/>
       <c r="R5" s="20"/>
     </row>
-    <row r="6" spans="1:18" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="81" t="s">
+    <row r="6" spans="1:18" ht="31.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="83" t="s">
         <v>79</v>
       </c>
-      <c r="B6" s="83" t="s">
+      <c r="B6" s="72" t="s">
         <v>105</v>
       </c>
-      <c r="C6" s="85" t="s">
+      <c r="C6" s="80" t="s">
         <v>81</v>
       </c>
-      <c r="D6" s="85" t="s">
+      <c r="D6" s="80" t="s">
         <v>85</v>
       </c>
-      <c r="E6" s="88">
+      <c r="E6" s="68">
         <v>8</v>
       </c>
       <c r="F6" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="G6" s="88">
+      <c r="G6" s="68">
         <v>10</v>
       </c>
       <c r="H6" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="I6" s="53">
+      <c r="I6" s="52">
         <v>6</v>
       </c>
       <c r="J6" s="23">
@@ -3890,13 +3970,13 @@
         <v>102</v>
       </c>
       <c r="M6" s="25"/>
-      <c r="N6" s="91" t="s">
+      <c r="N6" s="94" t="s">
         <v>103</v>
       </c>
-      <c r="O6" s="88">
+      <c r="O6" s="68">
         <v>8</v>
       </c>
-      <c r="P6" s="88">
+      <c r="P6" s="68">
         <v>6</v>
       </c>
       <c r="Q6" s="22">
@@ -3907,14 +3987,14 @@
         <v>192</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="82"/>
-      <c r="B7" s="84"/>
-      <c r="C7" s="86"/>
-      <c r="D7" s="86"/>
-      <c r="E7" s="89"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="89"/>
+    <row r="7" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="84"/>
+      <c r="B7" s="73"/>
+      <c r="C7" s="81"/>
+      <c r="D7" s="81"/>
+      <c r="E7" s="78"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="78"/>
       <c r="H7" s="22"/>
       <c r="I7" s="27"/>
       <c r="J7" s="23">
@@ -3924,9 +4004,9 @@
       <c r="K7" s="24"/>
       <c r="L7" s="22"/>
       <c r="M7" s="25"/>
-      <c r="N7" s="92"/>
-      <c r="O7" s="89"/>
-      <c r="P7" s="89"/>
+      <c r="N7" s="95"/>
+      <c r="O7" s="78"/>
+      <c r="P7" s="78"/>
       <c r="Q7" s="22">
         <v>5</v>
       </c>
@@ -3935,16 +4015,16 @@
         <v>240</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="60.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="82"/>
-      <c r="B8" s="84"/>
-      <c r="C8" s="86"/>
-      <c r="D8" s="86"/>
-      <c r="E8" s="89"/>
-      <c r="F8" s="56" t="s">
+    <row r="8" spans="1:18" ht="62.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="84"/>
+      <c r="B8" s="73"/>
+      <c r="C8" s="81"/>
+      <c r="D8" s="81"/>
+      <c r="E8" s="78"/>
+      <c r="F8" s="55" t="s">
         <v>89</v>
       </c>
-      <c r="G8" s="89"/>
+      <c r="G8" s="78"/>
       <c r="H8" s="22" t="s">
         <v>97</v>
       </c>
@@ -3962,9 +4042,9 @@
         <v>102</v>
       </c>
       <c r="M8" s="25"/>
-      <c r="N8" s="92"/>
-      <c r="O8" s="89"/>
-      <c r="P8" s="89"/>
+      <c r="N8" s="95"/>
+      <c r="O8" s="78"/>
+      <c r="P8" s="78"/>
       <c r="Q8" s="22">
         <v>3</v>
       </c>
@@ -3973,16 +4053,16 @@
         <v>144</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="60.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="82"/>
-      <c r="B9" s="84"/>
-      <c r="C9" s="87"/>
-      <c r="D9" s="87"/>
-      <c r="E9" s="90"/>
-      <c r="F9" s="56" t="s">
+    <row r="9" spans="1:18" ht="62.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="84"/>
+      <c r="B9" s="73"/>
+      <c r="C9" s="82"/>
+      <c r="D9" s="82"/>
+      <c r="E9" s="79"/>
+      <c r="F9" s="55" t="s">
         <v>104</v>
       </c>
-      <c r="G9" s="90"/>
+      <c r="G9" s="79"/>
       <c r="H9" s="22" t="s">
         <v>97</v>
       </c>
@@ -4000,9 +4080,9 @@
         <v>102</v>
       </c>
       <c r="M9" s="25"/>
-      <c r="N9" s="92"/>
-      <c r="O9" s="90"/>
-      <c r="P9" s="90"/>
+      <c r="N9" s="95"/>
+      <c r="O9" s="79"/>
+      <c r="P9" s="79"/>
       <c r="Q9" s="22">
         <v>4</v>
       </c>
@@ -4011,22 +4091,22 @@
         <v>192</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="82"/>
-      <c r="B10" s="84"/>
-      <c r="C10" s="85" t="s">
+    <row r="10" spans="1:18" ht="31.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="84"/>
+      <c r="B10" s="73"/>
+      <c r="C10" s="80" t="s">
         <v>80</v>
       </c>
-      <c r="D10" s="85" t="s">
+      <c r="D10" s="80" t="s">
         <v>84</v>
       </c>
-      <c r="E10" s="88">
+      <c r="E10" s="68">
         <v>8</v>
       </c>
-      <c r="F10" s="56" t="s">
+      <c r="F10" s="55" t="s">
         <v>88</v>
       </c>
-      <c r="G10" s="88">
+      <c r="G10" s="68">
         <v>10</v>
       </c>
       <c r="H10" s="22" t="s">
@@ -4046,11 +4126,11 @@
         <v>102</v>
       </c>
       <c r="M10" s="28"/>
-      <c r="N10" s="92"/>
-      <c r="O10" s="88">
+      <c r="N10" s="95"/>
+      <c r="O10" s="68">
         <v>8</v>
       </c>
-      <c r="P10" s="88">
+      <c r="P10" s="68">
         <v>6</v>
       </c>
       <c r="Q10" s="22">
@@ -4061,20 +4141,20 @@
         <v>192</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="82"/>
-      <c r="B11" s="84"/>
-      <c r="C11" s="86"/>
-      <c r="D11" s="86"/>
-      <c r="E11" s="89"/>
-      <c r="F11" s="56" t="s">
+    <row r="11" spans="1:18" ht="31.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="84"/>
+      <c r="B11" s="73"/>
+      <c r="C11" s="81"/>
+      <c r="D11" s="81"/>
+      <c r="E11" s="78"/>
+      <c r="F11" s="55" t="s">
         <v>90</v>
       </c>
-      <c r="G11" s="89"/>
+      <c r="G11" s="78"/>
       <c r="H11" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="I11" s="54">
+      <c r="I11" s="53">
         <v>6</v>
       </c>
       <c r="J11" s="23">
@@ -4088,9 +4168,9 @@
         <v>102</v>
       </c>
       <c r="M11" s="28"/>
-      <c r="N11" s="92"/>
-      <c r="O11" s="89"/>
-      <c r="P11" s="89"/>
+      <c r="N11" s="95"/>
+      <c r="O11" s="78"/>
+      <c r="P11" s="78"/>
       <c r="Q11" s="22">
         <v>4</v>
       </c>
@@ -4099,16 +4179,16 @@
         <v>192</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="60.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="82"/>
-      <c r="B12" s="84"/>
-      <c r="C12" s="87"/>
-      <c r="D12" s="87"/>
-      <c r="E12" s="90"/>
-      <c r="F12" s="56" t="s">
+    <row r="12" spans="1:18" ht="62.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="84"/>
+      <c r="B12" s="73"/>
+      <c r="C12" s="82"/>
+      <c r="D12" s="82"/>
+      <c r="E12" s="79"/>
+      <c r="F12" s="55" t="s">
         <v>91</v>
       </c>
-      <c r="G12" s="90"/>
+      <c r="G12" s="79"/>
       <c r="H12" s="22" t="s">
         <v>97</v>
       </c>
@@ -4126,9 +4206,9 @@
         <v>102</v>
       </c>
       <c r="M12" s="28"/>
-      <c r="N12" s="92"/>
-      <c r="O12" s="90"/>
-      <c r="P12" s="90"/>
+      <c r="N12" s="95"/>
+      <c r="O12" s="79"/>
+      <c r="P12" s="79"/>
       <c r="Q12" s="22">
         <v>3</v>
       </c>
@@ -4137,22 +4217,22 @@
         <v>144</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="82"/>
-      <c r="B13" s="84"/>
-      <c r="C13" s="85" t="s">
+    <row r="13" spans="1:18" ht="31.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="84"/>
+      <c r="B13" s="73"/>
+      <c r="C13" s="80" t="s">
         <v>82</v>
       </c>
-      <c r="D13" s="85" t="s">
+      <c r="D13" s="80" t="s">
         <v>86</v>
       </c>
-      <c r="E13" s="88">
+      <c r="E13" s="68">
         <v>5</v>
       </c>
-      <c r="F13" s="56" t="s">
+      <c r="F13" s="55" t="s">
         <v>88</v>
       </c>
-      <c r="G13" s="88">
+      <c r="G13" s="68">
         <v>8</v>
       </c>
       <c r="H13" s="22" t="s">
@@ -4172,11 +4252,11 @@
         <v>102</v>
       </c>
       <c r="M13" s="28"/>
-      <c r="N13" s="92"/>
-      <c r="O13" s="88">
+      <c r="N13" s="95"/>
+      <c r="O13" s="68">
         <v>5</v>
       </c>
-      <c r="P13" s="88">
+      <c r="P13" s="68">
         <v>5</v>
       </c>
       <c r="Q13" s="27">
@@ -4187,16 +4267,16 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="60.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="82"/>
-      <c r="B14" s="84"/>
-      <c r="C14" s="87"/>
-      <c r="D14" s="87"/>
-      <c r="E14" s="90"/>
+    <row r="14" spans="1:18" ht="62.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="84"/>
+      <c r="B14" s="73"/>
+      <c r="C14" s="82"/>
+      <c r="D14" s="82"/>
+      <c r="E14" s="79"/>
       <c r="F14" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="G14" s="90"/>
+      <c r="G14" s="79"/>
       <c r="H14" s="22" t="s">
         <v>98</v>
       </c>
@@ -4214,9 +4294,9 @@
         <v>102</v>
       </c>
       <c r="M14" s="28"/>
-      <c r="N14" s="92"/>
-      <c r="O14" s="90"/>
-      <c r="P14" s="90"/>
+      <c r="N14" s="95"/>
+      <c r="O14" s="79"/>
+      <c r="P14" s="79"/>
       <c r="Q14" s="27">
         <v>4</v>
       </c>
@@ -4225,22 +4305,22 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="82"/>
-      <c r="B15" s="84"/>
-      <c r="C15" s="85" t="s">
+    <row r="15" spans="1:18" ht="31.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="84"/>
+      <c r="B15" s="73"/>
+      <c r="C15" s="80" t="s">
         <v>83</v>
       </c>
-      <c r="D15" s="85" t="s">
+      <c r="D15" s="80" t="s">
         <v>87</v>
       </c>
-      <c r="E15" s="88">
+      <c r="E15" s="68">
         <v>8</v>
       </c>
-      <c r="F15" s="56" t="s">
+      <c r="F15" s="55" t="s">
         <v>93</v>
       </c>
-      <c r="G15" s="88">
+      <c r="G15" s="68">
         <v>8</v>
       </c>
       <c r="H15" s="22" t="s">
@@ -4260,11 +4340,11 @@
         <v>102</v>
       </c>
       <c r="M15" s="28"/>
-      <c r="N15" s="92"/>
-      <c r="O15" s="88">
+      <c r="N15" s="95"/>
+      <c r="O15" s="68">
         <v>8</v>
       </c>
-      <c r="P15" s="88">
+      <c r="P15" s="68">
         <v>7</v>
       </c>
       <c r="Q15" s="27">
@@ -4275,16 +4355,16 @@
         <v>224</v>
       </c>
     </row>
-    <row r="16" spans="1:18" ht="60.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="82"/>
-      <c r="B16" s="84"/>
-      <c r="C16" s="86"/>
-      <c r="D16" s="86"/>
-      <c r="E16" s="89"/>
-      <c r="F16" s="56" t="s">
+    <row r="16" spans="1:18" ht="62.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="84"/>
+      <c r="B16" s="73"/>
+      <c r="C16" s="81"/>
+      <c r="D16" s="81"/>
+      <c r="E16" s="78"/>
+      <c r="F16" s="55" t="s">
         <v>94</v>
       </c>
-      <c r="G16" s="89"/>
+      <c r="G16" s="78"/>
       <c r="H16" s="22" t="s">
         <v>98</v>
       </c>
@@ -4302,9 +4382,9 @@
         <v>102</v>
       </c>
       <c r="M16" s="28"/>
-      <c r="N16" s="92"/>
-      <c r="O16" s="89"/>
-      <c r="P16" s="89"/>
+      <c r="N16" s="95"/>
+      <c r="O16" s="78"/>
+      <c r="P16" s="78"/>
       <c r="Q16" s="27">
         <v>5</v>
       </c>
@@ -4313,16 +4393,16 @@
         <v>280</v>
       </c>
     </row>
-    <row r="17" spans="1:18" ht="60.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="82"/>
-      <c r="B17" s="84"/>
-      <c r="C17" s="86"/>
-      <c r="D17" s="86"/>
-      <c r="E17" s="89"/>
-      <c r="F17" s="56" t="s">
+    <row r="17" spans="1:18" ht="62.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="84"/>
+      <c r="B17" s="73"/>
+      <c r="C17" s="81"/>
+      <c r="D17" s="81"/>
+      <c r="E17" s="78"/>
+      <c r="F17" s="55" t="s">
         <v>95</v>
       </c>
-      <c r="G17" s="90"/>
+      <c r="G17" s="79"/>
       <c r="H17" s="22" t="s">
         <v>98</v>
       </c>
@@ -4340,9 +4420,9 @@
         <v>102</v>
       </c>
       <c r="M17" s="28"/>
-      <c r="N17" s="93"/>
-      <c r="O17" s="90"/>
-      <c r="P17" s="90"/>
+      <c r="N17" s="96"/>
+      <c r="O17" s="79"/>
+      <c r="P17" s="79"/>
       <c r="Q17" s="27">
         <v>5</v>
       </c>
@@ -4351,26 +4431,26 @@
         <v>280</v>
       </c>
     </row>
-    <row r="18" spans="1:18" ht="60.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="94" t="s">
+    <row r="18" spans="1:18" ht="62.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="87" t="s">
         <v>106</v>
       </c>
-      <c r="B18" s="106" t="s">
+      <c r="B18" s="71" t="s">
         <v>107</v>
       </c>
-      <c r="C18" s="95" t="s">
+      <c r="C18" s="88" t="s">
         <v>114</v>
       </c>
-      <c r="D18" s="58" t="s">
+      <c r="D18" s="57" t="s">
         <v>85</v>
       </c>
-      <c r="E18" s="68">
+      <c r="E18" s="67">
         <v>3</v>
       </c>
-      <c r="F18" s="60" t="s">
+      <c r="F18" s="59" t="s">
         <v>117</v>
       </c>
-      <c r="G18" s="63"/>
+      <c r="G18" s="62"/>
       <c r="H18" s="22" t="s">
         <v>98</v>
       </c>
@@ -4388,37 +4468,38 @@
         <v>102</v>
       </c>
       <c r="M18" s="28"/>
-      <c r="N18" s="98" t="s">
+      <c r="N18" s="91" t="s">
         <v>126</v>
       </c>
-      <c r="O18" s="88">
+      <c r="O18" s="68">
         <f>E18</f>
         <v>3</v>
       </c>
-      <c r="P18" s="88">
-        <f t="shared" ref="P18:P37" si="3">G18</f>
-        <v>0</v>
-      </c>
-      <c r="Q18" s="22"/>
+      <c r="P18" s="68">
+        <v>4</v>
+      </c>
+      <c r="Q18" s="22">
+        <v>6</v>
+      </c>
       <c r="R18" s="26">
         <f>O$18*P18*Q18</f>
-        <v>0</v>
+        <v>72</v>
       </c>
     </row>
-    <row r="19" spans="1:18" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="94"/>
-      <c r="B19" s="106"/>
-      <c r="C19" s="95"/>
-      <c r="D19" s="58" t="s">
+    <row r="19" spans="1:18" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="87"/>
+      <c r="B19" s="71"/>
+      <c r="C19" s="88"/>
+      <c r="D19" s="57" t="s">
         <v>115</v>
       </c>
-      <c r="E19" s="68">
+      <c r="E19" s="67">
         <v>6</v>
       </c>
-      <c r="F19" s="61" t="s">
+      <c r="F19" s="60" t="s">
         <v>89</v>
       </c>
-      <c r="G19" s="59">
+      <c r="G19" s="58">
         <v>8</v>
       </c>
       <c r="H19" s="22" t="s">
@@ -4428,7 +4509,7 @@
         <v>6</v>
       </c>
       <c r="J19" s="23">
-        <f t="shared" ref="J19:J21" si="4">$E$18*$G$18*I19</f>
+        <f t="shared" ref="J19:J21" si="3">$E$18*$G$18*I19</f>
         <v>0</v>
       </c>
       <c r="K19" s="24" t="s">
@@ -4438,31 +4519,33 @@
         <v>102</v>
       </c>
       <c r="M19" s="28"/>
-      <c r="N19" s="101"/>
-      <c r="O19" s="89"/>
-      <c r="P19" s="89"/>
-      <c r="Q19" s="22"/>
+      <c r="N19" s="93"/>
+      <c r="O19" s="78"/>
+      <c r="P19" s="78"/>
+      <c r="Q19" s="22">
+        <v>4</v>
+      </c>
       <c r="R19" s="26">
-        <f t="shared" ref="R19:R23" si="5">O$18*P19*Q19</f>
+        <f t="shared" ref="R19:R23" si="4">O$18*P19*Q19</f>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:18" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="94"/>
-      <c r="B20" s="106"/>
-      <c r="C20" s="95" t="s">
+    <row r="20" spans="1:18" ht="31.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="87"/>
+      <c r="B20" s="71"/>
+      <c r="C20" s="88" t="s">
         <v>108</v>
       </c>
-      <c r="D20" s="58" t="s">
+      <c r="D20" s="57" t="s">
         <v>111</v>
       </c>
-      <c r="E20" s="68">
+      <c r="E20" s="67">
         <v>9</v>
       </c>
-      <c r="F20" s="96" t="s">
+      <c r="F20" s="89" t="s">
         <v>118</v>
       </c>
-      <c r="G20" s="89"/>
+      <c r="G20" s="78"/>
       <c r="H20" s="22" t="s">
         <v>123</v>
       </c>
@@ -4470,71 +4553,73 @@
         <v>5</v>
       </c>
       <c r="J20" s="23">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K20" s="66" t="s">
+        <v>125</v>
+      </c>
+      <c r="L20" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="M20" s="28"/>
+      <c r="N20" s="93"/>
+      <c r="O20" s="78"/>
+      <c r="P20" s="78"/>
+      <c r="Q20" s="22">
+        <v>3</v>
+      </c>
+      <c r="R20" s="26">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K20" s="67" t="s">
-        <v>125</v>
-      </c>
-      <c r="L20" s="22" t="s">
-        <v>102</v>
-      </c>
-      <c r="M20" s="28"/>
-      <c r="N20" s="101"/>
-      <c r="O20" s="89"/>
-      <c r="P20" s="89"/>
-      <c r="Q20" s="22"/>
-      <c r="R20" s="26">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
     </row>
-    <row r="21" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="94"/>
-      <c r="B21" s="106"/>
-      <c r="C21" s="95"/>
-      <c r="D21" s="57" t="s">
+    <row r="21" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="87"/>
+      <c r="B21" s="71"/>
+      <c r="C21" s="88"/>
+      <c r="D21" s="56" t="s">
         <v>112</v>
       </c>
-      <c r="E21" s="68">
+      <c r="E21" s="67">
         <v>6</v>
       </c>
-      <c r="F21" s="97"/>
-      <c r="G21" s="90"/>
+      <c r="F21" s="90"/>
+      <c r="G21" s="79"/>
       <c r="H21" s="22"/>
       <c r="I21" s="27"/>
       <c r="J21" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K21" s="29"/>
       <c r="L21" s="29"/>
       <c r="M21" s="28"/>
-      <c r="N21" s="99"/>
-      <c r="O21" s="89"/>
-      <c r="P21" s="90"/>
+      <c r="N21" s="92"/>
+      <c r="O21" s="78"/>
+      <c r="P21" s="79"/>
       <c r="Q21" s="22"/>
       <c r="R21" s="26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:18" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="94"/>
-      <c r="B22" s="106"/>
-      <c r="C22" s="57" t="s">
+    <row r="22" spans="1:18" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="87"/>
+      <c r="B22" s="71"/>
+      <c r="C22" s="56" t="s">
         <v>109</v>
       </c>
-      <c r="D22" s="57" t="s">
+      <c r="D22" s="56" t="s">
         <v>116</v>
       </c>
-      <c r="E22" s="68">
+      <c r="E22" s="67">
         <v>8</v>
       </c>
-      <c r="F22" s="62" t="s">
+      <c r="F22" s="61" t="s">
         <v>119</v>
       </c>
-      <c r="G22" s="64">
+      <c r="G22" s="63">
         <v>8</v>
       </c>
       <c r="H22" s="22" t="s">
@@ -4554,39 +4639,41 @@
         <v>102</v>
       </c>
       <c r="M22" s="28"/>
-      <c r="N22" s="98" t="s">
+      <c r="N22" s="91" t="s">
         <v>126</v>
       </c>
-      <c r="O22" s="88">
+      <c r="O22" s="68">
         <f>E22</f>
         <v>8</v>
       </c>
-      <c r="P22" s="88">
-        <f t="shared" si="3"/>
+      <c r="P22" s="68">
+        <f t="shared" ref="P18:P35" si="5">G22</f>
         <v>8</v>
       </c>
-      <c r="Q22" s="22"/>
+      <c r="Q22" s="22">
+        <v>2</v>
+      </c>
       <c r="R22" s="26">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:18" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="94"/>
-      <c r="B23" s="106"/>
-      <c r="C23" s="57" t="s">
+    <row r="23" spans="1:18" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="87"/>
+      <c r="B23" s="71"/>
+      <c r="C23" s="56" t="s">
         <v>110</v>
       </c>
-      <c r="D23" s="57" t="s">
+      <c r="D23" s="56" t="s">
         <v>113</v>
       </c>
-      <c r="E23" s="68">
+      <c r="E23" s="67">
         <v>4</v>
       </c>
-      <c r="F23" s="60" t="s">
+      <c r="F23" s="59" t="s">
         <v>120</v>
       </c>
-      <c r="G23" s="65">
+      <c r="G23" s="64">
         <v>8</v>
       </c>
       <c r="H23" s="22" t="s">
@@ -4599,375 +4686,482 @@
         <f>$E$22*$G$22*I23</f>
         <v>384</v>
       </c>
-      <c r="K23" s="66" t="s">
+      <c r="K23" s="65" t="s">
         <v>125</v>
       </c>
       <c r="L23" s="22" t="s">
         <v>102</v>
       </c>
       <c r="M23" s="28"/>
-      <c r="N23" s="99"/>
-      <c r="O23" s="100"/>
-      <c r="P23" s="90"/>
-      <c r="Q23" s="22"/>
+      <c r="N23" s="92"/>
+      <c r="O23" s="70"/>
+      <c r="P23" s="79"/>
+      <c r="Q23" s="22">
+        <v>4</v>
+      </c>
       <c r="R23" s="26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="84" t="s">
+        <v>127</v>
+      </c>
+      <c r="B24" s="86" t="s">
+        <v>128</v>
+      </c>
+      <c r="C24" s="81" t="s">
+        <v>129</v>
+      </c>
+      <c r="D24" s="81" t="s">
+        <v>133</v>
+      </c>
+      <c r="E24" s="78">
+        <v>5</v>
+      </c>
+      <c r="F24" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="G24" s="68">
+        <v>3</v>
+      </c>
+      <c r="H24" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="I24" s="54">
+        <v>5</v>
+      </c>
+      <c r="J24" s="23">
+        <f>$E$24*$G$24*I24</f>
+        <v>75</v>
+      </c>
+      <c r="K24" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="L24" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="M24" s="28"/>
+      <c r="N24" s="109" t="s">
+        <v>156</v>
+      </c>
+      <c r="O24" s="68">
+        <f>E29</f>
+        <v>3</v>
+      </c>
+      <c r="P24" s="27">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="Q24" s="22">
+        <v>3</v>
+      </c>
+      <c r="R24" s="26">
+        <f>O$24*P24*Q24</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="84"/>
+      <c r="B25" s="73"/>
+      <c r="C25" s="81"/>
+      <c r="D25" s="81"/>
+      <c r="E25" s="78"/>
+      <c r="F25" s="55" t="s">
+        <v>135</v>
+      </c>
+      <c r="G25" s="78"/>
+      <c r="H25" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="I25" s="54">
+        <v>5</v>
+      </c>
+      <c r="J25" s="23">
+        <f t="shared" ref="J25:J26" si="6">$E$24*$G$24*I25</f>
+        <v>75</v>
+      </c>
+      <c r="K25" s="24" t="s">
+        <v>143</v>
+      </c>
+      <c r="L25" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="M25" s="28"/>
+      <c r="N25" s="110"/>
+      <c r="O25" s="78"/>
+      <c r="P25" s="27">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:18" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="82" t="s">
-        <v>127</v>
-      </c>
-      <c r="B24" s="103" t="s">
-        <v>128</v>
-      </c>
-      <c r="C24" s="86" t="s">
-        <v>129</v>
-      </c>
-      <c r="D24" s="86"/>
-      <c r="E24" s="89"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="88"/>
-      <c r="H24" s="22"/>
-      <c r="I24" s="55"/>
-      <c r="J24" s="23">
-        <f>$E$24*$G$24*I24</f>
-        <v>0</v>
-      </c>
-      <c r="K24" s="24"/>
-      <c r="L24" s="22"/>
-      <c r="M24" s="28"/>
-      <c r="N24" s="107"/>
-      <c r="O24" s="88">
-        <f>E29</f>
-        <v>0</v>
-      </c>
-      <c r="P24" s="27">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Q24" s="22"/>
-      <c r="R24" s="26">
-        <f>O$24*P24*Q24</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="82"/>
-      <c r="B25" s="84"/>
-      <c r="C25" s="86"/>
-      <c r="D25" s="86"/>
-      <c r="E25" s="89"/>
-      <c r="F25" s="56"/>
-      <c r="G25" s="89"/>
-      <c r="H25" s="22"/>
-      <c r="I25" s="55"/>
-      <c r="J25" s="23">
-        <f t="shared" ref="J25:J26" si="6">$E$24*$G$24*I25</f>
-        <v>0</v>
-      </c>
-      <c r="K25" s="24"/>
-      <c r="L25" s="22"/>
-      <c r="M25" s="28"/>
-      <c r="N25" s="108"/>
-      <c r="O25" s="89"/>
-      <c r="P25" s="27">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Q25" s="22"/>
+      <c r="Q25" s="22">
+        <v>3</v>
+      </c>
       <c r="R25" s="26">
         <f>O$24*P25*Q25</f>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:18" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="82"/>
-      <c r="B26" s="84"/>
-      <c r="C26" s="86"/>
-      <c r="D26" s="86"/>
-      <c r="E26" s="89"/>
-      <c r="F26" s="56"/>
-      <c r="G26" s="89"/>
-      <c r="H26" s="22"/>
-      <c r="I26" s="55"/>
+    <row r="26" spans="1:18" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="84"/>
+      <c r="B26" s="73"/>
+      <c r="C26" s="81"/>
+      <c r="D26" s="81"/>
+      <c r="E26" s="78"/>
+      <c r="F26" s="55" t="s">
+        <v>136</v>
+      </c>
+      <c r="G26" s="78"/>
+      <c r="H26" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="I26" s="54">
+        <v>5</v>
+      </c>
       <c r="J26" s="23">
         <f t="shared" si="6"/>
+        <v>75</v>
+      </c>
+      <c r="K26" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="L26" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="M26" s="28"/>
+      <c r="N26" s="110"/>
+      <c r="O26" s="78"/>
+      <c r="P26" s="27">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K26" s="24"/>
-      <c r="L26" s="22"/>
-      <c r="M26" s="28"/>
-      <c r="N26" s="108"/>
-      <c r="O26" s="89"/>
-      <c r="P26" s="27">
-        <f t="shared" si="3"/>
+      <c r="Q26" s="22">
+        <v>3</v>
+      </c>
+      <c r="R26" s="26">
+        <f t="shared" ref="R26:R30" si="7">O$24*P26*Q26</f>
         <v>0</v>
       </c>
-      <c r="Q26" s="22"/>
-      <c r="R26" s="26">
-        <f t="shared" ref="R26:R32" si="7">O$24*P26*Q26</f>
-        <v>0</v>
-      </c>
     </row>
-    <row r="27" spans="1:18" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="82"/>
-      <c r="B27" s="84"/>
-      <c r="C27" s="87"/>
-      <c r="D27" s="87"/>
-      <c r="E27" s="90"/>
-      <c r="F27" s="22"/>
-      <c r="G27" s="90"/>
-      <c r="H27" s="22"/>
-      <c r="I27" s="55"/>
+    <row r="27" spans="1:18" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="84"/>
+      <c r="B27" s="73"/>
+      <c r="C27" s="82"/>
+      <c r="D27" s="82"/>
+      <c r="E27" s="79"/>
+      <c r="F27" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="G27" s="79"/>
+      <c r="H27" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="I27" s="54">
+        <v>3</v>
+      </c>
       <c r="J27" s="23">
         <f>$E$24*$G$24*I27</f>
+        <v>45</v>
+      </c>
+      <c r="K27" s="24" t="s">
+        <v>145</v>
+      </c>
+      <c r="L27" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="M27" s="28"/>
+      <c r="N27" s="111"/>
+      <c r="O27" s="79"/>
+      <c r="P27" s="27">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K27" s="24"/>
-      <c r="L27" s="22"/>
-      <c r="M27" s="28"/>
-      <c r="N27" s="109"/>
-      <c r="O27" s="90"/>
-      <c r="P27" s="27">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Q27" s="22"/>
+      <c r="Q27" s="22">
+        <v>1</v>
+      </c>
       <c r="R27" s="26">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:18" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="82"/>
-      <c r="B28" s="84"/>
-      <c r="C28" s="52" t="s">
+    <row r="28" spans="1:18" ht="75.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="84"/>
+      <c r="B28" s="73"/>
+      <c r="C28" s="51" t="s">
         <v>130</v>
       </c>
-      <c r="D28" s="52"/>
-      <c r="E28" s="53"/>
-      <c r="F28" s="22"/>
-      <c r="G28" s="27"/>
-      <c r="H28" s="22"/>
-      <c r="I28" s="55"/>
+      <c r="D28" s="51" t="s">
+        <v>146</v>
+      </c>
+      <c r="E28" s="52">
+        <v>6</v>
+      </c>
+      <c r="F28" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="G28" s="27">
+        <v>6</v>
+      </c>
+      <c r="H28" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="I28" s="54">
+        <v>5</v>
+      </c>
       <c r="J28" s="23">
         <f>$E$28*$G$28*I28</f>
-        <v>0</v>
-      </c>
-      <c r="K28" s="24"/>
-      <c r="L28" s="24"/>
+        <v>180</v>
+      </c>
+      <c r="K28" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="L28" s="22" t="s">
+        <v>102</v>
+      </c>
       <c r="M28" s="28"/>
-      <c r="N28" s="30"/>
+      <c r="N28" s="112" t="s">
+        <v>156</v>
+      </c>
       <c r="O28" s="27">
         <f>E28</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="P28" s="27">
         <f>G28</f>
-        <v>0</v>
-      </c>
-      <c r="Q28" s="27"/>
+        <v>6</v>
+      </c>
+      <c r="Q28" s="27">
+        <v>3</v>
+      </c>
       <c r="R28" s="26">
         <f>O$24*P28*Q28</f>
-        <v>0</v>
+        <v>54</v>
       </c>
     </row>
-    <row r="29" spans="1:18" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="82"/>
-      <c r="B29" s="84"/>
-      <c r="C29" s="85" t="s">
+    <row r="29" spans="1:18" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="84"/>
+      <c r="B29" s="73"/>
+      <c r="C29" s="80" t="s">
         <v>131</v>
       </c>
-      <c r="D29" s="85"/>
-      <c r="E29" s="88"/>
-      <c r="F29" s="22"/>
-      <c r="G29" s="88"/>
-      <c r="H29" s="22"/>
-      <c r="I29" s="55"/>
+      <c r="D29" s="80" t="s">
+        <v>132</v>
+      </c>
+      <c r="E29" s="68">
+        <v>3</v>
+      </c>
+      <c r="F29" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="G29" s="68">
+        <v>4</v>
+      </c>
+      <c r="H29" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="I29" s="54">
+        <v>6</v>
+      </c>
       <c r="J29" s="23">
         <f>$E$29*$G$29*I29</f>
-        <v>0</v>
-      </c>
-      <c r="K29" s="24"/>
-      <c r="L29" s="22"/>
+        <v>72</v>
+      </c>
+      <c r="K29" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="L29" s="22" t="s">
+        <v>102</v>
+      </c>
       <c r="M29" s="28"/>
-      <c r="N29" s="107"/>
-      <c r="O29" s="88">
+      <c r="N29" s="109" t="s">
+        <v>156</v>
+      </c>
+      <c r="O29" s="68">
         <f>E29</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P29" s="27">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Q29" s="22"/>
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="Q29" s="22">
+        <v>4</v>
+      </c>
       <c r="R29" s="26">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>48</v>
       </c>
     </row>
-    <row r="30" spans="1:18" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="82"/>
-      <c r="B30" s="84"/>
-      <c r="C30" s="86"/>
-      <c r="D30" s="86"/>
-      <c r="E30" s="89"/>
-      <c r="F30" s="56"/>
-      <c r="G30" s="89"/>
-      <c r="H30" s="22"/>
-      <c r="I30" s="55"/>
+    <row r="30" spans="1:18" ht="88.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="84"/>
+      <c r="B30" s="73"/>
+      <c r="C30" s="81"/>
+      <c r="D30" s="81"/>
+      <c r="E30" s="78"/>
+      <c r="F30" s="55" t="s">
+        <v>149</v>
+      </c>
+      <c r="G30" s="78"/>
+      <c r="H30" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="I30" s="54">
+        <v>6</v>
+      </c>
       <c r="J30" s="23">
-        <f t="shared" ref="J30:J31" si="8">$E$29*$G$29*I30</f>
-        <v>0</v>
-      </c>
-      <c r="K30" s="24"/>
-      <c r="L30" s="22"/>
+        <f t="shared" ref="J30" si="8">$E$29*$G$29*I30</f>
+        <v>72</v>
+      </c>
+      <c r="K30" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="L30" s="22" t="s">
+        <v>102</v>
+      </c>
       <c r="M30" s="28"/>
-      <c r="N30" s="108"/>
-      <c r="O30" s="105"/>
+      <c r="N30" s="110"/>
+      <c r="O30" s="69"/>
       <c r="P30" s="27">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Q30" s="22"/>
+        <v>4</v>
+      </c>
+      <c r="Q30" s="22">
+        <v>4</v>
+      </c>
       <c r="R30" s="26">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>48</v>
       </c>
     </row>
-    <row r="31" spans="1:18" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="82"/>
-      <c r="B31" s="84"/>
-      <c r="C31" s="86"/>
-      <c r="D31" s="86"/>
-      <c r="E31" s="89"/>
-      <c r="F31" s="56"/>
-      <c r="G31" s="89"/>
+    <row r="31" spans="1:18" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="83"/>
+      <c r="B31" s="72"/>
+      <c r="C31" s="80"/>
+      <c r="D31" s="80"/>
+      <c r="E31" s="68"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="68"/>
       <c r="H31" s="22"/>
-      <c r="I31" s="55"/>
+      <c r="I31" s="54"/>
       <c r="J31" s="23">
-        <f t="shared" si="8"/>
+        <f>$E$31*$G$31:$G$35*I31</f>
         <v>0</v>
       </c>
       <c r="K31" s="24"/>
       <c r="L31" s="22"/>
       <c r="M31" s="28"/>
-      <c r="N31" s="108"/>
-      <c r="O31" s="105"/>
+      <c r="N31" s="75"/>
+      <c r="O31" s="68">
+        <f>E31</f>
+        <v>0</v>
+      </c>
       <c r="P31" s="27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q31" s="22"/>
       <c r="R31" s="26">
-        <f t="shared" si="7"/>
+        <f>O$31*P31*Q31</f>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:18" ht="135" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="102"/>
-      <c r="B32" s="104"/>
-      <c r="C32" s="87"/>
-      <c r="D32" s="87"/>
-      <c r="E32" s="90"/>
-      <c r="F32" s="22"/>
-      <c r="G32" s="90"/>
+    <row r="32" spans="1:18" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="84"/>
+      <c r="B32" s="73"/>
+      <c r="C32" s="81"/>
+      <c r="D32" s="81"/>
+      <c r="E32" s="78"/>
+      <c r="F32" s="55"/>
+      <c r="G32" s="78"/>
       <c r="H32" s="22"/>
-      <c r="I32" s="55"/>
+      <c r="I32" s="54"/>
       <c r="J32" s="23">
-        <f>$E$29*$G$29*I32</f>
+        <f t="shared" ref="J32:J35" si="9">$E$31*$G$31:$G$35*I32</f>
         <v>0</v>
       </c>
       <c r="K32" s="24"/>
       <c r="L32" s="22"/>
       <c r="M32" s="28"/>
-      <c r="N32" s="109"/>
-      <c r="O32" s="100"/>
+      <c r="N32" s="76"/>
+      <c r="O32" s="69"/>
       <c r="P32" s="27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q32" s="22"/>
       <c r="R32" s="26">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="R32:R34" si="10">O$31*P32*Q32</f>
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:23" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="81"/>
-      <c r="B33" s="83"/>
-      <c r="C33" s="85" t="s">
-        <v>132</v>
-      </c>
-      <c r="D33" s="85"/>
-      <c r="E33" s="88"/>
-      <c r="F33" s="22"/>
-      <c r="G33" s="88"/>
+    <row r="33" spans="1:23" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="84"/>
+      <c r="B33" s="73"/>
+      <c r="C33" s="81"/>
+      <c r="D33" s="81"/>
+      <c r="E33" s="78"/>
+      <c r="F33" s="55"/>
+      <c r="G33" s="78"/>
       <c r="H33" s="22"/>
-      <c r="I33" s="55"/>
+      <c r="I33" s="54"/>
       <c r="J33" s="23">
-        <f>$E$33*$G$33:$G$37*I33</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K33" s="24"/>
       <c r="L33" s="22"/>
       <c r="M33" s="28"/>
-      <c r="N33" s="107"/>
-      <c r="O33" s="88">
-        <f>E33</f>
-        <v>0</v>
-      </c>
+      <c r="N33" s="76"/>
+      <c r="O33" s="69"/>
       <c r="P33" s="27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q33" s="22"/>
       <c r="R33" s="26">
-        <f>O$33*P33*Q33</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:23" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="82"/>
-      <c r="B34" s="84"/>
-      <c r="C34" s="86"/>
-      <c r="D34" s="86"/>
-      <c r="E34" s="89"/>
-      <c r="F34" s="56"/>
-      <c r="G34" s="89"/>
+    <row r="34" spans="1:23" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="84"/>
+      <c r="B34" s="73"/>
+      <c r="C34" s="81"/>
+      <c r="D34" s="81"/>
+      <c r="E34" s="78"/>
+      <c r="F34" s="55"/>
+      <c r="G34" s="78"/>
       <c r="H34" s="22"/>
-      <c r="I34" s="55"/>
+      <c r="I34" s="54"/>
       <c r="J34" s="23">
-        <f t="shared" ref="J34:J37" si="9">$E$33*$G$33:$G$37*I34</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K34" s="24"/>
       <c r="L34" s="22"/>
       <c r="M34" s="28"/>
-      <c r="N34" s="108"/>
-      <c r="O34" s="105"/>
+      <c r="N34" s="76"/>
+      <c r="O34" s="69"/>
       <c r="P34" s="27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q34" s="22"/>
       <c r="R34" s="26">
-        <f t="shared" ref="R34:R36" si="10">O$33*P34*Q34</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:23" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="82"/>
-      <c r="B35" s="84"/>
-      <c r="C35" s="86"/>
-      <c r="D35" s="86"/>
-      <c r="E35" s="89"/>
-      <c r="F35" s="56"/>
-      <c r="G35" s="89"/>
+    <row r="35" spans="1:23" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="85"/>
+      <c r="B35" s="74"/>
+      <c r="C35" s="82"/>
+      <c r="D35" s="82"/>
+      <c r="E35" s="79"/>
+      <c r="F35" s="22"/>
+      <c r="G35" s="79"/>
       <c r="H35" s="22"/>
-      <c r="I35" s="55"/>
+      <c r="I35" s="54"/>
       <c r="J35" s="23">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -4975,558 +5169,501 @@
       <c r="K35" s="24"/>
       <c r="L35" s="22"/>
       <c r="M35" s="28"/>
-      <c r="N35" s="108"/>
-      <c r="O35" s="105"/>
+      <c r="N35" s="77"/>
+      <c r="O35" s="70"/>
       <c r="P35" s="27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q35" s="22"/>
       <c r="R35" s="26">
-        <f t="shared" si="10"/>
+        <f>O$31*P35*Q35</f>
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:23" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="82"/>
-      <c r="B36" s="84"/>
-      <c r="C36" s="86"/>
-      <c r="D36" s="86"/>
-      <c r="E36" s="89"/>
-      <c r="F36" s="56"/>
-      <c r="G36" s="89"/>
-      <c r="H36" s="22"/>
-      <c r="I36" s="55"/>
-      <c r="J36" s="23">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="K36" s="24"/>
-      <c r="L36" s="22"/>
-      <c r="M36" s="28"/>
-      <c r="N36" s="108"/>
-      <c r="O36" s="105"/>
-      <c r="P36" s="27">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Q36" s="22"/>
-      <c r="R36" s="26">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
+    <row r="36" spans="1:23" ht="110.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="C36" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="D36" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="E36" s="34"/>
+      <c r="F36" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="G36" s="36"/>
+      <c r="H36" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="I36" s="36"/>
+      <c r="J36" s="38"/>
+      <c r="K36" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="L36" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="M36" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="N36" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="O36" s="40"/>
+      <c r="P36" s="40"/>
+      <c r="Q36" s="40"/>
+      <c r="R36" s="41"/>
+      <c r="T36" s="42"/>
+      <c r="U36" s="43"/>
+      <c r="V36" s="44"/>
+      <c r="W36" s="44"/>
     </row>
-    <row r="37" spans="1:23" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="102"/>
-      <c r="B37" s="104"/>
-      <c r="C37" s="87"/>
-      <c r="D37" s="87"/>
-      <c r="E37" s="90"/>
-      <c r="F37" s="22"/>
-      <c r="G37" s="90"/>
-      <c r="H37" s="22"/>
-      <c r="I37" s="55"/>
-      <c r="J37" s="23">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="K37" s="24"/>
-      <c r="L37" s="22"/>
-      <c r="M37" s="28"/>
-      <c r="N37" s="109"/>
-      <c r="O37" s="100"/>
-      <c r="P37" s="27">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Q37" s="22"/>
-      <c r="R37" s="26">
-        <f>O$33*P37*Q37</f>
-        <v>0</v>
-      </c>
+    <row r="37" spans="1:23" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C37" s="45"/>
+      <c r="E37" s="45"/>
+      <c r="G37" s="45"/>
+      <c r="I37" s="45"/>
+      <c r="T37" s="42"/>
+      <c r="U37" s="44"/>
+      <c r="V37" s="44"/>
+      <c r="W37" s="44"/>
     </row>
-    <row r="38" spans="1:23" ht="110.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="B38" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="C38" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="D38" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="E38" s="35"/>
-      <c r="F38" s="36" t="s">
-        <v>40</v>
-      </c>
-      <c r="G38" s="37"/>
-      <c r="H38" s="38" t="s">
-        <v>41</v>
-      </c>
-      <c r="I38" s="37"/>
-      <c r="J38" s="39"/>
-      <c r="K38" s="38" t="s">
-        <v>42</v>
-      </c>
-      <c r="L38" s="38" t="s">
-        <v>43</v>
-      </c>
-      <c r="M38" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="N38" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="O38" s="41"/>
-      <c r="P38" s="41"/>
-      <c r="Q38" s="41"/>
-      <c r="R38" s="42"/>
-      <c r="T38" s="43"/>
-      <c r="U38" s="44"/>
-      <c r="V38" s="45"/>
-      <c r="W38" s="45"/>
-    </row>
-    <row r="39" spans="1:23" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C39" s="46"/>
-      <c r="E39" s="46"/>
-      <c r="G39" s="46"/>
-      <c r="I39" s="46"/>
-      <c r="T39" s="43"/>
-      <c r="U39" s="45"/>
-      <c r="V39" s="45"/>
-      <c r="W39" s="45"/>
-    </row>
-    <row r="40" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="42" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="44" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="45" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="46" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="47" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="48" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="50" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="51" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="52" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="53" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="54" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="55" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="56" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="57" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="58" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="59" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="60" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="61" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="62" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="63" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="64" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="65" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="66" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="67" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="68" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="69" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="70" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="71" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="72" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="74" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="75" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="76" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="77" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="78" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="79" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="80" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="81" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="82" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="83" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="84" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="85" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="86" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="87" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="88" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="89" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="90" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="91" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="92" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="93" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="94" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="95" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="96" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="97" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="98" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="99" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="100" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="101" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="102" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="103" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="104" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="105" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="106" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="107" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="108" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="109" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="110" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="111" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="112" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="113" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="114" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="115" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="116" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="117" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="118" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="119" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="120" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="121" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="122" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="123" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="124" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="125" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="126" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="127" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="128" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="129" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="130" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="131" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="132" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="133" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="134" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="135" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="136" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="137" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="138" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="139" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="140" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="141" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="142" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="143" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="144" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="145" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="146" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="147" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="148" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="149" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="150" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="151" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="152" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="153" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="154" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="155" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="156" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="157" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="158" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="159" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="160" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="161" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="162" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="163" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="164" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="165" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="166" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="167" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="168" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="169" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="170" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="171" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="172" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="173" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="174" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="175" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="176" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="177" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="178" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="179" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="180" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="181" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="182" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="183" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="184" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="185" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="186" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="187" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="188" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="189" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="190" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="191" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="192" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="193" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="194" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="195" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="196" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="197" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="198" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="199" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="200" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="201" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="202" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="203" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="204" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="205" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="206" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="207" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="208" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="209" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="210" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="211" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="212" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="213" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="214" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="215" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="216" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="217" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="218" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="219" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="220" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="221" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="222" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="223" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="224" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="225" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="226" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="227" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="228" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="229" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="230" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="231" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="232" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="233" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="234" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="235" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="236" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="237" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="238" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="239" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="240" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="241" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="242" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="243" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="244" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="245" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="246" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="247" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="248" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="249" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="250" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="251" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="252" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="253" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="254" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="255" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="256" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="257" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="258" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="259" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="260" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="261" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="262" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="263" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="264" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="265" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="266" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="267" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="268" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="269" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="270" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="271" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="272" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="273" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="274" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="275" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="276" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="277" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="278" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="279" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="280" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="281" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="282" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="283" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="284" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="285" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="286" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="287" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="288" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="289" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="290" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="291" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="292" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="293" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="294" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="295" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="296" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="297" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="298" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="299" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="300" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="301" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="302" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="303" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="304" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="305" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="306" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="307" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="308" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="309" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="310" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="311" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="312" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="313" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="314" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="315" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="316" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="317" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="318" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="319" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="320" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="321" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="322" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="323" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="324" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="325" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="326" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="327" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="328" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="329" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="330" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="331" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="332" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="333" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="334" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="335" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="336" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="337" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="338" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="339" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="340" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="341" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="342" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="343" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="344" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="345" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="346" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="347" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="348" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="349" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="350" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="351" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="352" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="353" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="354" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="355" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="356" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="357" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="358" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="359" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="360" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="361" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="362" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="363" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="364" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="365" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="366" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="367" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="368" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="369" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="370" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="371" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="372" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="373" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="374" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="375" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="376" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="377" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="378" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="379" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="380" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="381" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="382" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="383" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="384" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="385" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="386" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="387" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="388" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="389" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="390" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="391" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="392" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="393" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="394" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="395" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="396" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="397" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="398" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="399" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="400" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="401" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="402" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="403" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="404" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="405" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="406" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="407" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="408" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="409" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="410" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="411" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="412" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="413" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="414" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="415" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="416" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="417" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="418" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="419" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="420" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="421" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="422" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="423" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="424" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="425" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="426" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="427" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="428" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="429" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="430" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="431" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="432" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="433" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="434" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="435" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="436" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="437" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="438" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="439" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="440" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="441" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="38" spans="1:23" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" spans="1:23" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" spans="1:23" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" spans="1:23" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" spans="1:23" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="1:23" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="1:23" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" spans="1:23" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" spans="1:23" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="1:23" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" spans="1:23" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="51" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="65" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="67" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="68" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="69" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="75" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="76" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="81" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="82" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="83" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="84" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="85" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="86" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="87" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="88" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="89" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="90" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="91" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="92" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="93" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="94" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="95" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="96" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="97" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="98" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="99" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="100" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="101" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="102" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="103" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="104" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="105" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="106" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="107" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="108" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="109" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="110" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="111" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="112" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="113" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="114" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="115" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="116" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="117" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="118" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="119" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="120" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="121" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="122" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="123" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="124" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="125" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="126" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="127" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="128" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="129" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="130" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="131" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="132" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="133" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="134" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="135" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="136" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="137" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="138" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="139" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="140" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="141" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="142" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="143" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="144" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="145" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="146" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="147" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="148" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="149" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="150" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="151" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="152" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="153" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="154" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="155" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="156" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="157" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="158" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="159" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="160" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="161" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="162" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="163" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="164" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="165" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="166" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="167" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="168" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="169" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="170" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="171" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="172" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="173" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="174" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="175" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="176" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="177" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="178" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="179" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="180" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="181" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="182" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="183" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="184" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="185" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="186" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="187" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="188" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="189" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="190" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="191" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="192" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="193" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="194" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="195" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="196" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="197" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="198" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="199" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="200" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="201" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="202" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="203" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="204" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="205" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="206" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="207" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="208" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="209" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="210" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="211" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="212" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="213" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="214" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="215" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="216" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="217" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="218" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="219" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="220" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="221" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="222" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="223" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="224" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="225" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="226" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="227" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="228" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="229" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="230" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="231" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="232" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="233" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="234" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="235" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="236" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="237" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="238" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="239" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="240" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="241" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="242" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="243" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="244" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="245" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="246" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="247" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="248" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="249" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="250" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="251" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="252" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="253" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="254" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="255" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="256" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="257" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="258" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="259" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="260" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="261" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="262" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="263" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="264" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="265" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="266" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="267" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="268" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="269" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="270" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="271" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="272" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="273" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="274" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="275" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="276" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="277" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="278" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="279" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="280" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="281" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="282" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="283" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="284" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="285" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="286" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="287" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="288" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="289" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="290" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="291" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="292" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="293" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="294" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="295" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="296" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="297" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="298" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="299" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="300" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="301" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="302" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="303" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="304" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="305" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="306" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="307" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="308" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="309" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="310" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="311" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="312" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="313" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="314" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="315" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="316" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="317" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="318" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="319" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="320" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="321" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="322" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="323" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="324" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="325" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="326" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="327" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="328" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="329" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="330" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="331" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="332" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="333" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="334" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="335" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="336" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="337" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="338" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="339" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="340" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="341" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="342" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="343" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="344" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="345" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="346" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="347" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="348" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="349" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="350" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="351" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="352" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="353" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="354" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="355" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="356" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="357" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="358" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="359" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="360" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="361" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="362" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="363" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="364" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="365" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="366" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="367" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="368" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="369" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="370" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="371" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="372" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="373" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="374" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="375" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="376" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="377" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="378" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="379" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="380" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="381" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="382" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="383" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="384" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="385" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="386" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="387" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="388" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="389" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="390" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="391" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="392" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="393" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="394" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="395" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="396" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="397" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="398" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="399" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="400" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="401" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="402" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="403" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="404" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="405" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="406" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="407" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="408" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="409" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="410" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="411" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="412" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="413" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="414" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="415" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="416" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="417" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="418" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="419" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="420" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="421" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="422" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="423" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="424" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="425" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="426" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="427" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="428" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="429" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="430" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="431" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="432" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="433" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="434" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="435" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="436" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="437" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="438" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="439" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="65">
-    <mergeCell ref="O33:O37"/>
-    <mergeCell ref="B18:B23"/>
-    <mergeCell ref="B33:B37"/>
-    <mergeCell ref="N33:N37"/>
-    <mergeCell ref="O24:O27"/>
-    <mergeCell ref="C29:C32"/>
-    <mergeCell ref="D29:D32"/>
-    <mergeCell ref="E29:E32"/>
-    <mergeCell ref="G29:G32"/>
-    <mergeCell ref="N29:N32"/>
-    <mergeCell ref="O29:O32"/>
-    <mergeCell ref="N24:N27"/>
-    <mergeCell ref="O18:O21"/>
-    <mergeCell ref="A33:A37"/>
-    <mergeCell ref="C33:C37"/>
-    <mergeCell ref="D33:D37"/>
-    <mergeCell ref="E33:E37"/>
-    <mergeCell ref="G33:G37"/>
-    <mergeCell ref="A24:A32"/>
-    <mergeCell ref="C24:C27"/>
-    <mergeCell ref="D24:D27"/>
-    <mergeCell ref="E24:E27"/>
-    <mergeCell ref="G24:G27"/>
-    <mergeCell ref="B24:B32"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="H2:L2"/>
+    <mergeCell ref="A6:A17"/>
+    <mergeCell ref="B6:B17"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="D6:D9"/>
+    <mergeCell ref="E6:E9"/>
+    <mergeCell ref="G6:G9"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="E10:E12"/>
+    <mergeCell ref="G10:G12"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="N6:N17"/>
+    <mergeCell ref="O6:O9"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="G15:G17"/>
+    <mergeCell ref="O15:O17"/>
+    <mergeCell ref="P15:P17"/>
     <mergeCell ref="P6:P9"/>
     <mergeCell ref="C10:C12"/>
     <mergeCell ref="A18:A23"/>
@@ -5543,34 +5680,33 @@
     <mergeCell ref="P10:P12"/>
     <mergeCell ref="P13:P14"/>
     <mergeCell ref="C15:C17"/>
-    <mergeCell ref="D15:D17"/>
-    <mergeCell ref="E15:E17"/>
-    <mergeCell ref="G15:G17"/>
-    <mergeCell ref="O15:O17"/>
-    <mergeCell ref="P15:P17"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="N6:N17"/>
-    <mergeCell ref="O6:O9"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="I1:L1"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="H2:L2"/>
-    <mergeCell ref="A6:A17"/>
-    <mergeCell ref="B6:B17"/>
-    <mergeCell ref="C6:C9"/>
-    <mergeCell ref="D6:D9"/>
-    <mergeCell ref="E6:E9"/>
-    <mergeCell ref="G6:G9"/>
-    <mergeCell ref="D10:D12"/>
-    <mergeCell ref="E10:E12"/>
-    <mergeCell ref="G10:G12"/>
+    <mergeCell ref="A24:A30"/>
+    <mergeCell ref="C24:C27"/>
+    <mergeCell ref="D24:D27"/>
+    <mergeCell ref="E24:E27"/>
+    <mergeCell ref="G24:G27"/>
+    <mergeCell ref="B24:B30"/>
+    <mergeCell ref="A31:A35"/>
+    <mergeCell ref="C31:C35"/>
+    <mergeCell ref="D31:D35"/>
+    <mergeCell ref="E31:E35"/>
+    <mergeCell ref="G31:G35"/>
+    <mergeCell ref="O31:O35"/>
+    <mergeCell ref="B18:B23"/>
+    <mergeCell ref="B31:B35"/>
+    <mergeCell ref="N31:N35"/>
+    <mergeCell ref="O24:O27"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="N29:N30"/>
+    <mergeCell ref="O29:O30"/>
+    <mergeCell ref="N24:N27"/>
+    <mergeCell ref="O18:O21"/>
   </mergeCells>
-  <conditionalFormatting sqref="J6:J37">
-    <cfRule type="colorScale" priority="1">
+  <conditionalFormatting sqref="J6:J35">
+    <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5580,15 +5716,15 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="13" operator="greaterThan">
       <formula>80</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="14" operator="greaterThan">
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R6:R37">
-    <cfRule type="colorScale" priority="4">
+  <conditionalFormatting sqref="R6:R35">
+    <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5612,170 +5748,170 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="43.28515625" customWidth="1"/>
-    <col min="3" max="3" width="35.28515625" customWidth="1"/>
-    <col min="4" max="4" width="40.140625" customWidth="1"/>
+    <col min="2" max="2" width="43.26953125" customWidth="1"/>
+    <col min="3" max="3" width="35.26953125" customWidth="1"/>
+    <col min="4" max="4" width="40.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:4" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="47"/>
-      <c r="B2" s="48" t="s">
+    <row r="1" spans="1:4" ht="13" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:4" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="46"/>
+      <c r="B2" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="48" t="s">
+      <c r="C2" s="47" t="s">
         <v>47</v>
       </c>
-      <c r="D2" s="48" t="s">
+      <c r="D2" s="47" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="49">
+    <row r="3" spans="1:4" ht="31.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="48">
         <v>1</v>
       </c>
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="C3" s="50" t="s">
+      <c r="C3" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="D3" s="50" t="s">
+      <c r="D3" s="49" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="49">
+    <row r="4" spans="1:4" ht="31.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="48">
         <v>2</v>
       </c>
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="49" t="s">
         <v>52</v>
       </c>
-      <c r="C4" s="50" t="s">
+      <c r="C4" s="49" t="s">
         <v>53</v>
       </c>
-      <c r="D4" s="50" t="s">
+      <c r="D4" s="49" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="49">
+    <row r="5" spans="1:4" ht="31.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="48">
         <v>3</v>
       </c>
-      <c r="B5" s="50" t="s">
+      <c r="B5" s="49" t="s">
         <v>55</v>
       </c>
-      <c r="C5" s="50" t="s">
+      <c r="C5" s="49" t="s">
         <v>56</v>
       </c>
-      <c r="D5" s="50" t="s">
+      <c r="D5" s="49" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="49">
+    <row r="6" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="48">
         <v>4</v>
       </c>
-      <c r="B6" s="50" t="s">
+      <c r="B6" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="C6" s="50" t="s">
+      <c r="C6" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="D6" s="50" t="s">
+      <c r="D6" s="49" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="49">
+    <row r="7" spans="1:4" ht="47" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="48">
         <v>5</v>
       </c>
-      <c r="B7" s="50" t="s">
+      <c r="B7" s="49" t="s">
         <v>61</v>
       </c>
-      <c r="C7" s="50" t="s">
+      <c r="C7" s="49" t="s">
         <v>62</v>
       </c>
-      <c r="D7" s="50" t="s">
+      <c r="D7" s="49" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="49">
+    <row r="8" spans="1:4" ht="31.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="48">
         <v>6</v>
       </c>
-      <c r="B8" s="50" t="s">
+      <c r="B8" s="49" t="s">
         <v>64</v>
       </c>
-      <c r="C8" s="50" t="s">
+      <c r="C8" s="49" t="s">
         <v>65</v>
       </c>
-      <c r="D8" s="50" t="s">
+      <c r="D8" s="49" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="49">
+    <row r="9" spans="1:4" ht="47" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="48">
         <v>7</v>
       </c>
-      <c r="B9" s="50" t="s">
+      <c r="B9" s="49" t="s">
         <v>67</v>
       </c>
-      <c r="C9" s="50" t="s">
+      <c r="C9" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="D9" s="50" t="s">
+      <c r="D9" s="49" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="60.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="49">
+    <row r="10" spans="1:4" ht="62.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="48">
         <v>8</v>
       </c>
-      <c r="B10" s="50" t="s">
+      <c r="B10" s="49" t="s">
         <v>70</v>
       </c>
-      <c r="C10" s="50" t="s">
+      <c r="C10" s="49" t="s">
         <v>71</v>
       </c>
-      <c r="D10" s="50" t="s">
+      <c r="D10" s="49" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="49">
+    <row r="11" spans="1:4" ht="31.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="48">
         <v>9</v>
       </c>
-      <c r="B11" s="50" t="s">
+      <c r="B11" s="49" t="s">
         <v>73</v>
       </c>
-      <c r="C11" s="50" t="s">
+      <c r="C11" s="49" t="s">
         <v>74</v>
       </c>
-      <c r="D11" s="50" t="s">
+      <c r="D11" s="49" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="49">
+    <row r="12" spans="1:4" ht="31.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="48">
         <v>10</v>
       </c>
-      <c r="B12" s="50" t="s">
+      <c r="B12" s="49" t="s">
         <v>76</v>
       </c>
-      <c r="C12" s="50" t="s">
+      <c r="C12" s="49" t="s">
         <v>77</v>
       </c>
-      <c r="D12" s="50" t="s">
+      <c r="D12" s="49" t="s">
         <v>78</v>
       </c>
     </row>
@@ -5786,6 +5922,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008627D652ECF16F40ADBE374E3D3D87F6" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a82faf83e130f03aec18d17d2520a96e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="fb007535-a6a4-4ea0-86da-29f43c46b391" xmlns:ns3="b4c971ed-d55e-45d5-823f-e5f0a4d5378a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="87a257aab2ea2865cd171ccfb5db57b0" ns2:_="" ns3:_="">
     <xsd:import namespace="fb007535-a6a4-4ea0-86da-29f43c46b391"/>
@@ -5950,22 +6101,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{321A4371-70D3-4670-B9DE-51C73593625E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="b4c971ed-d55e-45d5-823f-e5f0a4d5378a"/>
+    <ds:schemaRef ds:uri="fb007535-a6a4-4ea0-86da-29f43c46b391"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{83D99D69-C41B-42E2-B319-512FDE30DA9C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FE32DFB4-4620-4CB8-8357-3506FC850A95}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5982,29 +6143,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{83D99D69-C41B-42E2-B319-512FDE30DA9C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{321A4371-70D3-4670-B9DE-51C73593625E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="b4c971ed-d55e-45d5-823f-e5f0a4d5378a"/>
-    <ds:schemaRef ds:uri="fb007535-a6a4-4ea0-86da-29f43c46b391"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Entregable 18.10/Semestre_i_DFMEA_Template (1).xlsx
+++ b/Entregable 18.10/Semestre_i_DFMEA_Template (1).xlsx
@@ -16,7 +16,7 @@
     <sheet name="SOD Table" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">FMEA!$A$1:$R$36</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">FMEA!$A$1:$R$34</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">FMEA!$1:$5</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="170">
   <si>
     <t>Process or Product Name:</t>
   </si>
@@ -570,7 +570,46 @@
     <t>Una velocidad mas lenta lleva a un sistema mas predecible y estable</t>
   </si>
   <si>
-    <t>Sistem is light and lean enough to pass specifications but heavy and robust enough to handle speeds</t>
+    <t>Mecanismo de solenoide</t>
+  </si>
+  <si>
+    <t>Pantalla tactil no detecta el toque del solenoide</t>
+  </si>
+  <si>
+    <t>Solenoide no baja</t>
+  </si>
+  <si>
+    <t>Solenoide no se retracta</t>
+  </si>
+  <si>
+    <t>Mecanismo de solenoide sube y baja como piston al ser comandado.</t>
+  </si>
+  <si>
+    <t>La pantalla no responde a las entradas del sistema</t>
+  </si>
+  <si>
+    <t>El sistema no puede tocar la pantalla</t>
+  </si>
+  <si>
+    <t>El sistema no puede dejar de tocar la pantalla</t>
+  </si>
+  <si>
+    <t>No corre corriente a travez de la pluma del solenoide</t>
+  </si>
+  <si>
+    <t>No llega corriente al solenoide</t>
+  </si>
+  <si>
+    <t>El solenoide esta mal conectado a voltaje</t>
+  </si>
+  <si>
+    <t>Mandar la pluma del solenoide a tierra</t>
+  </si>
+  <si>
+    <t>System is light and lean enough to pass specifications but heavy and robust enough to handle speeds</t>
+  </si>
+  <si>
+    <t>System can now touch and stop touching the screen providing input</t>
   </si>
 </sst>
 </file>
@@ -912,30 +951,6 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thick">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thick">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -1057,6 +1072,30 @@
         <color indexed="64"/>
       </left>
       <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="thin">
@@ -1074,7 +1113,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1174,46 +1213,34 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1237,7 +1264,7 @@
     <xf numFmtId="0" fontId="9" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1264,11 +1291,11 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1280,11 +1307,11 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1308,163 +1335,153 @@
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="1" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="6" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="7" fillId="6" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="6" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="6" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1476,8 +1493,29 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1525,13 +1563,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>44824</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>100854</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>896471</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>134471</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1539,7 +1577,7 @@
         <xdr:cNvPr id="2" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B23317E6-8623-41F0-8B0D-8D4182394236}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B23317E6-8623-41F0-8B0D-8D4182394236}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1632,13 +1670,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>605117</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>610721</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>100854</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1646,7 +1684,7 @@
         <xdr:cNvPr id="3" name="Straight Arrow Connector 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E63FA1D0-9A8D-4AE7-AA03-2C872B4E63FE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E63FA1D0-9A8D-4AE7-AA03-2C872B4E63FE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1681,13 +1719,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1519516</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>219636</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>219634</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>6724</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1695,7 +1733,7 @@
         <xdr:cNvPr id="4" name="TextBox 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A218B3AF-48DA-48E5-9731-2C4A17B13FE4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A218B3AF-48DA-48E5-9731-2C4A17B13FE4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1788,13 +1826,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1121707</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1131792</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>219636</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1802,7 +1840,7 @@
         <xdr:cNvPr id="5" name="Straight Arrow Connector 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D06A2989-DB73-4D40-81D8-2706C13BEA5B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D06A2989-DB73-4D40-81D8-2706C13BEA5B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1839,13 +1877,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1683121</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>103095</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>2030504</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>168088</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1853,7 +1891,7 @@
         <xdr:cNvPr id="6" name="TextBox 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6B1952D4-D5C3-44C8-B55C-7329C3042AA6}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B1952D4-D5C3-44C8-B55C-7329C3042AA6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1936,13 +1974,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>781048</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>784411</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>103095</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1950,7 +1988,7 @@
         <xdr:cNvPr id="7" name="Straight Arrow Connector 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CA69449B-4546-4D4C-B035-C63AC3E43DFF}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA69449B-4546-4D4C-B035-C63AC3E43DFF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1987,13 +2025,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>76198</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>121025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>2575110</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>179294</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2001,7 +2039,7 @@
         <xdr:cNvPr id="8" name="TextBox 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9807E8F4-898B-4ACB-BEC9-A3A3CE12A11A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9807E8F4-898B-4ACB-BEC9-A3A3CE12A11A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2084,13 +2122,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>1325654</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>11206</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>1325654</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>121025</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2098,7 +2136,7 @@
         <xdr:cNvPr id="9" name="Straight Arrow Connector 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A81C25D7-CE9C-4064-A6FA-1A0F35148A44}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A81C25D7-CE9C-4064-A6FA-1A0F35148A44}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2135,13 +2173,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>71716</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>161364</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>116539</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>89646</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2149,7 +2187,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DD792D50-326C-4B7B-BC13-74A3B2411AC0}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD792D50-326C-4B7B-BC13-74A3B2411AC0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2232,13 +2270,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>1321172</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>22412</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>1322295</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>161364</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2246,7 +2284,7 @@
         <xdr:cNvPr id="11" name="Straight Arrow Connector 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8DE6999E-2B84-4E83-8AF6-CF17F4F1AE95}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DE6999E-2B84-4E83-8AF6-CF17F4F1AE95}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2283,13 +2321,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>246527</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>168087</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>22412</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>96369</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2297,7 +2335,7 @@
         <xdr:cNvPr id="12" name="TextBox 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BC65B1C1-FF46-41B2-B49B-47BA29375766}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC65B1C1-FF46-41B2-B49B-47BA29375766}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2380,13 +2418,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>1154205</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>11206</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>1154206</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>168087</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2394,7 +2432,7 @@
         <xdr:cNvPr id="13" name="Straight Arrow Connector 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{895F1EB6-18C0-4E56-8307-A2ABB2EEE9F2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{895F1EB6-18C0-4E56-8307-A2ABB2EEE9F2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2431,13 +2469,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>2046192</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>40340</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>118783</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>215151</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2445,7 +2483,7 @@
         <xdr:cNvPr id="14" name="TextBox 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{130776FA-1B6D-48C1-92E2-7300C66F5515}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{130776FA-1B6D-48C1-92E2-7300C66F5515}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2528,13 +2566,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>907676</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>11206</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>914399</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>40340</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2542,7 +2580,7 @@
         <xdr:cNvPr id="15" name="Straight Arrow Connector 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{29E24126-67C1-4809-9342-BF4654D11587}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29E24126-67C1-4809-9342-BF4654D11587}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2579,13 +2617,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>1425388</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>181534</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>33619</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>109816</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2593,7 +2631,7 @@
         <xdr:cNvPr id="16" name="TextBox 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{814BF6D2-2D92-4757-A2E1-53B67E3D2A2A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{814BF6D2-2D92-4757-A2E1-53B67E3D2A2A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2682,13 +2720,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>847165</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>33618</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>847165</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>181534</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2696,7 +2734,7 @@
         <xdr:cNvPr id="17" name="Straight Arrow Connector 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5A97B86A-BBC3-4E71-AE61-6B58F40E52CD}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A97B86A-BBC3-4E71-AE61-6B58F40E52CD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2733,13 +2771,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1013009</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>172573</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>1035421</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>230841</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2747,7 +2785,7 @@
         <xdr:cNvPr id="18" name="TextBox 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A7571F63-536C-4E5A-B3AE-107982A09057}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7571F63-536C-4E5A-B3AE-107982A09057}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2836,13 +2874,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>156882</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>22412</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>166965</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>172573</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2850,7 +2888,7 @@
         <xdr:cNvPr id="19" name="Straight Arrow Connector 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2E121374-3D38-4DD3-B80B-8541354BAC32}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E121374-3D38-4DD3-B80B-8541354BAC32}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2887,13 +2925,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>2106703</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>33619</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>1019733</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>134470</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2901,7 +2939,7 @@
         <xdr:cNvPr id="20" name="TextBox 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{ACEE8AC5-BD67-43DD-A54B-0E22E06FF988}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACEE8AC5-BD67-43DD-A54B-0E22E06FF988}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2990,13 +3028,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>145677</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>22412</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>151277</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>33619</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3004,7 +3042,7 @@
         <xdr:cNvPr id="21" name="Straight Arrow Connector 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EF3FE31C-2044-41A1-9CBF-F9799A6B59B6}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF3FE31C-2044-41A1-9CBF-F9799A6B59B6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3041,13 +3079,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>1396251</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>29136</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>802339</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>129987</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3055,7 +3093,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CE725C70-7C8B-48CF-AD74-39829B1635E5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE725C70-7C8B-48CF-AD74-39829B1635E5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3135,13 +3173,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>191618</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>22412</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>201706</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>29136</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3149,7 +3187,7 @@
         <xdr:cNvPr id="23" name="Straight Arrow Connector 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2BD56E8A-D17A-4A1D-BC90-EC22B99F70A5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2BD56E8A-D17A-4A1D-BC90-EC22B99F70A5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3186,13 +3224,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>28014</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>84045</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>140073</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>229721</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3200,7 +3238,7 @@
         <xdr:cNvPr id="24" name="Left Brace 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A1D5DA83-2044-475D-8918-F2D8D7DFFA66}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1D5DA83-2044-475D-8918-F2D8D7DFFA66}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3243,13 +3281,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>986118</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>125504</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>573741</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>53786</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3257,7 +3295,7 @@
         <xdr:cNvPr id="25" name="TextBox 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{613FE002-EC1B-48D1-AF14-5A5EAED7513B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{613FE002-EC1B-48D1-AF14-5A5EAED7513B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3378,13 +3416,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>264459</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>229721</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>264459</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>125504</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3392,7 +3430,7 @@
         <xdr:cNvPr id="26" name="Straight Arrow Connector 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{629B6D83-BDE4-42F7-93D7-559AD3CC9BF2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{629B6D83-BDE4-42F7-93D7-559AD3CC9BF2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3729,10 +3767,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:W439"/>
+  <dimension ref="A1:W437"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="I32" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P40" sqref="P40"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="I29" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S33" sqref="S33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -3763,19 +3801,19 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="99"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="68"/>
       <c r="G1" s="2"/>
-      <c r="H1" s="50" t="s">
+      <c r="H1" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="100"/>
-      <c r="J1" s="101"/>
-      <c r="K1" s="101"/>
-      <c r="L1" s="102"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="71"/>
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
       <c r="O1" s="2"/>
@@ -3787,19 +3825,19 @@
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="103"/>
-      <c r="C2" s="104"/>
-      <c r="D2" s="104"/>
-      <c r="E2" s="104"/>
-      <c r="F2" s="105"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="74"/>
       <c r="G2" s="2"/>
-      <c r="H2" s="106" t="s">
+      <c r="H2" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="107"/>
-      <c r="J2" s="107"/>
-      <c r="K2" s="107"/>
-      <c r="L2" s="108"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="76"/>
+      <c r="L2" s="77"/>
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
       <c r="O2" s="2"/>
@@ -3932,31 +3970,31 @@
       <c r="R5" s="20"/>
     </row>
     <row r="6" spans="1:18" ht="31.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="83" t="s">
+      <c r="A6" s="78" t="s">
         <v>79</v>
       </c>
-      <c r="B6" s="72" t="s">
+      <c r="B6" s="80" t="s">
         <v>105</v>
       </c>
-      <c r="C6" s="80" t="s">
+      <c r="C6" s="82" t="s">
         <v>81</v>
       </c>
-      <c r="D6" s="80" t="s">
+      <c r="D6" s="82" t="s">
         <v>85</v>
       </c>
-      <c r="E6" s="68">
+      <c r="E6" s="85">
         <v>8</v>
       </c>
       <c r="F6" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="G6" s="68">
+      <c r="G6" s="85">
         <v>10</v>
       </c>
       <c r="H6" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="I6" s="52">
+      <c r="I6" s="49">
         <v>6</v>
       </c>
       <c r="J6" s="23">
@@ -3970,13 +4008,13 @@
         <v>102</v>
       </c>
       <c r="M6" s="25"/>
-      <c r="N6" s="94" t="s">
+      <c r="N6" s="88" t="s">
         <v>103</v>
       </c>
-      <c r="O6" s="68">
+      <c r="O6" s="85">
         <v>8</v>
       </c>
-      <c r="P6" s="68">
+      <c r="P6" s="85">
         <v>6</v>
       </c>
       <c r="Q6" s="22">
@@ -3988,13 +4026,13 @@
       </c>
     </row>
     <row r="7" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="84"/>
-      <c r="B7" s="73"/>
-      <c r="C7" s="81"/>
-      <c r="D7" s="81"/>
-      <c r="E7" s="78"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="78"/>
+      <c r="A7" s="79"/>
+      <c r="B7" s="81"/>
+      <c r="C7" s="83"/>
+      <c r="D7" s="83"/>
+      <c r="E7" s="86"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="86"/>
       <c r="H7" s="22"/>
       <c r="I7" s="27"/>
       <c r="J7" s="23">
@@ -4004,9 +4042,9 @@
       <c r="K7" s="24"/>
       <c r="L7" s="22"/>
       <c r="M7" s="25"/>
-      <c r="N7" s="95"/>
-      <c r="O7" s="78"/>
-      <c r="P7" s="78"/>
+      <c r="N7" s="89"/>
+      <c r="O7" s="86"/>
+      <c r="P7" s="86"/>
       <c r="Q7" s="22">
         <v>5</v>
       </c>
@@ -4016,15 +4054,15 @@
       </c>
     </row>
     <row r="8" spans="1:18" ht="62.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="84"/>
-      <c r="B8" s="73"/>
-      <c r="C8" s="81"/>
-      <c r="D8" s="81"/>
-      <c r="E8" s="78"/>
-      <c r="F8" s="55" t="s">
+      <c r="A8" s="79"/>
+      <c r="B8" s="81"/>
+      <c r="C8" s="83"/>
+      <c r="D8" s="83"/>
+      <c r="E8" s="86"/>
+      <c r="F8" s="52" t="s">
         <v>89</v>
       </c>
-      <c r="G8" s="78"/>
+      <c r="G8" s="86"/>
       <c r="H8" s="22" t="s">
         <v>97</v>
       </c>
@@ -4042,9 +4080,9 @@
         <v>102</v>
       </c>
       <c r="M8" s="25"/>
-      <c r="N8" s="95"/>
-      <c r="O8" s="78"/>
-      <c r="P8" s="78"/>
+      <c r="N8" s="89"/>
+      <c r="O8" s="86"/>
+      <c r="P8" s="86"/>
       <c r="Q8" s="22">
         <v>3</v>
       </c>
@@ -4054,15 +4092,15 @@
       </c>
     </row>
     <row r="9" spans="1:18" ht="62.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="84"/>
-      <c r="B9" s="73"/>
-      <c r="C9" s="82"/>
-      <c r="D9" s="82"/>
-      <c r="E9" s="79"/>
-      <c r="F9" s="55" t="s">
+      <c r="A9" s="79"/>
+      <c r="B9" s="81"/>
+      <c r="C9" s="84"/>
+      <c r="D9" s="84"/>
+      <c r="E9" s="87"/>
+      <c r="F9" s="52" t="s">
         <v>104</v>
       </c>
-      <c r="G9" s="79"/>
+      <c r="G9" s="87"/>
       <c r="H9" s="22" t="s">
         <v>97</v>
       </c>
@@ -4080,9 +4118,9 @@
         <v>102</v>
       </c>
       <c r="M9" s="25"/>
-      <c r="N9" s="95"/>
-      <c r="O9" s="79"/>
-      <c r="P9" s="79"/>
+      <c r="N9" s="89"/>
+      <c r="O9" s="87"/>
+      <c r="P9" s="87"/>
       <c r="Q9" s="22">
         <v>4</v>
       </c>
@@ -4092,21 +4130,21 @@
       </c>
     </row>
     <row r="10" spans="1:18" ht="31.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="84"/>
-      <c r="B10" s="73"/>
-      <c r="C10" s="80" t="s">
+      <c r="A10" s="79"/>
+      <c r="B10" s="81"/>
+      <c r="C10" s="82" t="s">
         <v>80</v>
       </c>
-      <c r="D10" s="80" t="s">
+      <c r="D10" s="82" t="s">
         <v>84</v>
       </c>
-      <c r="E10" s="68">
+      <c r="E10" s="85">
         <v>8</v>
       </c>
-      <c r="F10" s="55" t="s">
+      <c r="F10" s="52" t="s">
         <v>88</v>
       </c>
-      <c r="G10" s="68">
+      <c r="G10" s="85">
         <v>10</v>
       </c>
       <c r="H10" s="22" t="s">
@@ -4126,11 +4164,11 @@
         <v>102</v>
       </c>
       <c r="M10" s="28"/>
-      <c r="N10" s="95"/>
-      <c r="O10" s="68">
+      <c r="N10" s="89"/>
+      <c r="O10" s="85">
         <v>8</v>
       </c>
-      <c r="P10" s="68">
+      <c r="P10" s="85">
         <v>6</v>
       </c>
       <c r="Q10" s="22">
@@ -4142,19 +4180,19 @@
       </c>
     </row>
     <row r="11" spans="1:18" ht="31.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="84"/>
-      <c r="B11" s="73"/>
-      <c r="C11" s="81"/>
-      <c r="D11" s="81"/>
-      <c r="E11" s="78"/>
-      <c r="F11" s="55" t="s">
+      <c r="A11" s="79"/>
+      <c r="B11" s="81"/>
+      <c r="C11" s="83"/>
+      <c r="D11" s="83"/>
+      <c r="E11" s="86"/>
+      <c r="F11" s="52" t="s">
         <v>90</v>
       </c>
-      <c r="G11" s="78"/>
+      <c r="G11" s="86"/>
       <c r="H11" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="I11" s="53">
+      <c r="I11" s="50">
         <v>6</v>
       </c>
       <c r="J11" s="23">
@@ -4168,9 +4206,9 @@
         <v>102</v>
       </c>
       <c r="M11" s="28"/>
-      <c r="N11" s="95"/>
-      <c r="O11" s="78"/>
-      <c r="P11" s="78"/>
+      <c r="N11" s="89"/>
+      <c r="O11" s="86"/>
+      <c r="P11" s="86"/>
       <c r="Q11" s="22">
         <v>4</v>
       </c>
@@ -4180,15 +4218,15 @@
       </c>
     </row>
     <row r="12" spans="1:18" ht="62.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="84"/>
-      <c r="B12" s="73"/>
-      <c r="C12" s="82"/>
-      <c r="D12" s="82"/>
-      <c r="E12" s="79"/>
-      <c r="F12" s="55" t="s">
+      <c r="A12" s="79"/>
+      <c r="B12" s="81"/>
+      <c r="C12" s="84"/>
+      <c r="D12" s="84"/>
+      <c r="E12" s="87"/>
+      <c r="F12" s="52" t="s">
         <v>91</v>
       </c>
-      <c r="G12" s="79"/>
+      <c r="G12" s="87"/>
       <c r="H12" s="22" t="s">
         <v>97</v>
       </c>
@@ -4206,9 +4244,9 @@
         <v>102</v>
       </c>
       <c r="M12" s="28"/>
-      <c r="N12" s="95"/>
-      <c r="O12" s="79"/>
-      <c r="P12" s="79"/>
+      <c r="N12" s="89"/>
+      <c r="O12" s="87"/>
+      <c r="P12" s="87"/>
       <c r="Q12" s="22">
         <v>3</v>
       </c>
@@ -4218,21 +4256,21 @@
       </c>
     </row>
     <row r="13" spans="1:18" ht="31.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="84"/>
-      <c r="B13" s="73"/>
-      <c r="C13" s="80" t="s">
+      <c r="A13" s="79"/>
+      <c r="B13" s="81"/>
+      <c r="C13" s="82" t="s">
         <v>82</v>
       </c>
-      <c r="D13" s="80" t="s">
+      <c r="D13" s="82" t="s">
         <v>86</v>
       </c>
-      <c r="E13" s="68">
+      <c r="E13" s="85">
         <v>5</v>
       </c>
-      <c r="F13" s="55" t="s">
+      <c r="F13" s="52" t="s">
         <v>88</v>
       </c>
-      <c r="G13" s="68">
+      <c r="G13" s="85">
         <v>8</v>
       </c>
       <c r="H13" s="22" t="s">
@@ -4252,11 +4290,11 @@
         <v>102</v>
       </c>
       <c r="M13" s="28"/>
-      <c r="N13" s="95"/>
-      <c r="O13" s="68">
+      <c r="N13" s="89"/>
+      <c r="O13" s="85">
         <v>5</v>
       </c>
-      <c r="P13" s="68">
+      <c r="P13" s="85">
         <v>5</v>
       </c>
       <c r="Q13" s="27">
@@ -4268,15 +4306,15 @@
       </c>
     </row>
     <row r="14" spans="1:18" ht="62.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="84"/>
-      <c r="B14" s="73"/>
-      <c r="C14" s="82"/>
-      <c r="D14" s="82"/>
-      <c r="E14" s="79"/>
+      <c r="A14" s="79"/>
+      <c r="B14" s="81"/>
+      <c r="C14" s="84"/>
+      <c r="D14" s="84"/>
+      <c r="E14" s="87"/>
       <c r="F14" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="G14" s="79"/>
+      <c r="G14" s="87"/>
       <c r="H14" s="22" t="s">
         <v>98</v>
       </c>
@@ -4294,9 +4332,9 @@
         <v>102</v>
       </c>
       <c r="M14" s="28"/>
-      <c r="N14" s="95"/>
-      <c r="O14" s="79"/>
-      <c r="P14" s="79"/>
+      <c r="N14" s="89"/>
+      <c r="O14" s="87"/>
+      <c r="P14" s="87"/>
       <c r="Q14" s="27">
         <v>4</v>
       </c>
@@ -4306,21 +4344,21 @@
       </c>
     </row>
     <row r="15" spans="1:18" ht="31.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="84"/>
-      <c r="B15" s="73"/>
-      <c r="C15" s="80" t="s">
+      <c r="A15" s="79"/>
+      <c r="B15" s="81"/>
+      <c r="C15" s="82" t="s">
         <v>83</v>
       </c>
-      <c r="D15" s="80" t="s">
+      <c r="D15" s="82" t="s">
         <v>87</v>
       </c>
-      <c r="E15" s="68">
+      <c r="E15" s="85">
         <v>8</v>
       </c>
-      <c r="F15" s="55" t="s">
+      <c r="F15" s="52" t="s">
         <v>93</v>
       </c>
-      <c r="G15" s="68">
+      <c r="G15" s="85">
         <v>8</v>
       </c>
       <c r="H15" s="22" t="s">
@@ -4340,11 +4378,11 @@
         <v>102</v>
       </c>
       <c r="M15" s="28"/>
-      <c r="N15" s="95"/>
-      <c r="O15" s="68">
+      <c r="N15" s="89"/>
+      <c r="O15" s="85">
         <v>8</v>
       </c>
-      <c r="P15" s="68">
+      <c r="P15" s="85">
         <v>7</v>
       </c>
       <c r="Q15" s="27">
@@ -4356,15 +4394,15 @@
       </c>
     </row>
     <row r="16" spans="1:18" ht="62.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="84"/>
-      <c r="B16" s="73"/>
-      <c r="C16" s="81"/>
-      <c r="D16" s="81"/>
-      <c r="E16" s="78"/>
-      <c r="F16" s="55" t="s">
+      <c r="A16" s="79"/>
+      <c r="B16" s="81"/>
+      <c r="C16" s="83"/>
+      <c r="D16" s="83"/>
+      <c r="E16" s="86"/>
+      <c r="F16" s="52" t="s">
         <v>94</v>
       </c>
-      <c r="G16" s="78"/>
+      <c r="G16" s="86"/>
       <c r="H16" s="22" t="s">
         <v>98</v>
       </c>
@@ -4382,9 +4420,9 @@
         <v>102</v>
       </c>
       <c r="M16" s="28"/>
-      <c r="N16" s="95"/>
-      <c r="O16" s="78"/>
-      <c r="P16" s="78"/>
+      <c r="N16" s="89"/>
+      <c r="O16" s="86"/>
+      <c r="P16" s="86"/>
       <c r="Q16" s="27">
         <v>5</v>
       </c>
@@ -4394,15 +4432,15 @@
       </c>
     </row>
     <row r="17" spans="1:18" ht="62.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="84"/>
-      <c r="B17" s="73"/>
-      <c r="C17" s="81"/>
-      <c r="D17" s="81"/>
-      <c r="E17" s="78"/>
-      <c r="F17" s="55" t="s">
+      <c r="A17" s="79"/>
+      <c r="B17" s="81"/>
+      <c r="C17" s="83"/>
+      <c r="D17" s="83"/>
+      <c r="E17" s="86"/>
+      <c r="F17" s="52" t="s">
         <v>95</v>
       </c>
-      <c r="G17" s="79"/>
+      <c r="G17" s="87"/>
       <c r="H17" s="22" t="s">
         <v>98</v>
       </c>
@@ -4420,9 +4458,9 @@
         <v>102</v>
       </c>
       <c r="M17" s="28"/>
-      <c r="N17" s="96"/>
-      <c r="O17" s="79"/>
-      <c r="P17" s="79"/>
+      <c r="N17" s="90"/>
+      <c r="O17" s="87"/>
+      <c r="P17" s="87"/>
       <c r="Q17" s="27">
         <v>5</v>
       </c>
@@ -4432,25 +4470,25 @@
       </c>
     </row>
     <row r="18" spans="1:18" ht="62.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="87" t="s">
+      <c r="A18" s="91" t="s">
         <v>106</v>
       </c>
-      <c r="B18" s="71" t="s">
+      <c r="B18" s="102" t="s">
         <v>107</v>
       </c>
-      <c r="C18" s="88" t="s">
+      <c r="C18" s="92" t="s">
         <v>114</v>
       </c>
-      <c r="D18" s="57" t="s">
+      <c r="D18" s="54" t="s">
         <v>85</v>
       </c>
-      <c r="E18" s="67">
+      <c r="E18" s="64">
         <v>3</v>
       </c>
-      <c r="F18" s="59" t="s">
+      <c r="F18" s="56" t="s">
         <v>117</v>
       </c>
-      <c r="G18" s="62"/>
+      <c r="G18" s="59"/>
       <c r="H18" s="22" t="s">
         <v>98</v>
       </c>
@@ -4468,14 +4506,14 @@
         <v>102</v>
       </c>
       <c r="M18" s="28"/>
-      <c r="N18" s="91" t="s">
+      <c r="N18" s="95" t="s">
         <v>126</v>
       </c>
-      <c r="O18" s="68">
+      <c r="O18" s="85">
         <f>E18</f>
         <v>3</v>
       </c>
-      <c r="P18" s="68">
+      <c r="P18" s="85">
         <v>4</v>
       </c>
       <c r="Q18" s="22">
@@ -4487,19 +4525,19 @@
       </c>
     </row>
     <row r="19" spans="1:18" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="87"/>
-      <c r="B19" s="71"/>
-      <c r="C19" s="88"/>
-      <c r="D19" s="57" t="s">
+      <c r="A19" s="91"/>
+      <c r="B19" s="102"/>
+      <c r="C19" s="92"/>
+      <c r="D19" s="54" t="s">
         <v>115</v>
       </c>
-      <c r="E19" s="67">
+      <c r="E19" s="64">
         <v>6</v>
       </c>
-      <c r="F19" s="60" t="s">
+      <c r="F19" s="57" t="s">
         <v>89</v>
       </c>
-      <c r="G19" s="58">
+      <c r="G19" s="55">
         <v>8</v>
       </c>
       <c r="H19" s="22" t="s">
@@ -4519,9 +4557,9 @@
         <v>102</v>
       </c>
       <c r="M19" s="28"/>
-      <c r="N19" s="93"/>
-      <c r="O19" s="78"/>
-      <c r="P19" s="78"/>
+      <c r="N19" s="98"/>
+      <c r="O19" s="86"/>
+      <c r="P19" s="86"/>
       <c r="Q19" s="22">
         <v>4</v>
       </c>
@@ -4531,21 +4569,21 @@
       </c>
     </row>
     <row r="20" spans="1:18" ht="31.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="87"/>
-      <c r="B20" s="71"/>
-      <c r="C20" s="88" t="s">
+      <c r="A20" s="91"/>
+      <c r="B20" s="102"/>
+      <c r="C20" s="92" t="s">
         <v>108</v>
       </c>
-      <c r="D20" s="57" t="s">
+      <c r="D20" s="54" t="s">
         <v>111</v>
       </c>
-      <c r="E20" s="67">
+      <c r="E20" s="64">
         <v>9</v>
       </c>
-      <c r="F20" s="89" t="s">
+      <c r="F20" s="93" t="s">
         <v>118</v>
       </c>
-      <c r="G20" s="78"/>
+      <c r="G20" s="86"/>
       <c r="H20" s="22" t="s">
         <v>123</v>
       </c>
@@ -4556,16 +4594,16 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K20" s="66" t="s">
+      <c r="K20" s="63" t="s">
         <v>125</v>
       </c>
       <c r="L20" s="22" t="s">
         <v>102</v>
       </c>
       <c r="M20" s="28"/>
-      <c r="N20" s="93"/>
-      <c r="O20" s="78"/>
-      <c r="P20" s="78"/>
+      <c r="N20" s="98"/>
+      <c r="O20" s="86"/>
+      <c r="P20" s="86"/>
       <c r="Q20" s="22">
         <v>3</v>
       </c>
@@ -4575,17 +4613,17 @@
       </c>
     </row>
     <row r="21" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="87"/>
-      <c r="B21" s="71"/>
-      <c r="C21" s="88"/>
-      <c r="D21" s="56" t="s">
+      <c r="A21" s="91"/>
+      <c r="B21" s="102"/>
+      <c r="C21" s="92"/>
+      <c r="D21" s="53" t="s">
         <v>112</v>
       </c>
-      <c r="E21" s="67">
+      <c r="E21" s="64">
         <v>6</v>
       </c>
-      <c r="F21" s="90"/>
-      <c r="G21" s="79"/>
+      <c r="F21" s="94"/>
+      <c r="G21" s="87"/>
       <c r="H21" s="22"/>
       <c r="I21" s="27"/>
       <c r="J21" s="23">
@@ -4595,9 +4633,9 @@
       <c r="K21" s="29"/>
       <c r="L21" s="29"/>
       <c r="M21" s="28"/>
-      <c r="N21" s="92"/>
-      <c r="O21" s="78"/>
-      <c r="P21" s="79"/>
+      <c r="N21" s="96"/>
+      <c r="O21" s="86"/>
+      <c r="P21" s="87"/>
       <c r="Q21" s="22"/>
       <c r="R21" s="26">
         <f t="shared" si="4"/>
@@ -4605,21 +4643,21 @@
       </c>
     </row>
     <row r="22" spans="1:18" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="87"/>
-      <c r="B22" s="71"/>
-      <c r="C22" s="56" t="s">
+      <c r="A22" s="91"/>
+      <c r="B22" s="102"/>
+      <c r="C22" s="53" t="s">
         <v>109</v>
       </c>
-      <c r="D22" s="56" t="s">
+      <c r="D22" s="53" t="s">
         <v>116</v>
       </c>
-      <c r="E22" s="67">
+      <c r="E22" s="64">
         <v>8</v>
       </c>
-      <c r="F22" s="61" t="s">
+      <c r="F22" s="58" t="s">
         <v>119</v>
       </c>
-      <c r="G22" s="63">
+      <c r="G22" s="60">
         <v>8</v>
       </c>
       <c r="H22" s="22" t="s">
@@ -4639,15 +4677,15 @@
         <v>102</v>
       </c>
       <c r="M22" s="28"/>
-      <c r="N22" s="91" t="s">
+      <c r="N22" s="95" t="s">
         <v>126</v>
       </c>
-      <c r="O22" s="68">
+      <c r="O22" s="85">
         <f>E22</f>
         <v>8</v>
       </c>
-      <c r="P22" s="68">
-        <f t="shared" ref="P18:P35" si="5">G22</f>
+      <c r="P22" s="85">
+        <f t="shared" ref="P22:P33" si="5">G22</f>
         <v>8</v>
       </c>
       <c r="Q22" s="22">
@@ -4659,21 +4697,21 @@
       </c>
     </row>
     <row r="23" spans="1:18" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="87"/>
-      <c r="B23" s="71"/>
-      <c r="C23" s="56" t="s">
+      <c r="A23" s="111"/>
+      <c r="B23" s="102"/>
+      <c r="C23" s="53" t="s">
         <v>110</v>
       </c>
-      <c r="D23" s="56" t="s">
+      <c r="D23" s="53" t="s">
         <v>113</v>
       </c>
-      <c r="E23" s="67">
+      <c r="E23" s="64">
         <v>4</v>
       </c>
-      <c r="F23" s="59" t="s">
+      <c r="F23" s="56" t="s">
         <v>120</v>
       </c>
-      <c r="G23" s="64">
+      <c r="G23" s="61">
         <v>8</v>
       </c>
       <c r="H23" s="22" t="s">
@@ -4686,16 +4724,16 @@
         <f>$E$22*$G$22*I23</f>
         <v>384</v>
       </c>
-      <c r="K23" s="65" t="s">
+      <c r="K23" s="62" t="s">
         <v>125</v>
       </c>
       <c r="L23" s="22" t="s">
         <v>102</v>
       </c>
       <c r="M23" s="28"/>
-      <c r="N23" s="92"/>
-      <c r="O23" s="70"/>
-      <c r="P23" s="79"/>
+      <c r="N23" s="96"/>
+      <c r="O23" s="97"/>
+      <c r="P23" s="87"/>
       <c r="Q23" s="22">
         <v>4</v>
       </c>
@@ -4705,31 +4743,31 @@
       </c>
     </row>
     <row r="24" spans="1:18" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="84" t="s">
+      <c r="A24" s="78" t="s">
         <v>127</v>
       </c>
-      <c r="B24" s="86" t="s">
+      <c r="B24" s="99" t="s">
         <v>128</v>
       </c>
-      <c r="C24" s="81" t="s">
+      <c r="C24" s="83" t="s">
         <v>129</v>
       </c>
-      <c r="D24" s="81" t="s">
+      <c r="D24" s="83" t="s">
         <v>133</v>
       </c>
-      <c r="E24" s="78">
+      <c r="E24" s="86">
         <v>5</v>
       </c>
       <c r="F24" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="G24" s="68">
+      <c r="G24" s="85">
         <v>3</v>
       </c>
       <c r="H24" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="I24" s="54">
+      <c r="I24" s="51">
         <v>5</v>
       </c>
       <c r="J24" s="23">
@@ -4743,10 +4781,10 @@
         <v>102</v>
       </c>
       <c r="M24" s="28"/>
-      <c r="N24" s="109" t="s">
-        <v>156</v>
-      </c>
-      <c r="O24" s="68">
+      <c r="N24" s="103" t="s">
+        <v>168</v>
+      </c>
+      <c r="O24" s="85">
         <f>E29</f>
         <v>3</v>
       </c>
@@ -4763,19 +4801,19 @@
       </c>
     </row>
     <row r="25" spans="1:18" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="84"/>
-      <c r="B25" s="73"/>
-      <c r="C25" s="81"/>
-      <c r="D25" s="81"/>
-      <c r="E25" s="78"/>
-      <c r="F25" s="55" t="s">
+      <c r="A25" s="79"/>
+      <c r="B25" s="81"/>
+      <c r="C25" s="83"/>
+      <c r="D25" s="83"/>
+      <c r="E25" s="86"/>
+      <c r="F25" s="52" t="s">
         <v>135</v>
       </c>
-      <c r="G25" s="78"/>
+      <c r="G25" s="86"/>
       <c r="H25" s="22" t="s">
         <v>140</v>
       </c>
-      <c r="I25" s="54">
+      <c r="I25" s="51">
         <v>5</v>
       </c>
       <c r="J25" s="23">
@@ -4789,8 +4827,8 @@
         <v>102</v>
       </c>
       <c r="M25" s="28"/>
-      <c r="N25" s="110"/>
-      <c r="O25" s="78"/>
+      <c r="N25" s="104"/>
+      <c r="O25" s="86"/>
       <c r="P25" s="27">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -4804,19 +4842,19 @@
       </c>
     </row>
     <row r="26" spans="1:18" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="84"/>
-      <c r="B26" s="73"/>
-      <c r="C26" s="81"/>
-      <c r="D26" s="81"/>
-      <c r="E26" s="78"/>
-      <c r="F26" s="55" t="s">
+      <c r="A26" s="79"/>
+      <c r="B26" s="81"/>
+      <c r="C26" s="83"/>
+      <c r="D26" s="83"/>
+      <c r="E26" s="86"/>
+      <c r="F26" s="52" t="s">
         <v>136</v>
       </c>
-      <c r="G26" s="78"/>
+      <c r="G26" s="86"/>
       <c r="H26" s="22" t="s">
         <v>141</v>
       </c>
-      <c r="I26" s="54">
+      <c r="I26" s="51">
         <v>5</v>
       </c>
       <c r="J26" s="23">
@@ -4830,8 +4868,8 @@
         <v>102</v>
       </c>
       <c r="M26" s="28"/>
-      <c r="N26" s="110"/>
-      <c r="O26" s="78"/>
+      <c r="N26" s="104"/>
+      <c r="O26" s="86"/>
       <c r="P26" s="27">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -4845,19 +4883,19 @@
       </c>
     </row>
     <row r="27" spans="1:18" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="84"/>
-      <c r="B27" s="73"/>
-      <c r="C27" s="82"/>
-      <c r="D27" s="82"/>
-      <c r="E27" s="79"/>
+      <c r="A27" s="79"/>
+      <c r="B27" s="81"/>
+      <c r="C27" s="84"/>
+      <c r="D27" s="84"/>
+      <c r="E27" s="87"/>
       <c r="F27" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="G27" s="79"/>
+      <c r="G27" s="87"/>
       <c r="H27" s="22" t="s">
         <v>138</v>
       </c>
-      <c r="I27" s="54">
+      <c r="I27" s="51">
         <v>3</v>
       </c>
       <c r="J27" s="23">
@@ -4871,8 +4909,8 @@
         <v>102</v>
       </c>
       <c r="M27" s="28"/>
-      <c r="N27" s="111"/>
-      <c r="O27" s="79"/>
+      <c r="N27" s="105"/>
+      <c r="O27" s="87"/>
       <c r="P27" s="27">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -4886,15 +4924,15 @@
       </c>
     </row>
     <row r="28" spans="1:18" ht="75.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="84"/>
-      <c r="B28" s="73"/>
-      <c r="C28" s="51" t="s">
+      <c r="A28" s="79"/>
+      <c r="B28" s="81"/>
+      <c r="C28" s="48" t="s">
         <v>130</v>
       </c>
-      <c r="D28" s="51" t="s">
+      <c r="D28" s="48" t="s">
         <v>146</v>
       </c>
-      <c r="E28" s="52">
+      <c r="E28" s="49">
         <v>6</v>
       </c>
       <c r="F28" s="22" t="s">
@@ -4906,7 +4944,7 @@
       <c r="H28" s="22" t="s">
         <v>150</v>
       </c>
-      <c r="I28" s="54">
+      <c r="I28" s="51">
         <v>5</v>
       </c>
       <c r="J28" s="23">
@@ -4920,8 +4958,8 @@
         <v>102</v>
       </c>
       <c r="M28" s="28"/>
-      <c r="N28" s="112" t="s">
-        <v>156</v>
+      <c r="N28" s="65" t="s">
+        <v>168</v>
       </c>
       <c r="O28" s="27">
         <f>E28</f>
@@ -4940,27 +4978,27 @@
       </c>
     </row>
     <row r="29" spans="1:18" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="84"/>
-      <c r="B29" s="73"/>
-      <c r="C29" s="80" t="s">
+      <c r="A29" s="79"/>
+      <c r="B29" s="81"/>
+      <c r="C29" s="82" t="s">
         <v>131</v>
       </c>
-      <c r="D29" s="80" t="s">
+      <c r="D29" s="82" t="s">
         <v>132</v>
       </c>
-      <c r="E29" s="68">
+      <c r="E29" s="85">
         <v>3</v>
       </c>
       <c r="F29" s="22" t="s">
         <v>148</v>
       </c>
-      <c r="G29" s="68">
+      <c r="G29" s="85">
         <v>4</v>
       </c>
       <c r="H29" s="22" t="s">
         <v>151</v>
       </c>
-      <c r="I29" s="54">
+      <c r="I29" s="51">
         <v>6</v>
       </c>
       <c r="J29" s="23">
@@ -4974,10 +5012,10 @@
         <v>102</v>
       </c>
       <c r="M29" s="28"/>
-      <c r="N29" s="109" t="s">
-        <v>156</v>
-      </c>
-      <c r="O29" s="68">
+      <c r="N29" s="103" t="s">
+        <v>168</v>
+      </c>
+      <c r="O29" s="85">
         <f>E29</f>
         <v>3</v>
       </c>
@@ -4994,19 +5032,19 @@
       </c>
     </row>
     <row r="30" spans="1:18" ht="88.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="84"/>
-      <c r="B30" s="73"/>
-      <c r="C30" s="81"/>
-      <c r="D30" s="81"/>
-      <c r="E30" s="78"/>
-      <c r="F30" s="55" t="s">
+      <c r="A30" s="100"/>
+      <c r="B30" s="81"/>
+      <c r="C30" s="83"/>
+      <c r="D30" s="83"/>
+      <c r="E30" s="86"/>
+      <c r="F30" s="52" t="s">
         <v>149</v>
       </c>
-      <c r="G30" s="78"/>
+      <c r="G30" s="86"/>
       <c r="H30" s="22" t="s">
         <v>152</v>
       </c>
-      <c r="I30" s="54">
+      <c r="I30" s="51">
         <v>6</v>
       </c>
       <c r="J30" s="23">
@@ -5020,8 +5058,8 @@
         <v>102</v>
       </c>
       <c r="M30" s="28"/>
-      <c r="N30" s="110"/>
-      <c r="O30" s="69"/>
+      <c r="N30" s="104"/>
+      <c r="O30" s="101"/>
       <c r="P30" s="27">
         <v>4</v>
       </c>
@@ -5034,207 +5072,217 @@
       </c>
     </row>
     <row r="31" spans="1:18" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="83"/>
-      <c r="B31" s="72"/>
-      <c r="C31" s="80"/>
-      <c r="D31" s="80"/>
-      <c r="E31" s="68"/>
-      <c r="F31" s="22"/>
-      <c r="G31" s="68"/>
-      <c r="H31" s="22"/>
-      <c r="I31" s="54"/>
+      <c r="A31" s="78" t="s">
+        <v>156</v>
+      </c>
+      <c r="B31" s="80" t="s">
+        <v>160</v>
+      </c>
+      <c r="C31" s="63" t="s">
+        <v>157</v>
+      </c>
+      <c r="D31" s="63" t="s">
+        <v>161</v>
+      </c>
+      <c r="E31" s="110">
+        <v>8</v>
+      </c>
+      <c r="F31" s="22" t="s">
+        <v>164</v>
+      </c>
+      <c r="G31" s="110">
+        <v>8</v>
+      </c>
+      <c r="H31" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="I31" s="51">
+        <v>6</v>
+      </c>
       <c r="J31" s="23">
-        <f>$E$31*$G$31:$G$35*I31</f>
-        <v>0</v>
-      </c>
-      <c r="K31" s="24"/>
-      <c r="L31" s="22"/>
+        <f>$E$31*$G$31:$G$33*I31</f>
+        <v>384</v>
+      </c>
+      <c r="K31" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="L31" s="22" t="s">
+        <v>102</v>
+      </c>
       <c r="M31" s="28"/>
-      <c r="N31" s="75"/>
-      <c r="O31" s="68">
+      <c r="N31" s="103" t="s">
+        <v>169</v>
+      </c>
+      <c r="O31" s="85">
         <f>E31</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="P31" s="27">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Q31" s="22"/>
+        <v>8</v>
+      </c>
+      <c r="Q31" s="22">
+        <v>4</v>
+      </c>
       <c r="R31" s="26">
         <f>O$31*P31*Q31</f>
-        <v>0</v>
+        <v>256</v>
       </c>
     </row>
     <row r="32" spans="1:18" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="84"/>
-      <c r="B32" s="73"/>
-      <c r="C32" s="81"/>
-      <c r="D32" s="81"/>
-      <c r="E32" s="78"/>
-      <c r="F32" s="55"/>
-      <c r="G32" s="78"/>
-      <c r="H32" s="22"/>
-      <c r="I32" s="54"/>
+      <c r="A32" s="79"/>
+      <c r="B32" s="81"/>
+      <c r="C32" s="63" t="s">
+        <v>158</v>
+      </c>
+      <c r="D32" s="63" t="s">
+        <v>162</v>
+      </c>
+      <c r="E32" s="110">
+        <v>8</v>
+      </c>
+      <c r="F32" s="52" t="s">
+        <v>165</v>
+      </c>
+      <c r="G32" s="55">
+        <v>7</v>
+      </c>
+      <c r="H32" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="I32" s="51">
+        <v>6</v>
+      </c>
       <c r="J32" s="23">
-        <f t="shared" ref="J32:J35" si="9">$E$31*$G$31:$G$35*I32</f>
-        <v>0</v>
-      </c>
-      <c r="K32" s="24"/>
-      <c r="L32" s="22"/>
+        <f>$E$31*$G$31:$G$33*I32</f>
+        <v>336</v>
+      </c>
+      <c r="K32" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="L32" s="22" t="s">
+        <v>102</v>
+      </c>
       <c r="M32" s="28"/>
-      <c r="N32" s="76"/>
-      <c r="O32" s="69"/>
+      <c r="N32" s="104"/>
+      <c r="O32" s="101"/>
       <c r="P32" s="27">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Q32" s="22"/>
+        <v>7</v>
+      </c>
+      <c r="Q32" s="22">
+        <v>4</v>
+      </c>
       <c r="R32" s="26">
-        <f t="shared" ref="R32:R34" si="10">O$31*P32*Q32</f>
-        <v>0</v>
+        <f t="shared" ref="R32:R33" si="9">O$31*P32*Q32</f>
+        <v>224</v>
       </c>
     </row>
     <row r="33" spans="1:23" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="84"/>
-      <c r="B33" s="73"/>
-      <c r="C33" s="81"/>
-      <c r="D33" s="81"/>
-      <c r="E33" s="78"/>
-      <c r="F33" s="55"/>
-      <c r="G33" s="78"/>
-      <c r="H33" s="22"/>
-      <c r="I33" s="54"/>
+      <c r="A33" s="100"/>
+      <c r="B33" s="81"/>
+      <c r="C33" s="63" t="s">
+        <v>159</v>
+      </c>
+      <c r="D33" s="106" t="s">
+        <v>163</v>
+      </c>
+      <c r="E33" s="110">
+        <v>7</v>
+      </c>
+      <c r="F33" s="52" t="s">
+        <v>166</v>
+      </c>
+      <c r="G33" s="110">
+        <v>7</v>
+      </c>
+      <c r="H33" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="I33" s="51">
+        <v>4</v>
+      </c>
       <c r="J33" s="23">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="K33" s="24"/>
-      <c r="L33" s="22"/>
+        <f>$E$31*$G$31:$G$33*I33</f>
+        <v>224</v>
+      </c>
+      <c r="K33" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="L33" s="22" t="s">
+        <v>102</v>
+      </c>
       <c r="M33" s="28"/>
-      <c r="N33" s="76"/>
-      <c r="O33" s="69"/>
+      <c r="N33" s="105"/>
+      <c r="O33" s="101"/>
       <c r="P33" s="27">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Q33" s="22"/>
+        <v>7</v>
+      </c>
+      <c r="Q33" s="22">
+        <v>2</v>
+      </c>
       <c r="R33" s="26">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>112</v>
       </c>
     </row>
-    <row r="34" spans="1:23" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="84"/>
-      <c r="B34" s="73"/>
-      <c r="C34" s="81"/>
-      <c r="D34" s="81"/>
-      <c r="E34" s="78"/>
-      <c r="F34" s="55"/>
-      <c r="G34" s="78"/>
-      <c r="H34" s="22"/>
-      <c r="I34" s="54"/>
-      <c r="J34" s="23">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="K34" s="24"/>
-      <c r="L34" s="22"/>
-      <c r="M34" s="28"/>
-      <c r="N34" s="76"/>
-      <c r="O34" s="69"/>
-      <c r="P34" s="27">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Q34" s="22"/>
-      <c r="R34" s="26">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
+    <row r="34" spans="1:23" ht="110.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34" s="107" t="s">
+        <v>37</v>
+      </c>
+      <c r="C34" s="108" t="s">
+        <v>38</v>
+      </c>
+      <c r="D34" s="109" t="s">
+        <v>39</v>
+      </c>
+      <c r="E34" s="31"/>
+      <c r="F34" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="G34" s="33"/>
+      <c r="H34" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="I34" s="33"/>
+      <c r="J34" s="35"/>
+      <c r="K34" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="L34" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="M34" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="N34" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="O34" s="37"/>
+      <c r="P34" s="37"/>
+      <c r="Q34" s="37"/>
+      <c r="R34" s="38"/>
+      <c r="T34" s="39"/>
+      <c r="U34" s="40"/>
+      <c r="V34" s="41"/>
+      <c r="W34" s="41"/>
     </row>
-    <row r="35" spans="1:23" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="85"/>
-      <c r="B35" s="74"/>
-      <c r="C35" s="82"/>
-      <c r="D35" s="82"/>
-      <c r="E35" s="79"/>
-      <c r="F35" s="22"/>
-      <c r="G35" s="79"/>
-      <c r="H35" s="22"/>
-      <c r="I35" s="54"/>
-      <c r="J35" s="23">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="K35" s="24"/>
-      <c r="L35" s="22"/>
-      <c r="M35" s="28"/>
-      <c r="N35" s="77"/>
-      <c r="O35" s="70"/>
-      <c r="P35" s="27">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Q35" s="22"/>
-      <c r="R35" s="26">
-        <f>O$31*P35*Q35</f>
-        <v>0</v>
-      </c>
+    <row r="35" spans="1:23" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C35" s="42"/>
+      <c r="E35" s="42"/>
+      <c r="G35" s="42"/>
+      <c r="I35" s="42"/>
+      <c r="T35" s="39"/>
+      <c r="U35" s="41"/>
+      <c r="V35" s="41"/>
+      <c r="W35" s="41"/>
     </row>
-    <row r="36" spans="1:23" ht="110.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="B36" s="31" t="s">
-        <v>37</v>
-      </c>
-      <c r="C36" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="D36" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="E36" s="34"/>
-      <c r="F36" s="35" t="s">
-        <v>40</v>
-      </c>
-      <c r="G36" s="36"/>
-      <c r="H36" s="37" t="s">
-        <v>41</v>
-      </c>
-      <c r="I36" s="36"/>
-      <c r="J36" s="38"/>
-      <c r="K36" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="L36" s="37" t="s">
-        <v>43</v>
-      </c>
-      <c r="M36" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="N36" s="39" t="s">
-        <v>45</v>
-      </c>
-      <c r="O36" s="40"/>
-      <c r="P36" s="40"/>
-      <c r="Q36" s="40"/>
-      <c r="R36" s="41"/>
-      <c r="T36" s="42"/>
-      <c r="U36" s="43"/>
-      <c r="V36" s="44"/>
-      <c r="W36" s="44"/>
-    </row>
-    <row r="37" spans="1:23" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C37" s="45"/>
-      <c r="E37" s="45"/>
-      <c r="G37" s="45"/>
-      <c r="I37" s="45"/>
-      <c r="T37" s="42"/>
-      <c r="U37" s="44"/>
-      <c r="V37" s="44"/>
-      <c r="W37" s="44"/>
-    </row>
+    <row r="36" spans="1:23" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" spans="1:23" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="38" spans="1:23" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="39" spans="1:23" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="40" spans="1:23" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5635,10 +5683,53 @@
     <row r="435" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="436" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="437" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="438" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="439" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="65">
+  <mergeCells count="61">
+    <mergeCell ref="O31:O33"/>
+    <mergeCell ref="B18:B23"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="N31:N33"/>
+    <mergeCell ref="O24:O27"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="N29:N30"/>
+    <mergeCell ref="O29:O30"/>
+    <mergeCell ref="N24:N27"/>
+    <mergeCell ref="O18:O21"/>
+    <mergeCell ref="G24:G27"/>
+    <mergeCell ref="B24:B30"/>
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="A24:A30"/>
+    <mergeCell ref="C24:C27"/>
+    <mergeCell ref="D24:D27"/>
+    <mergeCell ref="E24:E27"/>
+    <mergeCell ref="P15:P17"/>
+    <mergeCell ref="P6:P9"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="A18:A23"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="P18:P21"/>
+    <mergeCell ref="N22:N23"/>
+    <mergeCell ref="O22:O23"/>
+    <mergeCell ref="P22:P23"/>
+    <mergeCell ref="N18:N21"/>
+    <mergeCell ref="O10:O12"/>
+    <mergeCell ref="P10:P12"/>
+    <mergeCell ref="P13:P14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="N6:N17"/>
+    <mergeCell ref="O6:O9"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="G15:G17"/>
+    <mergeCell ref="O15:O17"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="I1:L1"/>
     <mergeCell ref="B2:F2"/>
@@ -5655,58 +5746,9 @@
     <mergeCell ref="C13:C14"/>
     <mergeCell ref="D13:D14"/>
     <mergeCell ref="E13:E14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="N6:N17"/>
-    <mergeCell ref="O6:O9"/>
-    <mergeCell ref="D15:D17"/>
-    <mergeCell ref="E15:E17"/>
-    <mergeCell ref="G15:G17"/>
-    <mergeCell ref="O15:O17"/>
-    <mergeCell ref="P15:P17"/>
-    <mergeCell ref="P6:P9"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="A18:A23"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="P18:P21"/>
-    <mergeCell ref="N22:N23"/>
-    <mergeCell ref="O22:O23"/>
-    <mergeCell ref="P22:P23"/>
-    <mergeCell ref="N18:N21"/>
-    <mergeCell ref="O10:O12"/>
-    <mergeCell ref="P10:P12"/>
-    <mergeCell ref="P13:P14"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="A24:A30"/>
-    <mergeCell ref="C24:C27"/>
-    <mergeCell ref="D24:D27"/>
-    <mergeCell ref="E24:E27"/>
-    <mergeCell ref="G24:G27"/>
-    <mergeCell ref="B24:B30"/>
-    <mergeCell ref="A31:A35"/>
-    <mergeCell ref="C31:C35"/>
-    <mergeCell ref="D31:D35"/>
-    <mergeCell ref="E31:E35"/>
-    <mergeCell ref="G31:G35"/>
-    <mergeCell ref="O31:O35"/>
-    <mergeCell ref="B18:B23"/>
-    <mergeCell ref="B31:B35"/>
-    <mergeCell ref="N31:N35"/>
-    <mergeCell ref="O24:O27"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="N29:N30"/>
-    <mergeCell ref="O29:O30"/>
-    <mergeCell ref="N24:N27"/>
-    <mergeCell ref="O18:O21"/>
   </mergeCells>
-  <conditionalFormatting sqref="J6:J35">
-    <cfRule type="colorScale" priority="12">
+  <conditionalFormatting sqref="J6:J33">
+    <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5716,15 +5758,15 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="27" operator="greaterThan">
       <formula>80</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="28" operator="greaterThan">
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R6:R35">
-    <cfRule type="colorScale" priority="18">
+  <conditionalFormatting sqref="R6:R33">
+    <cfRule type="colorScale" priority="29">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5764,154 +5806,154 @@
   <sheetData>
     <row r="1" spans="1:4" ht="13" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:4" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="46"/>
-      <c r="B2" s="47" t="s">
+      <c r="A2" s="43"/>
+      <c r="B2" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="47" t="s">
+      <c r="C2" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="D2" s="47" t="s">
+      <c r="D2" s="44" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="31.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="48">
+      <c r="A3" s="45">
         <v>1</v>
       </c>
-      <c r="B3" s="49" t="s">
+      <c r="B3" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="C3" s="49" t="s">
+      <c r="C3" s="46" t="s">
         <v>50</v>
       </c>
-      <c r="D3" s="49" t="s">
+      <c r="D3" s="46" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="31.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="48">
+      <c r="A4" s="45">
         <v>2</v>
       </c>
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="C4" s="49" t="s">
+      <c r="C4" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="D4" s="49" t="s">
+      <c r="D4" s="46" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="31.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="48">
+      <c r="A5" s="45">
         <v>3</v>
       </c>
-      <c r="B5" s="49" t="s">
+      <c r="B5" s="46" t="s">
         <v>55</v>
       </c>
-      <c r="C5" s="49" t="s">
+      <c r="C5" s="46" t="s">
         <v>56</v>
       </c>
-      <c r="D5" s="49" t="s">
+      <c r="D5" s="46" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="48">
+      <c r="A6" s="45">
         <v>4</v>
       </c>
-      <c r="B6" s="49" t="s">
+      <c r="B6" s="46" t="s">
         <v>58</v>
       </c>
-      <c r="C6" s="49" t="s">
+      <c r="C6" s="46" t="s">
         <v>59</v>
       </c>
-      <c r="D6" s="49" t="s">
+      <c r="D6" s="46" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="47" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="48">
+      <c r="A7" s="45">
         <v>5</v>
       </c>
-      <c r="B7" s="49" t="s">
+      <c r="B7" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="C7" s="49" t="s">
+      <c r="C7" s="46" t="s">
         <v>62</v>
       </c>
-      <c r="D7" s="49" t="s">
+      <c r="D7" s="46" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="31.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="48">
+      <c r="A8" s="45">
         <v>6</v>
       </c>
-      <c r="B8" s="49" t="s">
+      <c r="B8" s="46" t="s">
         <v>64</v>
       </c>
-      <c r="C8" s="49" t="s">
+      <c r="C8" s="46" t="s">
         <v>65</v>
       </c>
-      <c r="D8" s="49" t="s">
+      <c r="D8" s="46" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="47" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="48">
+      <c r="A9" s="45">
         <v>7</v>
       </c>
-      <c r="B9" s="49" t="s">
+      <c r="B9" s="46" t="s">
         <v>67</v>
       </c>
-      <c r="C9" s="49" t="s">
+      <c r="C9" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="D9" s="49" t="s">
+      <c r="D9" s="46" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="62.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="48">
+      <c r="A10" s="45">
         <v>8</v>
       </c>
-      <c r="B10" s="49" t="s">
+      <c r="B10" s="46" t="s">
         <v>70</v>
       </c>
-      <c r="C10" s="49" t="s">
+      <c r="C10" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="D10" s="49" t="s">
+      <c r="D10" s="46" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="31.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="48">
+      <c r="A11" s="45">
         <v>9</v>
       </c>
-      <c r="B11" s="49" t="s">
+      <c r="B11" s="46" t="s">
         <v>73</v>
       </c>
-      <c r="C11" s="49" t="s">
+      <c r="C11" s="46" t="s">
         <v>74</v>
       </c>
-      <c r="D11" s="49" t="s">
+      <c r="D11" s="46" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="31.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="48">
+      <c r="A12" s="45">
         <v>10</v>
       </c>
-      <c r="B12" s="49" t="s">
+      <c r="B12" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="C12" s="49" t="s">
+      <c r="C12" s="46" t="s">
         <v>77</v>
       </c>
-      <c r="D12" s="49" t="s">
+      <c r="D12" s="46" t="s">
         <v>78</v>
       </c>
     </row>
@@ -5922,21 +5964,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008627D652ECF16F40ADBE374E3D3D87F6" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a82faf83e130f03aec18d17d2520a96e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="fb007535-a6a4-4ea0-86da-29f43c46b391" xmlns:ns3="b4c971ed-d55e-45d5-823f-e5f0a4d5378a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="87a257aab2ea2865cd171ccfb5db57b0" ns2:_="" ns3:_="">
     <xsd:import namespace="fb007535-a6a4-4ea0-86da-29f43c46b391"/>
@@ -6101,32 +6128,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{321A4371-70D3-4670-B9DE-51C73593625E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="b4c971ed-d55e-45d5-823f-e5f0a4d5378a"/>
-    <ds:schemaRef ds:uri="fb007535-a6a4-4ea0-86da-29f43c46b391"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{83D99D69-C41B-42E2-B319-512FDE30DA9C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FE32DFB4-4620-4CB8-8357-3506FC850A95}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6143,4 +6160,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{83D99D69-C41B-42E2-B319-512FDE30DA9C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{321A4371-70D3-4670-B9DE-51C73593625E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="b4c971ed-d55e-45d5-823f-e5f0a4d5378a"/>
+    <ds:schemaRef ds:uri="fb007535-a6a4-4ea0-86da-29f43c46b391"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Entregable 18.10/Semestre_i_DFMEA_Template (1).xlsx
+++ b/Entregable 18.10/Semestre_i_DFMEA_Template (1).xlsx
@@ -1,25 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rulo\Desktop\School Crap\Industrial Programing\Semestre i\Madre Github\trunk\Entregable 18.10\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mausa\Documents\Proyecto Sparc\trunk\Entregable 18.10\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5AACE96-BA4C-483C-82A6-83B0B81351AE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FMEA" sheetId="1" r:id="rId1"/>
     <sheet name="SOD Table" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">FMEA!$A$1:$R$34</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">FMEA!$A$1:$R$37</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">FMEA!$1:$5</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="185">
   <si>
     <t>Process or Product Name:</t>
   </si>
@@ -475,20 +476,9 @@
     <t>Remplazo del componente en prueba</t>
   </si>
   <si>
-    <t>Core XY System moves smothly and quickly where it wants to go</t>
-  </si>
-  <si>
     <t>Estructura física</t>
   </si>
   <si>
-    <t xml:space="preserve">Área de trabajo del actuador que simula el dedo (palpador) es de 30cm en los ejes X,Y y Z. Movimiento en eje Z, será de manera manual, moviendo la placa donde descansará el dispositivo a probar. Contar con un peso que permita portabilidad (Menor a 15 kg) Botón de Reset.
-Switch de ON/OFF.
-Botón de paro de Emergencia.
-Alimentación a 120V 60Hz.
-Precisión de ±1 mm por parte de palpador en movimientos X y Y.
-Velocidad entre 25 y 50 mm/s. </t>
-  </si>
-  <si>
     <t>Peso sobre pasa los 15kg</t>
   </si>
   <si>
@@ -582,9 +572,6 @@
     <t>Solenoide no se retracta</t>
   </si>
   <si>
-    <t>Mecanismo de solenoide sube y baja como piston al ser comandado.</t>
-  </si>
-  <si>
     <t>La pantalla no responde a las entradas del sistema</t>
   </si>
   <si>
@@ -606,16 +593,81 @@
     <t>Mandar la pluma del solenoide a tierra</t>
   </si>
   <si>
-    <t>System is light and lean enough to pass specifications but heavy and robust enough to handle speeds</t>
-  </si>
-  <si>
-    <t>System can now touch and stop touching the screen providing input</t>
+    <t xml:space="preserve">Área de trabajo del actuador que simula el dedo (palpador) es de 30cm en los ejes X,Y y Z. 
+Movimiento en eje Z, será de manera manual, moviendo la placa donde descansará el dispositivo a probar. Contar con un peso que permita portabilidad (Menor a 15 kg) 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Capaz de trabajar con pantallas capacitivas.
+Palpador unidireccional.
+Clicks similares a los de una persona.
+</t>
+  </si>
+  <si>
+    <t>Electrónica del robot</t>
+  </si>
+  <si>
+    <t>No permite interrupciones</t>
+  </si>
+  <si>
+    <t>No enciende el robot</t>
+  </si>
+  <si>
+    <t>No da mensajes a través del LED</t>
+  </si>
+  <si>
+    <t>Botón de Reset.
+Switch ON/OFF.
+Cable USB-TTL
+Botón Paro de emergencia.
+Leds
+Alimentación 120v 60Hz.</t>
+  </si>
+  <si>
+    <t>La fuente no funciona correctamente</t>
+  </si>
+  <si>
+    <t>La fuente tiene probelmas con los voltajes y/o corrientes que recibe y transmite</t>
+  </si>
+  <si>
+    <t>El microcontrolador no recibe señales externas</t>
+  </si>
+  <si>
+    <t>El microcontrolador no da señales GPIO</t>
+  </si>
+  <si>
+    <t>La circuiteria externa al microcontrolado al que está conectado los botones, no es correcta.</t>
+  </si>
+  <si>
+    <t>Mal estado en puertos del microcontrolador</t>
+  </si>
+  <si>
+    <t>Medir con multimetro las salidas de la fuente.</t>
+  </si>
+  <si>
+    <t>Probar estados electrónicos de botones</t>
+  </si>
+  <si>
+    <t>Con punta lógica probar el estado de los pines GPIO</t>
+  </si>
+  <si>
+    <t>Physical Properties Test</t>
+  </si>
+  <si>
+    <t>Mechanism Moves to Desired Point</t>
+  </si>
+  <si>
+    <t>Electronic Circuit works as intended with a protoboard</t>
+  </si>
+  <si>
+    <t>Solenoid is set off as commanded</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -1113,7 +1165,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1342,6 +1394,141 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="6" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="6" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1388,142 +1575,35 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="6" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="6" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="2"/>
+    <cellStyle name="Normal 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1563,13 +1643,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>44824</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>100854</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>896471</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>134471</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1577,7 +1657,7 @@
         <xdr:cNvPr id="2" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B23317E6-8623-41F0-8B0D-8D4182394236}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B23317E6-8623-41F0-8B0D-8D4182394236}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1670,13 +1750,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>605117</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>610721</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>100854</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1684,7 +1764,7 @@
         <xdr:cNvPr id="3" name="Straight Arrow Connector 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E63FA1D0-9A8D-4AE7-AA03-2C872B4E63FE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E63FA1D0-9A8D-4AE7-AA03-2C872B4E63FE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1719,13 +1799,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1519516</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>219636</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>219634</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>6724</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1733,7 +1813,7 @@
         <xdr:cNvPr id="4" name="TextBox 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A218B3AF-48DA-48E5-9731-2C4A17B13FE4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A218B3AF-48DA-48E5-9731-2C4A17B13FE4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1826,13 +1906,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1121707</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1131792</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>219636</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1840,7 +1920,7 @@
         <xdr:cNvPr id="5" name="Straight Arrow Connector 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D06A2989-DB73-4D40-81D8-2706C13BEA5B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D06A2989-DB73-4D40-81D8-2706C13BEA5B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1877,13 +1957,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1683121</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>103095</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>2030504</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>168088</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1891,7 +1971,7 @@
         <xdr:cNvPr id="6" name="TextBox 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B1952D4-D5C3-44C8-B55C-7329C3042AA6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B1952D4-D5C3-44C8-B55C-7329C3042AA6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1974,13 +2054,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>781048</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>784411</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>103095</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1988,7 +2068,7 @@
         <xdr:cNvPr id="7" name="Straight Arrow Connector 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA69449B-4546-4D4C-B035-C63AC3E43DFF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA69449B-4546-4D4C-B035-C63AC3E43DFF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2025,13 +2105,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>76198</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>121025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>2575110</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>179294</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2039,7 +2119,7 @@
         <xdr:cNvPr id="8" name="TextBox 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9807E8F4-898B-4ACB-BEC9-A3A3CE12A11A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9807E8F4-898B-4ACB-BEC9-A3A3CE12A11A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2122,13 +2202,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>1325654</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>11206</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>1325654</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>121025</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2136,7 +2216,7 @@
         <xdr:cNvPr id="9" name="Straight Arrow Connector 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A81C25D7-CE9C-4064-A6FA-1A0F35148A44}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A81C25D7-CE9C-4064-A6FA-1A0F35148A44}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2173,13 +2253,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>71716</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>161364</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>116539</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>89646</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2187,7 +2267,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD792D50-326C-4B7B-BC13-74A3B2411AC0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD792D50-326C-4B7B-BC13-74A3B2411AC0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2270,13 +2350,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>1321172</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>22412</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>1322295</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>161364</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2284,7 +2364,7 @@
         <xdr:cNvPr id="11" name="Straight Arrow Connector 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DE6999E-2B84-4E83-8AF6-CF17F4F1AE95}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DE6999E-2B84-4E83-8AF6-CF17F4F1AE95}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2321,13 +2401,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>246527</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>168087</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>22412</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>96369</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2335,7 +2415,7 @@
         <xdr:cNvPr id="12" name="TextBox 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC65B1C1-FF46-41B2-B49B-47BA29375766}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC65B1C1-FF46-41B2-B49B-47BA29375766}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2418,13 +2498,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>1154205</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>11206</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>1154206</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>168087</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2432,7 +2512,7 @@
         <xdr:cNvPr id="13" name="Straight Arrow Connector 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{895F1EB6-18C0-4E56-8307-A2ABB2EEE9F2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{895F1EB6-18C0-4E56-8307-A2ABB2EEE9F2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2469,13 +2549,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>2046192</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>40340</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>118783</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>215151</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2483,7 +2563,7 @@
         <xdr:cNvPr id="14" name="TextBox 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{130776FA-1B6D-48C1-92E2-7300C66F5515}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{130776FA-1B6D-48C1-92E2-7300C66F5515}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2566,13 +2646,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>907676</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>11206</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>914399</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>40340</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2580,7 +2660,7 @@
         <xdr:cNvPr id="15" name="Straight Arrow Connector 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29E24126-67C1-4809-9342-BF4654D11587}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29E24126-67C1-4809-9342-BF4654D11587}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2617,13 +2697,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>1425388</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>181534</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>33619</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>109816</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2631,7 +2711,7 @@
         <xdr:cNvPr id="16" name="TextBox 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{814BF6D2-2D92-4757-A2E1-53B67E3D2A2A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{814BF6D2-2D92-4757-A2E1-53B67E3D2A2A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2720,13 +2800,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>847165</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>33618</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>847165</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>181534</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2734,7 +2814,7 @@
         <xdr:cNvPr id="17" name="Straight Arrow Connector 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A97B86A-BBC3-4E71-AE61-6B58F40E52CD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A97B86A-BBC3-4E71-AE61-6B58F40E52CD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2771,13 +2851,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1013009</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>172573</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>1035421</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>230841</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2785,7 +2865,7 @@
         <xdr:cNvPr id="18" name="TextBox 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7571F63-536C-4E5A-B3AE-107982A09057}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7571F63-536C-4E5A-B3AE-107982A09057}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2874,13 +2954,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>156882</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>22412</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>166965</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>172573</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2888,7 +2968,7 @@
         <xdr:cNvPr id="19" name="Straight Arrow Connector 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E121374-3D38-4DD3-B80B-8541354BAC32}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E121374-3D38-4DD3-B80B-8541354BAC32}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2925,13 +3005,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>2106703</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>33619</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>1019733</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>134470</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2939,7 +3019,7 @@
         <xdr:cNvPr id="20" name="TextBox 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACEE8AC5-BD67-43DD-A54B-0E22E06FF988}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACEE8AC5-BD67-43DD-A54B-0E22E06FF988}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3028,13 +3108,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>145677</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>22412</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>151277</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>33619</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3042,7 +3122,7 @@
         <xdr:cNvPr id="21" name="Straight Arrow Connector 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF3FE31C-2044-41A1-9CBF-F9799A6B59B6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF3FE31C-2044-41A1-9CBF-F9799A6B59B6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3079,13 +3159,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>1396251</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>29136</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>802339</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>129987</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3093,7 +3173,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE725C70-7C8B-48CF-AD74-39829B1635E5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE725C70-7C8B-48CF-AD74-39829B1635E5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3173,13 +3253,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>191618</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>22412</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>201706</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>29136</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3187,7 +3267,7 @@
         <xdr:cNvPr id="23" name="Straight Arrow Connector 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2BD56E8A-D17A-4A1D-BC90-EC22B99F70A5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2BD56E8A-D17A-4A1D-BC90-EC22B99F70A5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3224,13 +3304,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>28014</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>84045</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>140073</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>229721</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3238,7 +3318,7 @@
         <xdr:cNvPr id="24" name="Left Brace 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1D5DA83-2044-475D-8918-F2D8D7DFFA66}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1D5DA83-2044-475D-8918-F2D8D7DFFA66}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3281,13 +3361,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>986118</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>125504</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>573741</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>53786</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3295,7 +3375,7 @@
         <xdr:cNvPr id="25" name="TextBox 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{613FE002-EC1B-48D1-AF14-5A5EAED7513B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{613FE002-EC1B-48D1-AF14-5A5EAED7513B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3416,13 +3496,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>264459</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>229721</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>264459</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>125504</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3430,7 +3510,7 @@
         <xdr:cNvPr id="26" name="Straight Arrow Connector 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{629B6D83-BDE4-42F7-93D7-559AD3CC9BF2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{629B6D83-BDE4-42F7-93D7-559AD3CC9BF2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3763,57 +3843,57 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:W437"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="I29" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S33" sqref="S33"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G18" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+      <selection activeCell="N18" sqref="N18:N21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="24.7265625" customWidth="1"/>
-    <col min="3" max="3" width="32.26953125" customWidth="1"/>
-    <col min="4" max="4" width="31.453125" customWidth="1"/>
-    <col min="5" max="5" width="5.7265625" customWidth="1"/>
-    <col min="6" max="6" width="48.1796875" customWidth="1"/>
-    <col min="7" max="7" width="5.7265625" customWidth="1"/>
-    <col min="8" max="8" width="36.81640625" customWidth="1"/>
-    <col min="9" max="9" width="5.7265625" customWidth="1"/>
-    <col min="10" max="10" width="5.1796875" customWidth="1"/>
-    <col min="11" max="11" width="34.453125" customWidth="1"/>
-    <col min="12" max="12" width="29.453125" customWidth="1"/>
-    <col min="13" max="13" width="24.7265625" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="85.453125" customWidth="1"/>
-    <col min="15" max="15" width="3.54296875" customWidth="1"/>
-    <col min="16" max="16" width="5.7265625" customWidth="1"/>
-    <col min="17" max="18" width="3.54296875" customWidth="1"/>
-    <col min="20" max="20" width="3.81640625" customWidth="1"/>
-    <col min="21" max="21" width="51.26953125" customWidth="1"/>
-    <col min="22" max="22" width="32.54296875" customWidth="1"/>
-    <col min="23" max="23" width="70.453125" customWidth="1"/>
+    <col min="1" max="2" width="24.7109375" customWidth="1"/>
+    <col min="3" max="3" width="32.28515625" customWidth="1"/>
+    <col min="4" max="4" width="31.42578125" customWidth="1"/>
+    <col min="5" max="5" width="5.7109375" customWidth="1"/>
+    <col min="6" max="6" width="48.140625" customWidth="1"/>
+    <col min="7" max="7" width="5.7109375" customWidth="1"/>
+    <col min="8" max="8" width="36.85546875" customWidth="1"/>
+    <col min="9" max="9" width="5.7109375" customWidth="1"/>
+    <col min="10" max="10" width="5.140625" customWidth="1"/>
+    <col min="11" max="11" width="34.42578125" customWidth="1"/>
+    <col min="12" max="12" width="29.42578125" customWidth="1"/>
+    <col min="13" max="13" width="24.7109375" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="85.42578125" customWidth="1"/>
+    <col min="15" max="15" width="3.5703125" customWidth="1"/>
+    <col min="16" max="16" width="5.7109375" customWidth="1"/>
+    <col min="17" max="18" width="3.5703125" customWidth="1"/>
+    <col min="20" max="20" width="3.85546875" customWidth="1"/>
+    <col min="21" max="21" width="51.28515625" customWidth="1"/>
+    <col min="22" max="22" width="32.5703125" customWidth="1"/>
+    <col min="23" max="23" width="70.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="68"/>
+      <c r="B1" s="102"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="104"/>
       <c r="G1" s="2"/>
       <c r="H1" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="69"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="71"/>
+      <c r="I1" s="105"/>
+      <c r="J1" s="106"/>
+      <c r="K1" s="106"/>
+      <c r="L1" s="107"/>
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
       <c r="O1" s="2"/>
@@ -3821,23 +3901,23 @@
       <c r="Q1" s="2"/>
       <c r="R1" s="2"/>
     </row>
-    <row r="2" spans="1:18" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="72"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="74"/>
+      <c r="B2" s="108"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="109"/>
+      <c r="F2" s="110"/>
       <c r="G2" s="2"/>
-      <c r="H2" s="75" t="s">
+      <c r="H2" s="111" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="76"/>
-      <c r="J2" s="76"/>
-      <c r="K2" s="76"/>
-      <c r="L2" s="77"/>
+      <c r="I2" s="112"/>
+      <c r="J2" s="112"/>
+      <c r="K2" s="112"/>
+      <c r="L2" s="113"/>
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
       <c r="O2" s="2"/>
@@ -3845,7 +3925,7 @@
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
     </row>
-    <row r="3" spans="1:18" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -3865,7 +3945,7 @@
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
     </row>
-    <row r="4" spans="1:18" ht="63" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" ht="63" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>4</v>
       </c>
@@ -3921,7 +4001,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:18" s="21" customFormat="1" ht="107.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" s="21" customFormat="1" ht="107.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>22</v>
       </c>
@@ -3969,26 +4049,26 @@
       <c r="Q5" s="19"/>
       <c r="R5" s="20"/>
     </row>
-    <row r="6" spans="1:18" ht="31.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="78" t="s">
+    <row r="6" spans="1:18" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="86" t="s">
         <v>79</v>
       </c>
-      <c r="B6" s="80" t="s">
+      <c r="B6" s="76" t="s">
         <v>105</v>
       </c>
-      <c r="C6" s="82" t="s">
+      <c r="C6" s="83" t="s">
         <v>81</v>
       </c>
-      <c r="D6" s="82" t="s">
+      <c r="D6" s="83" t="s">
         <v>85</v>
       </c>
-      <c r="E6" s="85">
+      <c r="E6" s="73">
         <v>8</v>
       </c>
       <c r="F6" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="G6" s="85">
+      <c r="G6" s="73">
         <v>10</v>
       </c>
       <c r="H6" s="22" t="s">
@@ -4008,13 +4088,13 @@
         <v>102</v>
       </c>
       <c r="M6" s="25"/>
-      <c r="N6" s="88" t="s">
+      <c r="N6" s="99" t="s">
         <v>103</v>
       </c>
-      <c r="O6" s="85">
+      <c r="O6" s="73">
         <v>8</v>
       </c>
-      <c r="P6" s="85">
+      <c r="P6" s="73">
         <v>6</v>
       </c>
       <c r="Q6" s="22">
@@ -4025,14 +4105,14 @@
         <v>192</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="79"/>
-      <c r="B7" s="81"/>
-      <c r="C7" s="83"/>
-      <c r="D7" s="83"/>
-      <c r="E7" s="86"/>
+    <row r="7" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="87"/>
+      <c r="B7" s="77"/>
+      <c r="C7" s="84"/>
+      <c r="D7" s="84"/>
+      <c r="E7" s="81"/>
       <c r="F7" s="52"/>
-      <c r="G7" s="86"/>
+      <c r="G7" s="81"/>
       <c r="H7" s="22"/>
       <c r="I7" s="27"/>
       <c r="J7" s="23">
@@ -4042,9 +4122,9 @@
       <c r="K7" s="24"/>
       <c r="L7" s="22"/>
       <c r="M7" s="25"/>
-      <c r="N7" s="89"/>
-      <c r="O7" s="86"/>
-      <c r="P7" s="86"/>
+      <c r="N7" s="100"/>
+      <c r="O7" s="81"/>
+      <c r="P7" s="81"/>
       <c r="Q7" s="22">
         <v>5</v>
       </c>
@@ -4053,16 +4133,16 @@
         <v>240</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="62.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="79"/>
-      <c r="B8" s="81"/>
-      <c r="C8" s="83"/>
-      <c r="D8" s="83"/>
-      <c r="E8" s="86"/>
+    <row r="8" spans="1:18" ht="60.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="87"/>
+      <c r="B8" s="77"/>
+      <c r="C8" s="84"/>
+      <c r="D8" s="84"/>
+      <c r="E8" s="81"/>
       <c r="F8" s="52" t="s">
         <v>89</v>
       </c>
-      <c r="G8" s="86"/>
+      <c r="G8" s="81"/>
       <c r="H8" s="22" t="s">
         <v>97</v>
       </c>
@@ -4080,9 +4160,9 @@
         <v>102</v>
       </c>
       <c r="M8" s="25"/>
-      <c r="N8" s="89"/>
-      <c r="O8" s="86"/>
-      <c r="P8" s="86"/>
+      <c r="N8" s="100"/>
+      <c r="O8" s="81"/>
+      <c r="P8" s="81"/>
       <c r="Q8" s="22">
         <v>3</v>
       </c>
@@ -4091,16 +4171,16 @@
         <v>144</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="62.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="79"/>
-      <c r="B9" s="81"/>
-      <c r="C9" s="84"/>
-      <c r="D9" s="84"/>
-      <c r="E9" s="87"/>
+    <row r="9" spans="1:18" ht="60.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="87"/>
+      <c r="B9" s="77"/>
+      <c r="C9" s="89"/>
+      <c r="D9" s="89"/>
+      <c r="E9" s="82"/>
       <c r="F9" s="52" t="s">
         <v>104</v>
       </c>
-      <c r="G9" s="87"/>
+      <c r="G9" s="82"/>
       <c r="H9" s="22" t="s">
         <v>97</v>
       </c>
@@ -4118,9 +4198,9 @@
         <v>102</v>
       </c>
       <c r="M9" s="25"/>
-      <c r="N9" s="89"/>
-      <c r="O9" s="87"/>
-      <c r="P9" s="87"/>
+      <c r="N9" s="100"/>
+      <c r="O9" s="82"/>
+      <c r="P9" s="82"/>
       <c r="Q9" s="22">
         <v>4</v>
       </c>
@@ -4129,22 +4209,22 @@
         <v>192</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="31.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="79"/>
-      <c r="B10" s="81"/>
-      <c r="C10" s="82" t="s">
+    <row r="10" spans="1:18" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="87"/>
+      <c r="B10" s="77"/>
+      <c r="C10" s="83" t="s">
         <v>80</v>
       </c>
-      <c r="D10" s="82" t="s">
+      <c r="D10" s="83" t="s">
         <v>84</v>
       </c>
-      <c r="E10" s="85">
+      <c r="E10" s="73">
         <v>8</v>
       </c>
       <c r="F10" s="52" t="s">
         <v>88</v>
       </c>
-      <c r="G10" s="85">
+      <c r="G10" s="73">
         <v>10</v>
       </c>
       <c r="H10" s="22" t="s">
@@ -4164,11 +4244,11 @@
         <v>102</v>
       </c>
       <c r="M10" s="28"/>
-      <c r="N10" s="89"/>
-      <c r="O10" s="85">
+      <c r="N10" s="100"/>
+      <c r="O10" s="73">
         <v>8</v>
       </c>
-      <c r="P10" s="85">
+      <c r="P10" s="73">
         <v>6</v>
       </c>
       <c r="Q10" s="22">
@@ -4179,16 +4259,16 @@
         <v>192</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="31.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="79"/>
-      <c r="B11" s="81"/>
-      <c r="C11" s="83"/>
-      <c r="D11" s="83"/>
-      <c r="E11" s="86"/>
+    <row r="11" spans="1:18" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="87"/>
+      <c r="B11" s="77"/>
+      <c r="C11" s="84"/>
+      <c r="D11" s="84"/>
+      <c r="E11" s="81"/>
       <c r="F11" s="52" t="s">
         <v>90</v>
       </c>
-      <c r="G11" s="86"/>
+      <c r="G11" s="81"/>
       <c r="H11" s="22" t="s">
         <v>96</v>
       </c>
@@ -4206,9 +4286,9 @@
         <v>102</v>
       </c>
       <c r="M11" s="28"/>
-      <c r="N11" s="89"/>
-      <c r="O11" s="86"/>
-      <c r="P11" s="86"/>
+      <c r="N11" s="100"/>
+      <c r="O11" s="81"/>
+      <c r="P11" s="81"/>
       <c r="Q11" s="22">
         <v>4</v>
       </c>
@@ -4217,16 +4297,16 @@
         <v>192</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="62.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="79"/>
-      <c r="B12" s="81"/>
-      <c r="C12" s="84"/>
-      <c r="D12" s="84"/>
-      <c r="E12" s="87"/>
+    <row r="12" spans="1:18" ht="60.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="87"/>
+      <c r="B12" s="77"/>
+      <c r="C12" s="89"/>
+      <c r="D12" s="89"/>
+      <c r="E12" s="82"/>
       <c r="F12" s="52" t="s">
         <v>91</v>
       </c>
-      <c r="G12" s="87"/>
+      <c r="G12" s="82"/>
       <c r="H12" s="22" t="s">
         <v>97</v>
       </c>
@@ -4244,9 +4324,9 @@
         <v>102</v>
       </c>
       <c r="M12" s="28"/>
-      <c r="N12" s="89"/>
-      <c r="O12" s="87"/>
-      <c r="P12" s="87"/>
+      <c r="N12" s="100"/>
+      <c r="O12" s="82"/>
+      <c r="P12" s="82"/>
       <c r="Q12" s="22">
         <v>3</v>
       </c>
@@ -4255,22 +4335,22 @@
         <v>144</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="31.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="79"/>
-      <c r="B13" s="81"/>
-      <c r="C13" s="82" t="s">
+    <row r="13" spans="1:18" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="87"/>
+      <c r="B13" s="77"/>
+      <c r="C13" s="83" t="s">
         <v>82</v>
       </c>
-      <c r="D13" s="82" t="s">
+      <c r="D13" s="83" t="s">
         <v>86</v>
       </c>
-      <c r="E13" s="85">
+      <c r="E13" s="73">
         <v>5</v>
       </c>
       <c r="F13" s="52" t="s">
         <v>88</v>
       </c>
-      <c r="G13" s="85">
+      <c r="G13" s="73">
         <v>8</v>
       </c>
       <c r="H13" s="22" t="s">
@@ -4290,11 +4370,11 @@
         <v>102</v>
       </c>
       <c r="M13" s="28"/>
-      <c r="N13" s="89"/>
-      <c r="O13" s="85">
+      <c r="N13" s="100"/>
+      <c r="O13" s="73">
         <v>5</v>
       </c>
-      <c r="P13" s="85">
+      <c r="P13" s="73">
         <v>5</v>
       </c>
       <c r="Q13" s="27">
@@ -4305,16 +4385,16 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="62.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="79"/>
-      <c r="B14" s="81"/>
-      <c r="C14" s="84"/>
-      <c r="D14" s="84"/>
-      <c r="E14" s="87"/>
+    <row r="14" spans="1:18" ht="60.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="87"/>
+      <c r="B14" s="77"/>
+      <c r="C14" s="89"/>
+      <c r="D14" s="89"/>
+      <c r="E14" s="82"/>
       <c r="F14" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="G14" s="87"/>
+      <c r="G14" s="82"/>
       <c r="H14" s="22" t="s">
         <v>98</v>
       </c>
@@ -4332,9 +4412,9 @@
         <v>102</v>
       </c>
       <c r="M14" s="28"/>
-      <c r="N14" s="89"/>
-      <c r="O14" s="87"/>
-      <c r="P14" s="87"/>
+      <c r="N14" s="100"/>
+      <c r="O14" s="82"/>
+      <c r="P14" s="82"/>
       <c r="Q14" s="27">
         <v>4</v>
       </c>
@@ -4343,22 +4423,22 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="31.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="79"/>
-      <c r="B15" s="81"/>
-      <c r="C15" s="82" t="s">
+    <row r="15" spans="1:18" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="87"/>
+      <c r="B15" s="77"/>
+      <c r="C15" s="83" t="s">
         <v>83</v>
       </c>
-      <c r="D15" s="82" t="s">
+      <c r="D15" s="83" t="s">
         <v>87</v>
       </c>
-      <c r="E15" s="85">
+      <c r="E15" s="73">
         <v>8</v>
       </c>
       <c r="F15" s="52" t="s">
         <v>93</v>
       </c>
-      <c r="G15" s="85">
+      <c r="G15" s="73">
         <v>8</v>
       </c>
       <c r="H15" s="22" t="s">
@@ -4378,11 +4458,11 @@
         <v>102</v>
       </c>
       <c r="M15" s="28"/>
-      <c r="N15" s="89"/>
-      <c r="O15" s="85">
+      <c r="N15" s="100"/>
+      <c r="O15" s="73">
         <v>8</v>
       </c>
-      <c r="P15" s="85">
+      <c r="P15" s="73">
         <v>7</v>
       </c>
       <c r="Q15" s="27">
@@ -4393,16 +4473,16 @@
         <v>224</v>
       </c>
     </row>
-    <row r="16" spans="1:18" ht="62.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="79"/>
-      <c r="B16" s="81"/>
-      <c r="C16" s="83"/>
-      <c r="D16" s="83"/>
-      <c r="E16" s="86"/>
+    <row r="16" spans="1:18" ht="60.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="87"/>
+      <c r="B16" s="77"/>
+      <c r="C16" s="84"/>
+      <c r="D16" s="84"/>
+      <c r="E16" s="81"/>
       <c r="F16" s="52" t="s">
         <v>94</v>
       </c>
-      <c r="G16" s="86"/>
+      <c r="G16" s="81"/>
       <c r="H16" s="22" t="s">
         <v>98</v>
       </c>
@@ -4420,9 +4500,9 @@
         <v>102</v>
       </c>
       <c r="M16" s="28"/>
-      <c r="N16" s="89"/>
-      <c r="O16" s="86"/>
-      <c r="P16" s="86"/>
+      <c r="N16" s="100"/>
+      <c r="O16" s="81"/>
+      <c r="P16" s="81"/>
       <c r="Q16" s="27">
         <v>5</v>
       </c>
@@ -4431,16 +4511,16 @@
         <v>280</v>
       </c>
     </row>
-    <row r="17" spans="1:18" ht="62.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="79"/>
-      <c r="B17" s="81"/>
-      <c r="C17" s="83"/>
-      <c r="D17" s="83"/>
-      <c r="E17" s="86"/>
+    <row r="17" spans="1:18" ht="60.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="87"/>
+      <c r="B17" s="77"/>
+      <c r="C17" s="84"/>
+      <c r="D17" s="84"/>
+      <c r="E17" s="81"/>
       <c r="F17" s="52" t="s">
         <v>95</v>
       </c>
-      <c r="G17" s="87"/>
+      <c r="G17" s="82"/>
       <c r="H17" s="22" t="s">
         <v>98</v>
       </c>
@@ -4458,9 +4538,9 @@
         <v>102</v>
       </c>
       <c r="M17" s="28"/>
-      <c r="N17" s="90"/>
-      <c r="O17" s="87"/>
-      <c r="P17" s="87"/>
+      <c r="N17" s="101"/>
+      <c r="O17" s="82"/>
+      <c r="P17" s="82"/>
       <c r="Q17" s="27">
         <v>5</v>
       </c>
@@ -4469,11 +4549,11 @@
         <v>280</v>
       </c>
     </row>
-    <row r="18" spans="1:18" ht="62.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="91" t="s">
+    <row r="18" spans="1:18" ht="60.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="90" t="s">
         <v>106</v>
       </c>
-      <c r="B18" s="102" t="s">
+      <c r="B18" s="75" t="s">
         <v>107</v>
       </c>
       <c r="C18" s="92" t="s">
@@ -4507,13 +4587,13 @@
       </c>
       <c r="M18" s="28"/>
       <c r="N18" s="95" t="s">
-        <v>126</v>
-      </c>
-      <c r="O18" s="85">
+        <v>182</v>
+      </c>
+      <c r="O18" s="73">
         <f>E18</f>
         <v>3</v>
       </c>
-      <c r="P18" s="85">
+      <c r="P18" s="73">
         <v>4</v>
       </c>
       <c r="Q18" s="22">
@@ -4524,9 +4604,9 @@
         <v>72</v>
       </c>
     </row>
-    <row r="19" spans="1:18" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="91"/>
-      <c r="B19" s="102"/>
+    <row r="19" spans="1:18" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="90"/>
+      <c r="B19" s="75"/>
       <c r="C19" s="92"/>
       <c r="D19" s="54" t="s">
         <v>115</v>
@@ -4558,8 +4638,8 @@
       </c>
       <c r="M19" s="28"/>
       <c r="N19" s="98"/>
-      <c r="O19" s="86"/>
-      <c r="P19" s="86"/>
+      <c r="O19" s="81"/>
+      <c r="P19" s="81"/>
       <c r="Q19" s="22">
         <v>4</v>
       </c>
@@ -4568,9 +4648,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:18" ht="31.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="91"/>
-      <c r="B20" s="102"/>
+    <row r="20" spans="1:18" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="90"/>
+      <c r="B20" s="75"/>
       <c r="C20" s="92" t="s">
         <v>108</v>
       </c>
@@ -4583,7 +4663,7 @@
       <c r="F20" s="93" t="s">
         <v>118</v>
       </c>
-      <c r="G20" s="86"/>
+      <c r="G20" s="81"/>
       <c r="H20" s="22" t="s">
         <v>123</v>
       </c>
@@ -4602,8 +4682,8 @@
       </c>
       <c r="M20" s="28"/>
       <c r="N20" s="98"/>
-      <c r="O20" s="86"/>
-      <c r="P20" s="86"/>
+      <c r="O20" s="81"/>
+      <c r="P20" s="81"/>
       <c r="Q20" s="22">
         <v>3</v>
       </c>
@@ -4612,9 +4692,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="91"/>
-      <c r="B21" s="102"/>
+    <row r="21" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="90"/>
+      <c r="B21" s="75"/>
       <c r="C21" s="92"/>
       <c r="D21" s="53" t="s">
         <v>112</v>
@@ -4623,7 +4703,7 @@
         <v>6</v>
       </c>
       <c r="F21" s="94"/>
-      <c r="G21" s="87"/>
+      <c r="G21" s="82"/>
       <c r="H21" s="22"/>
       <c r="I21" s="27"/>
       <c r="J21" s="23">
@@ -4634,17 +4714,17 @@
       <c r="L21" s="29"/>
       <c r="M21" s="28"/>
       <c r="N21" s="96"/>
-      <c r="O21" s="86"/>
-      <c r="P21" s="87"/>
+      <c r="O21" s="81"/>
+      <c r="P21" s="82"/>
       <c r="Q21" s="22"/>
       <c r="R21" s="26">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:18" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="91"/>
-      <c r="B22" s="102"/>
+    <row r="22" spans="1:18" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="90"/>
+      <c r="B22" s="75"/>
       <c r="C22" s="53" t="s">
         <v>109</v>
       </c>
@@ -4678,13 +4758,13 @@
       </c>
       <c r="M22" s="28"/>
       <c r="N22" s="95" t="s">
-        <v>126</v>
-      </c>
-      <c r="O22" s="85">
+        <v>182</v>
+      </c>
+      <c r="O22" s="73">
         <f>E22</f>
         <v>8</v>
       </c>
-      <c r="P22" s="85">
+      <c r="P22" s="73">
         <f t="shared" ref="P22:P33" si="5">G22</f>
         <v>8</v>
       </c>
@@ -4696,9 +4776,9 @@
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:18" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="111"/>
-      <c r="B23" s="102"/>
+    <row r="23" spans="1:18" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="91"/>
+      <c r="B23" s="75"/>
       <c r="C23" s="53" t="s">
         <v>110</v>
       </c>
@@ -4733,7 +4813,7 @@
       <c r="M23" s="28"/>
       <c r="N23" s="96"/>
       <c r="O23" s="97"/>
-      <c r="P23" s="87"/>
+      <c r="P23" s="82"/>
       <c r="Q23" s="22">
         <v>4</v>
       </c>
@@ -4742,30 +4822,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:18" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="78" t="s">
+    <row r="24" spans="1:18" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="86" t="s">
+        <v>126</v>
+      </c>
+      <c r="B24" s="85" t="s">
+        <v>165</v>
+      </c>
+      <c r="C24" s="84" t="s">
         <v>127</v>
       </c>
-      <c r="B24" s="99" t="s">
-        <v>128</v>
-      </c>
-      <c r="C24" s="83" t="s">
-        <v>129</v>
-      </c>
-      <c r="D24" s="83" t="s">
-        <v>133</v>
-      </c>
-      <c r="E24" s="86">
+      <c r="D24" s="84" t="s">
+        <v>131</v>
+      </c>
+      <c r="E24" s="81">
         <v>5</v>
       </c>
       <c r="F24" s="22" t="s">
-        <v>134</v>
-      </c>
-      <c r="G24" s="85">
+        <v>132</v>
+      </c>
+      <c r="G24" s="73">
         <v>3</v>
       </c>
       <c r="H24" s="22" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I24" s="51">
         <v>5</v>
@@ -4775,16 +4855,16 @@
         <v>75</v>
       </c>
       <c r="K24" s="24" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="L24" s="22" t="s">
         <v>102</v>
       </c>
       <c r="M24" s="28"/>
-      <c r="N24" s="103" t="s">
-        <v>168</v>
-      </c>
-      <c r="O24" s="85">
+      <c r="N24" s="78" t="s">
+        <v>181</v>
+      </c>
+      <c r="O24" s="73">
         <f>E29</f>
         <v>3</v>
       </c>
@@ -4800,18 +4880,18 @@
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:18" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="79"/>
-      <c r="B25" s="81"/>
-      <c r="C25" s="83"/>
-      <c r="D25" s="83"/>
-      <c r="E25" s="86"/>
+    <row r="25" spans="1:18" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="87"/>
+      <c r="B25" s="77"/>
+      <c r="C25" s="84"/>
+      <c r="D25" s="84"/>
+      <c r="E25" s="81"/>
       <c r="F25" s="52" t="s">
-        <v>135</v>
-      </c>
-      <c r="G25" s="86"/>
+        <v>133</v>
+      </c>
+      <c r="G25" s="81"/>
       <c r="H25" s="22" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I25" s="51">
         <v>5</v>
@@ -4821,14 +4901,14 @@
         <v>75</v>
       </c>
       <c r="K25" s="24" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="L25" s="22" t="s">
         <v>102</v>
       </c>
       <c r="M25" s="28"/>
-      <c r="N25" s="104"/>
-      <c r="O25" s="86"/>
+      <c r="N25" s="79"/>
+      <c r="O25" s="81"/>
       <c r="P25" s="27">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -4841,18 +4921,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:18" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="79"/>
-      <c r="B26" s="81"/>
-      <c r="C26" s="83"/>
-      <c r="D26" s="83"/>
-      <c r="E26" s="86"/>
+    <row r="26" spans="1:18" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="87"/>
+      <c r="B26" s="77"/>
+      <c r="C26" s="84"/>
+      <c r="D26" s="84"/>
+      <c r="E26" s="81"/>
       <c r="F26" s="52" t="s">
-        <v>136</v>
-      </c>
-      <c r="G26" s="86"/>
+        <v>134</v>
+      </c>
+      <c r="G26" s="81"/>
       <c r="H26" s="22" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="I26" s="51">
         <v>5</v>
@@ -4862,14 +4942,14 @@
         <v>75</v>
       </c>
       <c r="K26" s="24" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="L26" s="22" t="s">
         <v>102</v>
       </c>
       <c r="M26" s="28"/>
-      <c r="N26" s="104"/>
-      <c r="O26" s="86"/>
+      <c r="N26" s="79"/>
+      <c r="O26" s="81"/>
       <c r="P26" s="27">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -4882,18 +4962,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:18" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="79"/>
-      <c r="B27" s="81"/>
-      <c r="C27" s="84"/>
-      <c r="D27" s="84"/>
-      <c r="E27" s="87"/>
+    <row r="27" spans="1:18" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="87"/>
+      <c r="B27" s="77"/>
+      <c r="C27" s="89"/>
+      <c r="D27" s="89"/>
+      <c r="E27" s="82"/>
       <c r="F27" s="22" t="s">
-        <v>137</v>
-      </c>
-      <c r="G27" s="87"/>
+        <v>135</v>
+      </c>
+      <c r="G27" s="82"/>
       <c r="H27" s="22" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="I27" s="51">
         <v>3</v>
@@ -4903,14 +4983,14 @@
         <v>45</v>
       </c>
       <c r="K27" s="24" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="L27" s="22" t="s">
         <v>102</v>
       </c>
       <c r="M27" s="28"/>
-      <c r="N27" s="105"/>
-      <c r="O27" s="87"/>
+      <c r="N27" s="80"/>
+      <c r="O27" s="82"/>
       <c r="P27" s="27">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -4923,26 +5003,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:18" ht="75.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="79"/>
-      <c r="B28" s="81"/>
+    <row r="28" spans="1:18" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="87"/>
+      <c r="B28" s="77"/>
       <c r="C28" s="48" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D28" s="48" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E28" s="49">
         <v>6</v>
       </c>
       <c r="F28" s="22" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G28" s="27">
         <v>6</v>
       </c>
       <c r="H28" s="22" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="I28" s="51">
         <v>5</v>
@@ -4952,14 +5032,14 @@
         <v>180</v>
       </c>
       <c r="K28" s="24" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="L28" s="22" t="s">
         <v>102</v>
       </c>
       <c r="M28" s="28"/>
       <c r="N28" s="65" t="s">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="O28" s="27">
         <f>E28</f>
@@ -4977,26 +5057,26 @@
         <v>54</v>
       </c>
     </row>
-    <row r="29" spans="1:18" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="79"/>
-      <c r="B29" s="81"/>
-      <c r="C29" s="82" t="s">
-        <v>131</v>
-      </c>
-      <c r="D29" s="82" t="s">
-        <v>132</v>
-      </c>
-      <c r="E29" s="85">
+    <row r="29" spans="1:18" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="87"/>
+      <c r="B29" s="77"/>
+      <c r="C29" s="83" t="s">
+        <v>129</v>
+      </c>
+      <c r="D29" s="83" t="s">
+        <v>130</v>
+      </c>
+      <c r="E29" s="73">
         <v>3</v>
       </c>
       <c r="F29" s="22" t="s">
-        <v>148</v>
-      </c>
-      <c r="G29" s="85">
+        <v>146</v>
+      </c>
+      <c r="G29" s="73">
         <v>4</v>
       </c>
       <c r="H29" s="22" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="I29" s="51">
         <v>6</v>
@@ -5006,16 +5086,16 @@
         <v>72</v>
       </c>
       <c r="K29" s="24" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="L29" s="22" t="s">
         <v>102</v>
       </c>
       <c r="M29" s="28"/>
-      <c r="N29" s="103" t="s">
-        <v>168</v>
-      </c>
-      <c r="O29" s="85">
+      <c r="N29" s="78" t="s">
+        <v>181</v>
+      </c>
+      <c r="O29" s="73">
         <f>E29</f>
         <v>3</v>
       </c>
@@ -5031,18 +5111,18 @@
         <v>48</v>
       </c>
     </row>
-    <row r="30" spans="1:18" ht="88.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="100"/>
-      <c r="B30" s="81"/>
-      <c r="C30" s="83"/>
-      <c r="D30" s="83"/>
-      <c r="E30" s="86"/>
+    <row r="30" spans="1:18" ht="88.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="88"/>
+      <c r="B30" s="77"/>
+      <c r="C30" s="84"/>
+      <c r="D30" s="84"/>
+      <c r="E30" s="81"/>
       <c r="F30" s="52" t="s">
-        <v>149</v>
-      </c>
-      <c r="G30" s="86"/>
+        <v>147</v>
+      </c>
+      <c r="G30" s="81"/>
       <c r="H30" s="22" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="I30" s="51">
         <v>6</v>
@@ -5052,14 +5132,14 @@
         <v>72</v>
       </c>
       <c r="K30" s="24" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="L30" s="22" t="s">
         <v>102</v>
       </c>
       <c r="M30" s="28"/>
-      <c r="N30" s="104"/>
-      <c r="O30" s="101"/>
+      <c r="N30" s="79"/>
+      <c r="O30" s="74"/>
       <c r="P30" s="27">
         <v>4</v>
       </c>
@@ -5071,30 +5151,30 @@
         <v>48</v>
       </c>
     </row>
-    <row r="31" spans="1:18" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="78" t="s">
-        <v>156</v>
-      </c>
-      <c r="B31" s="80" t="s">
-        <v>160</v>
+    <row r="31" spans="1:18" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="86" t="s">
+        <v>154</v>
+      </c>
+      <c r="B31" s="76" t="s">
+        <v>166</v>
       </c>
       <c r="C31" s="63" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D31" s="63" t="s">
+        <v>158</v>
+      </c>
+      <c r="E31" s="72">
+        <v>8</v>
+      </c>
+      <c r="F31" s="22" t="s">
         <v>161</v>
       </c>
-      <c r="E31" s="110">
+      <c r="G31" s="72">
         <v>8</v>
       </c>
-      <c r="F31" s="22" t="s">
+      <c r="H31" s="22" t="s">
         <v>164</v>
-      </c>
-      <c r="G31" s="110">
-        <v>8</v>
-      </c>
-      <c r="H31" s="22" t="s">
-        <v>167</v>
       </c>
       <c r="I31" s="51">
         <v>6</v>
@@ -5104,16 +5184,16 @@
         <v>384</v>
       </c>
       <c r="K31" s="22" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="L31" s="22" t="s">
         <v>102</v>
       </c>
       <c r="M31" s="28"/>
-      <c r="N31" s="103" t="s">
-        <v>169</v>
-      </c>
-      <c r="O31" s="85">
+      <c r="N31" s="78" t="s">
+        <v>184</v>
+      </c>
+      <c r="O31" s="73">
         <f>E31</f>
         <v>8</v>
       </c>
@@ -5129,20 +5209,20 @@
         <v>256</v>
       </c>
     </row>
-    <row r="32" spans="1:18" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="79"/>
-      <c r="B32" s="81"/>
+    <row r="32" spans="1:18" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="87"/>
+      <c r="B32" s="77"/>
       <c r="C32" s="63" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D32" s="63" t="s">
+        <v>159</v>
+      </c>
+      <c r="E32" s="72">
+        <v>8</v>
+      </c>
+      <c r="F32" s="52" t="s">
         <v>162</v>
-      </c>
-      <c r="E32" s="110">
-        <v>8</v>
-      </c>
-      <c r="F32" s="52" t="s">
-        <v>165</v>
       </c>
       <c r="G32" s="55">
         <v>7</v>
@@ -5164,8 +5244,8 @@
         <v>102</v>
       </c>
       <c r="M32" s="28"/>
-      <c r="N32" s="104"/>
-      <c r="O32" s="101"/>
+      <c r="N32" s="79"/>
+      <c r="O32" s="74"/>
       <c r="P32" s="27">
         <f t="shared" si="5"/>
         <v>7</v>
@@ -5178,22 +5258,22 @@
         <v>224</v>
       </c>
     </row>
-    <row r="33" spans="1:23" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="100"/>
-      <c r="B33" s="81"/>
+    <row r="33" spans="1:23" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="88"/>
+      <c r="B33" s="77"/>
       <c r="C33" s="63" t="s">
-        <v>159</v>
-      </c>
-      <c r="D33" s="106" t="s">
+        <v>157</v>
+      </c>
+      <c r="D33" s="68" t="s">
+        <v>160</v>
+      </c>
+      <c r="E33" s="72">
+        <v>7</v>
+      </c>
+      <c r="F33" s="52" t="s">
         <v>163</v>
       </c>
-      <c r="E33" s="110">
-        <v>7</v>
-      </c>
-      <c r="F33" s="52" t="s">
-        <v>166</v>
-      </c>
-      <c r="G33" s="110">
+      <c r="G33" s="72">
         <v>7</v>
       </c>
       <c r="H33" s="22" t="s">
@@ -5213,8 +5293,8 @@
         <v>102</v>
       </c>
       <c r="M33" s="28"/>
-      <c r="N33" s="105"/>
-      <c r="O33" s="101"/>
+      <c r="N33" s="80"/>
+      <c r="O33" s="74"/>
       <c r="P33" s="27">
         <f t="shared" si="5"/>
         <v>7</v>
@@ -5227,485 +5307,645 @@
         <v>112</v>
       </c>
     </row>
-    <row r="34" spans="1:23" ht="110.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="B34" s="107" t="s">
-        <v>37</v>
-      </c>
-      <c r="C34" s="108" t="s">
-        <v>38</v>
-      </c>
-      <c r="D34" s="109" t="s">
-        <v>39</v>
-      </c>
-      <c r="E34" s="31"/>
-      <c r="F34" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="G34" s="33"/>
-      <c r="H34" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="I34" s="33"/>
-      <c r="J34" s="35"/>
-      <c r="K34" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="L34" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="M34" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="N34" s="36" t="s">
-        <v>45</v>
-      </c>
-      <c r="O34" s="37"/>
-      <c r="P34" s="37"/>
-      <c r="Q34" s="37"/>
-      <c r="R34" s="38"/>
+    <row r="34" spans="1:23" ht="87" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="86" t="s">
+        <v>167</v>
+      </c>
+      <c r="B34" s="76" t="s">
+        <v>171</v>
+      </c>
+      <c r="C34" s="63" t="s">
+        <v>169</v>
+      </c>
+      <c r="D34" s="63" t="s">
+        <v>172</v>
+      </c>
+      <c r="E34" s="72">
+        <v>10</v>
+      </c>
+      <c r="F34" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="G34" s="72">
+        <v>10</v>
+      </c>
+      <c r="H34" s="22" t="s">
+        <v>178</v>
+      </c>
+      <c r="I34" s="66">
+        <v>1</v>
+      </c>
+      <c r="J34" s="23" t="e">
+        <f>$E$31*$G$31:$G$33*I34</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K34" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="L34" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="M34" s="28"/>
+      <c r="N34" s="78" t="s">
+        <v>183</v>
+      </c>
+      <c r="O34" s="73">
+        <f>E34</f>
+        <v>10</v>
+      </c>
+      <c r="P34" s="27">
+        <f t="shared" ref="P34:P36" si="10">G34</f>
+        <v>10</v>
+      </c>
+      <c r="Q34" s="22">
+        <v>0</v>
+      </c>
+      <c r="R34" s="26">
+        <f>O$31*P34*Q34</f>
+        <v>0</v>
+      </c>
       <c r="T34" s="39"/>
       <c r="U34" s="40"/>
       <c r="V34" s="41"/>
       <c r="W34" s="41"/>
     </row>
-    <row r="35" spans="1:23" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C35" s="42"/>
-      <c r="E35" s="42"/>
-      <c r="G35" s="42"/>
-      <c r="I35" s="42"/>
+    <row r="35" spans="1:23" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="87"/>
+      <c r="B35" s="77"/>
+      <c r="C35" s="63" t="s">
+        <v>168</v>
+      </c>
+      <c r="D35" s="63" t="s">
+        <v>174</v>
+      </c>
+      <c r="E35" s="72">
+        <v>10</v>
+      </c>
+      <c r="F35" s="67" t="s">
+        <v>176</v>
+      </c>
+      <c r="G35" s="55">
+        <v>9</v>
+      </c>
+      <c r="H35" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="I35" s="66">
+        <v>8</v>
+      </c>
+      <c r="J35" s="23" t="e">
+        <f>$E$31*$G$31:$G$33*I35</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K35" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="L35" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="M35" s="28"/>
+      <c r="N35" s="79"/>
+      <c r="O35" s="74"/>
+      <c r="P35" s="27">
+        <f t="shared" si="10"/>
+        <v>9</v>
+      </c>
+      <c r="Q35" s="22">
+        <v>6</v>
+      </c>
+      <c r="R35" s="26">
+        <f t="shared" ref="R35:R36" si="11">O$31*P35*Q35</f>
+        <v>432</v>
+      </c>
       <c r="T35" s="39"/>
       <c r="U35" s="41"/>
       <c r="V35" s="41"/>
       <c r="W35" s="41"/>
     </row>
-    <row r="36" spans="1:23" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" spans="1:23" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" spans="1:23" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" spans="1:23" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" spans="1:23" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" spans="1:23" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" spans="1:23" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" spans="1:23" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" spans="1:23" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" spans="1:23" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" spans="1:23" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" spans="1:23" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" spans="1:23" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="49" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="50" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="51" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="52" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="53" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="54" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="55" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="56" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="57" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="58" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="59" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="60" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="61" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="62" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="63" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="64" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="65" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="66" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="67" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="68" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="69" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="70" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="71" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="72" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="73" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="74" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="75" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="76" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="77" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="78" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="79" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="80" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="81" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="82" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="83" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="84" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="85" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="86" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="87" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="88" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="89" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="90" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="91" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="92" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="93" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="94" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="95" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="96" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="97" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="98" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="99" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="100" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="101" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="102" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="103" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="104" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="105" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="106" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="107" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="108" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="109" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="110" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="111" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="112" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="113" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="114" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="115" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="116" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="117" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="118" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="119" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="120" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="121" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="122" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="123" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="124" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="125" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="126" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="127" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="128" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="129" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="130" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="131" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="132" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="133" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="134" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="135" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="136" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="137" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="138" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="139" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="140" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="141" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="142" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="143" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="144" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="145" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="146" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="147" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="148" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="149" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="150" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="151" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="152" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="153" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="154" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="155" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="156" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="157" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="158" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="159" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="160" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="161" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="162" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="163" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="164" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="165" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="166" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="167" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="168" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="169" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="170" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="171" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="172" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="173" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="174" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="175" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="176" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="177" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="178" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="179" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="180" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="181" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="182" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="183" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="184" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="185" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="186" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="187" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="188" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="189" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="190" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="191" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="192" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="193" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="194" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="195" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="196" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="197" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="198" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="199" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="200" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="201" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="202" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="203" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="204" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="205" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="206" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="207" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="208" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="209" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="210" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="211" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="212" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="213" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="214" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="215" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="216" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="217" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="218" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="219" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="220" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="221" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="222" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="223" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="224" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="225" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="226" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="227" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="228" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="229" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="230" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="231" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="232" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="233" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="234" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="235" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="236" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="237" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="238" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="239" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="240" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="241" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="242" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="243" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="244" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="245" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="246" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="247" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="248" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="249" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="250" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="251" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="252" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="253" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="254" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="255" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="256" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="257" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="258" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="259" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="260" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="261" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="262" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="263" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="264" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="265" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="266" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="267" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="268" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="269" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="270" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="271" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="272" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="273" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="274" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="275" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="276" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="277" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="278" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="279" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="280" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="281" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="282" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="283" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="284" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="285" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="286" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="287" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="288" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="289" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="290" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="291" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="292" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="293" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="294" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="295" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="296" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="297" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="298" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="299" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="300" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="301" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="302" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="303" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="304" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="305" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="306" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="307" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="308" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="309" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="310" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="311" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="312" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="313" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="314" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="315" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="316" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="317" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="318" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="319" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="320" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="321" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="322" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="323" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="324" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="325" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="326" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="327" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="328" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="329" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="330" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="331" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="332" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="333" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="334" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="335" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="336" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="337" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="338" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="339" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="340" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="341" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="342" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="343" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="344" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="345" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="346" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="347" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="348" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="349" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="350" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="351" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="352" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="353" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="354" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="355" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="356" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="357" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="358" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="359" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="360" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="361" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="362" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="363" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="364" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="365" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="366" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="367" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="368" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="369" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="370" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="371" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="372" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="373" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="374" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="375" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="376" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="377" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="378" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="379" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="380" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="381" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="382" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="383" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="384" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="385" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="386" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="387" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="388" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="389" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="390" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="391" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="392" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="393" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="394" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="395" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="396" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="397" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="398" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="399" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="400" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="401" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="402" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="403" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="404" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="405" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="406" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="407" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="408" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="409" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="410" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="411" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="412" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="413" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="414" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="415" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="416" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="417" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="418" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="419" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="420" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="421" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="422" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="423" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="424" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="425" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="426" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="427" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="428" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="429" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="430" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="431" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="432" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="433" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="434" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="435" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="436" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="437" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" spans="1:23" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="88"/>
+      <c r="B36" s="77"/>
+      <c r="C36" s="63" t="s">
+        <v>170</v>
+      </c>
+      <c r="D36" s="68" t="s">
+        <v>175</v>
+      </c>
+      <c r="E36" s="72">
+        <v>3</v>
+      </c>
+      <c r="F36" s="67" t="s">
+        <v>177</v>
+      </c>
+      <c r="G36" s="72">
+        <v>1</v>
+      </c>
+      <c r="H36" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="I36" s="66">
+        <v>8</v>
+      </c>
+      <c r="J36" s="23" t="e">
+        <f>$E$31*$G$31:$G$33*I36</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K36" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="L36" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="M36" s="28"/>
+      <c r="N36" s="80"/>
+      <c r="O36" s="74"/>
+      <c r="P36" s="27">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="Q36" s="22">
+        <v>6</v>
+      </c>
+      <c r="R36" s="26">
+        <f t="shared" si="11"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37" s="69" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37" s="70" t="s">
+        <v>38</v>
+      </c>
+      <c r="D37" s="71" t="s">
+        <v>39</v>
+      </c>
+      <c r="E37" s="31"/>
+      <c r="F37" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="G37" s="33"/>
+      <c r="H37" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="I37" s="33"/>
+      <c r="J37" s="35"/>
+      <c r="K37" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="L37" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="M37" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="N37" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="O37" s="37"/>
+      <c r="P37" s="37"/>
+      <c r="Q37" s="37"/>
+      <c r="R37" s="38"/>
+    </row>
+    <row r="38" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C38" s="42"/>
+      <c r="E38" s="42"/>
+      <c r="G38" s="42"/>
+      <c r="I38" s="42"/>
+    </row>
+    <row r="39" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="42" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="44" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="45" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="46" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="47" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="48" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="50" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="51" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="52" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="53" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="54" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="55" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="56" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="57" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="58" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="59" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="60" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="61" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="62" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="63" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="64" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="65" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="66" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="67" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="68" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="69" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="70" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="71" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="72" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="74" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="75" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="76" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="77" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="78" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="79" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="80" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="81" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="82" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="83" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="84" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="85" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="86" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="87" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="88" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="89" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="90" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="91" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="92" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="93" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="94" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="95" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="96" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="97" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="98" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="99" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="100" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="101" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="102" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="103" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="104" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="105" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="106" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="107" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="108" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="109" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="110" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="111" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="112" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="113" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="114" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="115" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="116" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="117" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="118" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="119" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="120" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="121" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="122" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="123" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="124" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="125" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="126" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="127" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="128" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="129" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="130" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="131" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="132" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="133" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="134" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="135" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="136" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="137" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="138" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="139" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="140" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="141" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="142" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="143" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="144" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="145" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="146" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="147" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="148" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="149" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="150" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="151" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="152" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="153" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="154" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="155" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="156" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="157" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="158" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="159" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="160" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="161" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="162" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="163" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="164" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="165" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="166" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="167" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="168" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="169" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="170" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="171" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="172" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="173" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="174" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="175" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="176" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="177" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="178" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="179" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="180" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="181" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="182" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="183" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="184" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="185" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="186" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="187" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="188" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="189" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="190" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="191" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="192" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="193" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="194" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="195" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="196" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="197" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="198" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="199" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="200" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="201" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="202" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="203" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="204" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="205" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="206" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="207" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="208" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="209" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="210" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="211" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="212" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="213" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="214" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="215" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="216" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="217" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="218" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="219" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="220" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="221" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="222" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="223" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="224" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="225" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="226" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="227" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="228" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="229" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="230" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="231" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="232" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="233" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="234" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="235" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="236" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="237" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="238" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="239" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="240" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="241" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="242" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="243" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="244" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="245" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="246" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="247" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="248" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="249" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="250" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="251" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="252" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="253" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="254" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="255" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="256" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="257" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="258" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="259" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="260" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="261" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="262" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="263" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="264" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="265" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="266" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="267" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="268" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="269" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="270" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="271" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="272" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="273" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="274" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="275" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="276" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="277" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="278" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="279" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="280" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="281" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="282" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="283" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="284" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="285" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="286" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="287" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="288" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="289" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="290" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="291" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="292" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="293" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="294" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="295" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="296" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="297" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="298" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="299" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="300" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="301" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="302" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="303" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="304" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="305" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="306" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="307" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="308" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="309" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="310" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="311" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="312" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="313" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="314" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="315" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="316" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="317" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="318" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="319" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="320" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="321" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="322" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="323" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="324" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="325" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="326" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="327" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="328" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="329" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="330" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="331" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="332" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="333" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="334" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="335" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="336" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="337" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="338" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="339" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="340" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="341" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="342" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="343" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="344" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="345" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="346" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="347" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="348" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="349" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="350" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="351" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="352" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="353" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="354" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="355" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="356" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="357" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="358" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="359" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="360" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="361" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="362" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="363" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="364" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="365" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="366" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="367" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="368" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="369" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="370" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="371" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="372" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="373" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="374" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="375" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="376" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="377" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="378" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="379" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="380" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="381" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="382" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="383" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="384" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="385" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="386" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="387" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="388" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="389" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="390" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="391" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="392" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="393" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="394" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="395" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="396" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="397" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="398" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="399" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="400" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="401" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="402" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="403" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="404" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="405" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="406" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="407" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="408" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="409" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="410" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="411" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="412" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="413" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="414" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="415" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="416" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="417" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="418" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="419" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="420" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="421" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="422" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="423" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="424" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="425" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="426" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="427" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="428" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="429" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="430" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="431" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="432" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="433" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="434" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="435" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="436" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="437" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="61">
-    <mergeCell ref="O31:O33"/>
-    <mergeCell ref="B18:B23"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="N31:N33"/>
-    <mergeCell ref="O24:O27"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="N29:N30"/>
-    <mergeCell ref="O29:O30"/>
-    <mergeCell ref="N24:N27"/>
-    <mergeCell ref="O18:O21"/>
-    <mergeCell ref="G24:G27"/>
-    <mergeCell ref="B24:B30"/>
-    <mergeCell ref="A31:A33"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="A24:A30"/>
-    <mergeCell ref="C24:C27"/>
-    <mergeCell ref="D24:D27"/>
-    <mergeCell ref="E24:E27"/>
+  <mergeCells count="65">
+    <mergeCell ref="A34:A36"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="N34:N36"/>
+    <mergeCell ref="O34:O36"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="H2:L2"/>
+    <mergeCell ref="A6:A17"/>
+    <mergeCell ref="B6:B17"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="D6:D9"/>
+    <mergeCell ref="E6:E9"/>
+    <mergeCell ref="G6:G9"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="E10:E12"/>
+    <mergeCell ref="G10:G12"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="N6:N17"/>
+    <mergeCell ref="O6:O9"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="G15:G17"/>
+    <mergeCell ref="O15:O17"/>
     <mergeCell ref="P15:P17"/>
     <mergeCell ref="P6:P9"/>
     <mergeCell ref="C10:C12"/>
@@ -5722,33 +5962,30 @@
     <mergeCell ref="O10:O12"/>
     <mergeCell ref="P10:P12"/>
     <mergeCell ref="P13:P14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="N6:N17"/>
-    <mergeCell ref="O6:O9"/>
-    <mergeCell ref="D15:D17"/>
-    <mergeCell ref="E15:E17"/>
-    <mergeCell ref="G15:G17"/>
-    <mergeCell ref="O15:O17"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="I1:L1"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="H2:L2"/>
-    <mergeCell ref="A6:A17"/>
-    <mergeCell ref="B6:B17"/>
-    <mergeCell ref="C6:C9"/>
-    <mergeCell ref="D6:D9"/>
-    <mergeCell ref="E6:E9"/>
-    <mergeCell ref="G6:G9"/>
-    <mergeCell ref="D10:D12"/>
-    <mergeCell ref="E10:E12"/>
-    <mergeCell ref="G10:G12"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="A24:A30"/>
+    <mergeCell ref="C24:C27"/>
+    <mergeCell ref="D24:D27"/>
+    <mergeCell ref="O31:O33"/>
+    <mergeCell ref="B18:B23"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="N31:N33"/>
+    <mergeCell ref="O24:O27"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="N29:N30"/>
+    <mergeCell ref="O29:O30"/>
+    <mergeCell ref="N24:N27"/>
+    <mergeCell ref="O18:O21"/>
+    <mergeCell ref="G24:G27"/>
+    <mergeCell ref="B24:B30"/>
+    <mergeCell ref="E24:E27"/>
   </mergeCells>
   <conditionalFormatting sqref="J6:J33">
-    <cfRule type="colorScale" priority="26">
+    <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5758,15 +5995,45 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="27" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="31" operator="greaterThan">
       <formula>80</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="28" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="32" operator="greaterThan">
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R6:R33">
-    <cfRule type="colorScale" priority="29">
+    <cfRule type="colorScale" priority="33">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J34:J36">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
+      <formula>80</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="greaterThan">
+      <formula>100</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R34:R36">
+    <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5790,22 +6057,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="43.26953125" customWidth="1"/>
-    <col min="3" max="3" width="35.26953125" customWidth="1"/>
-    <col min="4" max="4" width="40.1796875" customWidth="1"/>
+    <col min="2" max="2" width="43.28515625" customWidth="1"/>
+    <col min="3" max="3" width="35.28515625" customWidth="1"/>
+    <col min="4" max="4" width="40.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="13" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:4" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:4" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="43"/>
       <c r="B2" s="44" t="s">
         <v>46</v>
@@ -5817,7 +6084,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="31.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="45">
         <v>1</v>
       </c>
@@ -5831,7 +6098,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="31.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="45">
         <v>2</v>
       </c>
@@ -5845,7 +6112,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="31.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="45">
         <v>3</v>
       </c>
@@ -5859,7 +6126,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="45">
         <v>4</v>
       </c>
@@ -5873,7 +6140,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="47" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="45">
         <v>5</v>
       </c>
@@ -5887,7 +6154,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="31.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="45">
         <v>6</v>
       </c>
@@ -5901,7 +6168,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="47" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="45">
         <v>7</v>
       </c>
@@ -5915,7 +6182,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="62.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="60.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="45">
         <v>8</v>
       </c>
@@ -5929,7 +6196,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="31.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="45">
         <v>9</v>
       </c>
@@ -5943,7 +6210,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="31.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="45">
         <v>10</v>
       </c>
@@ -5964,6 +6231,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008627D652ECF16F40ADBE374E3D3D87F6" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a82faf83e130f03aec18d17d2520a96e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="fb007535-a6a4-4ea0-86da-29f43c46b391" xmlns:ns3="b4c971ed-d55e-45d5-823f-e5f0a4d5378a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="87a257aab2ea2865cd171ccfb5db57b0" ns2:_="" ns3:_="">
     <xsd:import namespace="fb007535-a6a4-4ea0-86da-29f43c46b391"/>
@@ -6128,15 +6404,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -6144,6 +6411,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{83D99D69-C41B-42E2-B319-512FDE30DA9C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FE32DFB4-4620-4CB8-8357-3506FC850A95}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6158,14 +6433,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{83D99D69-C41B-42E2-B319-512FDE30DA9C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
